--- a/Hardware/Fasteners Sheet.xlsx
+++ b/Hardware/Fasteners Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wyrmtek-my.sharepoint.com/personal/nicholas_w_wyrmtek_co_uk/Documents/_WyrmTEK Org/0020.Project-Baryonyx/Project-Baryonyx/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{24E1F280-E344-4C30-AAD9-2481BEF86E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A08332B-9080-4C25-8778-AE0BC334E08B}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{24E1F280-E344-4C30-AAD9-2481BEF86E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21526ADD-13ED-4D58-84A6-7B00D211D8AC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25140" windowHeight="13440" xr2:uid="{3DD09F08-3199-4BF2-AD8E-2DC35BA7DCFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DD09F08-3199-4BF2-AD8E-2DC35BA7DCFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Fasteners Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>Description</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>5/16</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Changes Made</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Climate Control Box Rebuild</t>
   </si>
 </sst>
 </file>
@@ -784,6 +796,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1103,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F337ADD9-1E1E-40AF-A85E-8BFE973AF8D4}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,9 +1135,12 @@
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1149,8 +1168,17 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1199,7 +1227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1219,7 +1247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1242,7 +1270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1259,7 +1287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1276,7 +1304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1296,7 +1324,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1319,7 +1347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1342,7 +1370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1359,7 +1387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1376,7 +1404,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1393,7 +1421,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1501,6 +1529,11 @@
       </c>
       <c r="G22" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/Fasteners Sheet.xlsx
+++ b/Hardware/Fasteners Sheet.xlsx
@@ -8,27 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wyrmtek-my.sharepoint.com/personal/nicholas_w_wyrmtek_co_uk/Documents/_WyrmTEK Org/0020.Project-Baryonyx/Project-Baryonyx/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{24E1F280-E344-4C30-AAD9-2481BEF86E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21526ADD-13ED-4D58-84A6-7B00D211D8AC}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="8_{24E1F280-E344-4C30-AAD9-2481BEF86E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67449546-CAB7-4AF4-A5BE-DD8EB2F60697}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DD09F08-3199-4BF2-AD8E-2DC35BA7DCFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25140" windowHeight="13440" xr2:uid="{3DD09F08-3199-4BF2-AD8E-2DC35BA7DCFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fasteners Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Fasteners" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="95">
   <si>
     <t>Figure</t>
-  </si>
-  <si>
-    <t>Item No.</t>
   </si>
   <si>
     <t>Qty</t>
@@ -46,12 +40,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Ordered</t>
-  </si>
-  <si>
-    <t>Sun Visor, Screw</t>
-  </si>
-  <si>
     <t>IYJ-105</t>
   </si>
   <si>
@@ -59,12 +47,6 @@
   </si>
   <si>
     <t>Torx, Pan Head</t>
-  </si>
-  <si>
-    <t>Shared part, hood and tailgate</t>
-  </si>
-  <si>
-    <t>Hardtop, screw, .190-16x.500</t>
   </si>
   <si>
     <t>SYJ-1110C</t>
@@ -79,34 +61,13 @@
     <t>No.10x1/2</t>
   </si>
   <si>
-    <t>Replace with metric fasteners</t>
-  </si>
-  <si>
-    <t>Bolt, Body Mount, Large</t>
-  </si>
-  <si>
     <t>13-510</t>
   </si>
   <si>
     <t>J400 7571</t>
   </si>
   <si>
-    <t>3/8x4</t>
-  </si>
-  <si>
-    <t>Bolt, Body Mount, Small</t>
-  </si>
-  <si>
     <t>J400 7412</t>
-  </si>
-  <si>
-    <t>5/16x4</t>
-  </si>
-  <si>
-    <t>Rear, either side of fuel tank</t>
-  </si>
-  <si>
-    <t>Fender Bolt</t>
   </si>
   <si>
     <t>SYJ-410B</t>
@@ -118,28 +79,7 @@
     <t>Hex Head Bolt</t>
   </si>
   <si>
-    <t>Fender Nut</t>
-  </si>
-  <si>
-    <t>J012 0376</t>
-  </si>
-  <si>
-    <t>Hex Nut</t>
-  </si>
-  <si>
-    <t>Screw, Cowl Vent Grill</t>
-  </si>
-  <si>
-    <t>SYJ-610A</t>
-  </si>
-  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>SCREW, (.164-15x.750), (Not Serviced)</t>
-  </si>
-  <si>
-    <t>Washer Nozzle Screws</t>
   </si>
   <si>
     <t>23D-210A</t>
@@ -154,16 +94,10 @@
     <t>No.8x3/8</t>
   </si>
   <si>
-    <t>Grill and Fenders</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
     <t>5/16x1</t>
-  </si>
-  <si>
-    <t>5/16 Nuts, Various</t>
   </si>
   <si>
     <t>Bumper</t>
@@ -178,16 +112,10 @@
     <t>1/2x1-3/8</t>
   </si>
   <si>
-    <t>Tow Hook Bumper</t>
-  </si>
-  <si>
     <t>J400 7467</t>
   </si>
   <si>
     <t>1/2x1-1/2</t>
-  </si>
-  <si>
-    <t>Rear Bench Bolts</t>
   </si>
   <si>
     <t>J400 4626</t>
@@ -196,19 +124,10 @@
     <t>3/8x7/8</t>
   </si>
   <si>
-    <t>Cowl Vent Cover Screws</t>
-  </si>
-  <si>
     <t>No.10x3/4</t>
   </si>
   <si>
-    <t>Body Bolt?</t>
-  </si>
-  <si>
     <t>7/16x2-3/8</t>
-  </si>
-  <si>
-    <t>Fender Mounted Hardware</t>
   </si>
   <si>
     <t>1150 0101</t>
@@ -220,40 +139,172 @@
     <t>1/4x1/2</t>
   </si>
   <si>
-    <t>MAP Sensor Mounting</t>
-  </si>
-  <si>
     <t>J812 0054</t>
   </si>
   <si>
     <t>No.12x1/2</t>
   </si>
   <si>
-    <t>Evap Canister Mounting</t>
-  </si>
-  <si>
     <t>6022 202</t>
-  </si>
-  <si>
-    <t>Brake Bracket</t>
   </si>
   <si>
     <t>5/16x5/8</t>
   </si>
   <si>
-    <t>5/16</t>
+    <t>Fender</t>
   </si>
   <si>
-    <t>Supplier</t>
+    <t>Mounted Hardware</t>
   </si>
   <si>
-    <t>Changes Made</t>
+    <t>Frame</t>
   </si>
   <si>
-    <t>Material</t>
+    <t>Body</t>
   </si>
   <si>
-    <t>Climate Control Box Rebuild</t>
+    <t>Flare Screws</t>
+  </si>
+  <si>
+    <t>Fender to Grill Bolts</t>
+  </si>
+  <si>
+    <t>Fender to Body Bolts</t>
+  </si>
+  <si>
+    <t>Fender Support Bolts</t>
+  </si>
+  <si>
+    <t>Fender Support Nuts</t>
+  </si>
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>Seat Base to Body Bolt</t>
+  </si>
+  <si>
+    <t>Seat Base to Body Nut</t>
+  </si>
+  <si>
+    <t>All exterior facing fasteners should be A4 - unless strength is a factor</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Subsection</t>
+  </si>
+  <si>
+    <t>Frame to Body Bolt, Large</t>
+  </si>
+  <si>
+    <t>Frame to Body Bolt, Small</t>
+  </si>
+  <si>
+    <t>Bumper to Frame Bolt</t>
+  </si>
+  <si>
+    <t>Tow Hook to Frame Bolt</t>
+  </si>
+  <si>
+    <t>Crossmember</t>
+  </si>
+  <si>
+    <t>Brake Line Cover Bolt</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Door Hinge Pin Nut</t>
+  </si>
+  <si>
+    <t>Hardtop</t>
+  </si>
+  <si>
+    <t>Hardtop to Windscreen Bolt</t>
+  </si>
+  <si>
+    <t>Engine Bay</t>
+  </si>
+  <si>
+    <t>MAP Sensor Bracket Bolt</t>
+  </si>
+  <si>
+    <t>Cowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cowl Vent Cover Screws </t>
+  </si>
+  <si>
+    <t>Figure No.</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Sunvisor Screw</t>
+  </si>
+  <si>
+    <t>Washer Nozzle Screw</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Evap Canister Mount Screw</t>
+  </si>
+  <si>
+    <t>Evap Canister Clamp Screw</t>
+  </si>
+  <si>
+    <t>Pedal Box</t>
+  </si>
+  <si>
+    <t>Mounting Bolt</t>
+  </si>
+  <si>
+    <t>Mounting Nut</t>
+  </si>
+  <si>
+    <t>Mounting</t>
+  </si>
+  <si>
+    <t>ECM Mounting</t>
+  </si>
+  <si>
+    <t>Brake Booster</t>
+  </si>
+  <si>
+    <t>Clutch Master</t>
+  </si>
+  <si>
+    <t>Nyloc Nut</t>
+  </si>
+  <si>
+    <t>Rear Bench to Body Bolt</t>
+  </si>
+  <si>
+    <t>Steering</t>
+  </si>
+  <si>
+    <t>Bracket Bolt</t>
+  </si>
+  <si>
+    <t>J027 3573</t>
+  </si>
+  <si>
+    <t>19-225</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -1118,428 +1169,8814 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F337ADD9-1E1E-40AF-A85E-8BFE973AF8D4}">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A32619-A0A2-477F-8748-6403457D65CA}">
+  <dimension ref="A1:XFC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="22" ySplit="2" topLeftCell="W15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14"/>
+      <c r="M14"/>
+      <c r="O14"/>
+      <c r="Q14"/>
+      <c r="S14"/>
+      <c r="U14"/>
+      <c r="W14"/>
+      <c r="Y14"/>
+      <c r="AA14"/>
+      <c r="AC14"/>
+      <c r="AE14"/>
+      <c r="AG14"/>
+      <c r="AI14"/>
+      <c r="AK14"/>
+      <c r="AM14"/>
+      <c r="AO14"/>
+      <c r="AQ14"/>
+      <c r="AS14"/>
+      <c r="AU14"/>
+      <c r="AW14"/>
+      <c r="AY14"/>
+      <c r="BA14"/>
+      <c r="BC14"/>
+      <c r="BE14"/>
+      <c r="BG14"/>
+      <c r="BI14"/>
+      <c r="BK14"/>
+      <c r="BM14"/>
+      <c r="BO14"/>
+      <c r="BQ14"/>
+      <c r="BS14"/>
+      <c r="BU14"/>
+      <c r="BW14"/>
+      <c r="BY14"/>
+      <c r="CA14"/>
+      <c r="CC14"/>
+      <c r="CE14"/>
+      <c r="CG14"/>
+      <c r="CI14"/>
+      <c r="CK14"/>
+      <c r="CM14"/>
+      <c r="CO14"/>
+      <c r="CQ14"/>
+      <c r="CS14"/>
+      <c r="CU14"/>
+      <c r="CW14"/>
+      <c r="CY14"/>
+      <c r="DA14"/>
+      <c r="DC14"/>
+      <c r="DE14"/>
+      <c r="DG14"/>
+      <c r="DI14"/>
+      <c r="DK14"/>
+      <c r="DM14"/>
+      <c r="DO14"/>
+      <c r="DQ14"/>
+      <c r="DS14"/>
+      <c r="DU14"/>
+      <c r="DW14"/>
+      <c r="DY14"/>
+      <c r="EA14"/>
+      <c r="EC14"/>
+      <c r="EE14"/>
+      <c r="EG14"/>
+      <c r="EI14"/>
+      <c r="EK14"/>
+      <c r="EM14"/>
+      <c r="EO14"/>
+      <c r="EQ14"/>
+      <c r="ES14"/>
+      <c r="EU14"/>
+      <c r="EW14"/>
+      <c r="EY14"/>
+      <c r="FA14"/>
+      <c r="FC14"/>
+      <c r="FE14"/>
+      <c r="FG14"/>
+      <c r="FI14"/>
+      <c r="FK14"/>
+      <c r="FM14"/>
+      <c r="FO14"/>
+      <c r="FQ14"/>
+      <c r="FS14"/>
+      <c r="FU14"/>
+      <c r="FW14"/>
+      <c r="FY14"/>
+      <c r="GA14"/>
+      <c r="GC14"/>
+      <c r="GE14"/>
+      <c r="GG14"/>
+      <c r="GI14"/>
+      <c r="GK14"/>
+      <c r="GM14"/>
+      <c r="GO14"/>
+      <c r="GQ14"/>
+      <c r="GS14"/>
+      <c r="GU14"/>
+      <c r="GW14"/>
+      <c r="GY14"/>
+      <c r="HA14"/>
+      <c r="HC14"/>
+      <c r="HE14"/>
+      <c r="HG14"/>
+      <c r="HI14"/>
+      <c r="HK14"/>
+      <c r="HM14"/>
+      <c r="HO14"/>
+      <c r="HQ14"/>
+      <c r="HS14"/>
+      <c r="HU14"/>
+      <c r="HW14"/>
+      <c r="HY14"/>
+      <c r="IA14"/>
+      <c r="IC14"/>
+      <c r="IE14"/>
+      <c r="IG14"/>
+      <c r="II14"/>
+      <c r="IK14"/>
+      <c r="IM14"/>
+      <c r="IO14"/>
+      <c r="IQ14"/>
+      <c r="IS14"/>
+      <c r="IU14"/>
+      <c r="IW14"/>
+      <c r="IY14"/>
+      <c r="JA14"/>
+      <c r="JC14"/>
+      <c r="JE14"/>
+      <c r="JG14"/>
+      <c r="JI14"/>
+      <c r="JK14"/>
+      <c r="JM14"/>
+      <c r="JO14"/>
+      <c r="JQ14"/>
+      <c r="JS14"/>
+      <c r="JU14"/>
+      <c r="JW14"/>
+      <c r="JY14"/>
+      <c r="KA14"/>
+      <c r="KC14"/>
+      <c r="KE14"/>
+      <c r="KG14"/>
+      <c r="KI14"/>
+      <c r="KK14"/>
+      <c r="KM14"/>
+      <c r="KO14"/>
+      <c r="KQ14"/>
+      <c r="KS14"/>
+      <c r="KU14"/>
+      <c r="KW14"/>
+      <c r="KY14"/>
+      <c r="LA14"/>
+      <c r="LC14"/>
+      <c r="LE14"/>
+      <c r="LG14"/>
+      <c r="LI14"/>
+      <c r="LK14"/>
+      <c r="LM14"/>
+      <c r="LO14"/>
+      <c r="LQ14"/>
+      <c r="LS14"/>
+      <c r="LU14"/>
+      <c r="LW14"/>
+      <c r="LY14"/>
+      <c r="MA14"/>
+      <c r="MC14"/>
+      <c r="ME14"/>
+      <c r="MG14"/>
+      <c r="MI14"/>
+      <c r="MK14"/>
+      <c r="MM14"/>
+      <c r="MO14"/>
+      <c r="MQ14"/>
+      <c r="MS14"/>
+      <c r="MU14"/>
+      <c r="MW14"/>
+      <c r="MY14"/>
+      <c r="NA14"/>
+      <c r="NC14"/>
+      <c r="NE14"/>
+      <c r="NG14"/>
+      <c r="NI14"/>
+      <c r="NK14"/>
+      <c r="NM14"/>
+      <c r="NO14"/>
+      <c r="NQ14"/>
+      <c r="NS14"/>
+      <c r="NU14"/>
+      <c r="NW14"/>
+      <c r="NY14"/>
+      <c r="OA14"/>
+      <c r="OC14"/>
+      <c r="OE14"/>
+      <c r="OG14"/>
+      <c r="OI14"/>
+      <c r="OK14"/>
+      <c r="OM14"/>
+      <c r="OO14"/>
+      <c r="OQ14"/>
+      <c r="OS14"/>
+      <c r="OU14"/>
+      <c r="OW14"/>
+      <c r="OY14"/>
+      <c r="PA14"/>
+      <c r="PC14"/>
+      <c r="PE14"/>
+      <c r="PG14"/>
+      <c r="PI14"/>
+      <c r="PK14"/>
+      <c r="PM14"/>
+      <c r="PO14"/>
+      <c r="PQ14"/>
+      <c r="PS14"/>
+      <c r="PU14"/>
+      <c r="PW14"/>
+      <c r="PY14"/>
+      <c r="QA14"/>
+      <c r="QC14"/>
+      <c r="QE14"/>
+      <c r="QG14"/>
+      <c r="QI14"/>
+      <c r="QK14"/>
+      <c r="QM14"/>
+      <c r="QO14"/>
+      <c r="QQ14"/>
+      <c r="QS14"/>
+      <c r="QU14"/>
+      <c r="QW14"/>
+      <c r="QY14"/>
+      <c r="RA14"/>
+      <c r="RC14"/>
+      <c r="RE14"/>
+      <c r="RG14"/>
+      <c r="RI14"/>
+      <c r="RK14"/>
+      <c r="RM14"/>
+      <c r="RO14"/>
+      <c r="RQ14"/>
+      <c r="RS14"/>
+      <c r="RU14"/>
+      <c r="RW14"/>
+      <c r="RY14"/>
+      <c r="SA14"/>
+      <c r="SC14"/>
+      <c r="SE14"/>
+      <c r="SG14"/>
+      <c r="SI14"/>
+      <c r="SK14"/>
+      <c r="SM14"/>
+      <c r="SO14"/>
+      <c r="SQ14"/>
+      <c r="SS14"/>
+      <c r="SU14"/>
+      <c r="SW14"/>
+      <c r="SY14"/>
+      <c r="TA14"/>
+      <c r="TC14"/>
+      <c r="TE14"/>
+      <c r="TG14"/>
+      <c r="TI14"/>
+      <c r="TK14"/>
+      <c r="TM14"/>
+      <c r="TO14"/>
+      <c r="TQ14"/>
+      <c r="TS14"/>
+      <c r="TU14"/>
+      <c r="TW14"/>
+      <c r="TY14"/>
+      <c r="UA14"/>
+      <c r="UC14"/>
+      <c r="UE14"/>
+      <c r="UG14"/>
+      <c r="UI14"/>
+      <c r="UK14"/>
+      <c r="UM14"/>
+      <c r="UO14"/>
+      <c r="UQ14"/>
+      <c r="US14"/>
+      <c r="UU14"/>
+      <c r="UW14"/>
+      <c r="UY14"/>
+      <c r="VA14"/>
+      <c r="VC14"/>
+      <c r="VE14"/>
+      <c r="VG14"/>
+      <c r="VI14"/>
+      <c r="VK14"/>
+      <c r="VM14"/>
+      <c r="VO14"/>
+      <c r="VQ14"/>
+      <c r="VS14"/>
+      <c r="VU14"/>
+      <c r="VW14"/>
+      <c r="VY14"/>
+      <c r="WA14"/>
+      <c r="WC14"/>
+      <c r="WE14"/>
+      <c r="WG14"/>
+      <c r="WI14"/>
+      <c r="WK14"/>
+      <c r="WM14"/>
+      <c r="WO14"/>
+      <c r="WQ14"/>
+      <c r="WS14"/>
+      <c r="WU14"/>
+      <c r="WW14"/>
+      <c r="WY14"/>
+      <c r="XA14"/>
+      <c r="XC14"/>
+      <c r="XE14"/>
+      <c r="XG14"/>
+      <c r="XI14"/>
+      <c r="XK14"/>
+      <c r="XM14"/>
+      <c r="XO14"/>
+      <c r="XQ14"/>
+      <c r="XS14"/>
+      <c r="XU14"/>
+      <c r="XW14"/>
+      <c r="XY14"/>
+      <c r="YA14"/>
+      <c r="YC14"/>
+      <c r="YE14"/>
+      <c r="YG14"/>
+      <c r="YI14"/>
+      <c r="YK14"/>
+      <c r="YM14"/>
+      <c r="YO14"/>
+      <c r="YQ14"/>
+      <c r="YS14"/>
+      <c r="YU14"/>
+      <c r="YW14"/>
+      <c r="YY14"/>
+      <c r="ZA14"/>
+      <c r="ZC14"/>
+      <c r="ZE14"/>
+      <c r="ZG14"/>
+      <c r="ZI14"/>
+      <c r="ZK14"/>
+      <c r="ZM14"/>
+      <c r="ZO14"/>
+      <c r="ZQ14"/>
+      <c r="ZS14"/>
+      <c r="ZU14"/>
+      <c r="ZW14"/>
+      <c r="ZY14"/>
+      <c r="AAA14"/>
+      <c r="AAC14"/>
+      <c r="AAE14"/>
+      <c r="AAG14"/>
+      <c r="AAI14"/>
+      <c r="AAK14"/>
+      <c r="AAM14"/>
+      <c r="AAO14"/>
+      <c r="AAQ14"/>
+      <c r="AAS14"/>
+      <c r="AAU14"/>
+      <c r="AAW14"/>
+      <c r="AAY14"/>
+      <c r="ABA14"/>
+      <c r="ABC14"/>
+      <c r="ABE14"/>
+      <c r="ABG14"/>
+      <c r="ABI14"/>
+      <c r="ABK14"/>
+      <c r="ABM14"/>
+      <c r="ABO14"/>
+      <c r="ABQ14"/>
+      <c r="ABS14"/>
+      <c r="ABU14"/>
+      <c r="ABW14"/>
+      <c r="ABY14"/>
+      <c r="ACA14"/>
+      <c r="ACC14"/>
+      <c r="ACE14"/>
+      <c r="ACG14"/>
+      <c r="ACI14"/>
+      <c r="ACK14"/>
+      <c r="ACM14"/>
+      <c r="ACO14"/>
+      <c r="ACQ14"/>
+      <c r="ACS14"/>
+      <c r="ACU14"/>
+      <c r="ACW14"/>
+      <c r="ACY14"/>
+      <c r="ADA14"/>
+      <c r="ADC14"/>
+      <c r="ADE14"/>
+      <c r="ADG14"/>
+      <c r="ADI14"/>
+      <c r="ADK14"/>
+      <c r="ADM14"/>
+      <c r="ADO14"/>
+      <c r="ADQ14"/>
+      <c r="ADS14"/>
+      <c r="ADU14"/>
+      <c r="ADW14"/>
+      <c r="ADY14"/>
+      <c r="AEA14"/>
+      <c r="AEC14"/>
+      <c r="AEE14"/>
+      <c r="AEG14"/>
+      <c r="AEI14"/>
+      <c r="AEK14"/>
+      <c r="AEM14"/>
+      <c r="AEO14"/>
+      <c r="AEQ14"/>
+      <c r="AES14"/>
+      <c r="AEU14"/>
+      <c r="AEW14"/>
+      <c r="AEY14"/>
+      <c r="AFA14"/>
+      <c r="AFC14"/>
+      <c r="AFE14"/>
+      <c r="AFG14"/>
+      <c r="AFI14"/>
+      <c r="AFK14"/>
+      <c r="AFM14"/>
+      <c r="AFO14"/>
+      <c r="AFQ14"/>
+      <c r="AFS14"/>
+      <c r="AFU14"/>
+      <c r="AFW14"/>
+      <c r="AFY14"/>
+      <c r="AGA14"/>
+      <c r="AGC14"/>
+      <c r="AGE14"/>
+      <c r="AGG14"/>
+      <c r="AGI14"/>
+      <c r="AGK14"/>
+      <c r="AGM14"/>
+      <c r="AGO14"/>
+      <c r="AGQ14"/>
+      <c r="AGS14"/>
+      <c r="AGU14"/>
+      <c r="AGW14"/>
+      <c r="AGY14"/>
+      <c r="AHA14"/>
+      <c r="AHC14"/>
+      <c r="AHE14"/>
+      <c r="AHG14"/>
+      <c r="AHI14"/>
+      <c r="AHK14"/>
+      <c r="AHM14"/>
+      <c r="AHO14"/>
+      <c r="AHQ14"/>
+      <c r="AHS14"/>
+      <c r="AHU14"/>
+      <c r="AHW14"/>
+      <c r="AHY14"/>
+      <c r="AIA14"/>
+      <c r="AIC14"/>
+      <c r="AIE14"/>
+      <c r="AIG14"/>
+      <c r="AII14"/>
+      <c r="AIK14"/>
+      <c r="AIM14"/>
+      <c r="AIO14"/>
+      <c r="AIQ14"/>
+      <c r="AIS14"/>
+      <c r="AIU14"/>
+      <c r="AIW14"/>
+      <c r="AIY14"/>
+      <c r="AJA14"/>
+      <c r="AJC14"/>
+      <c r="AJE14"/>
+      <c r="AJG14"/>
+      <c r="AJI14"/>
+      <c r="AJK14"/>
+      <c r="AJM14"/>
+      <c r="AJO14"/>
+      <c r="AJQ14"/>
+      <c r="AJS14"/>
+      <c r="AJU14"/>
+      <c r="AJW14"/>
+      <c r="AJY14"/>
+      <c r="AKA14"/>
+      <c r="AKC14"/>
+      <c r="AKE14"/>
+      <c r="AKG14"/>
+      <c r="AKI14"/>
+      <c r="AKK14"/>
+      <c r="AKM14"/>
+      <c r="AKO14"/>
+      <c r="AKQ14"/>
+      <c r="AKS14"/>
+      <c r="AKU14"/>
+      <c r="AKW14"/>
+      <c r="AKY14"/>
+      <c r="ALA14"/>
+      <c r="ALC14"/>
+      <c r="ALE14"/>
+      <c r="ALG14"/>
+      <c r="ALI14"/>
+      <c r="ALK14"/>
+      <c r="ALM14"/>
+      <c r="ALO14"/>
+      <c r="ALQ14"/>
+      <c r="ALS14"/>
+      <c r="ALU14"/>
+      <c r="ALW14"/>
+      <c r="ALY14"/>
+      <c r="AMA14"/>
+      <c r="AMC14"/>
+      <c r="AME14"/>
+      <c r="AMG14"/>
+      <c r="AMI14"/>
+      <c r="AMK14"/>
+      <c r="AMM14"/>
+      <c r="AMO14"/>
+      <c r="AMQ14"/>
+      <c r="AMS14"/>
+      <c r="AMU14"/>
+      <c r="AMW14"/>
+      <c r="AMY14"/>
+      <c r="ANA14"/>
+      <c r="ANC14"/>
+      <c r="ANE14"/>
+      <c r="ANG14"/>
+      <c r="ANI14"/>
+      <c r="ANK14"/>
+      <c r="ANM14"/>
+      <c r="ANO14"/>
+      <c r="ANQ14"/>
+      <c r="ANS14"/>
+      <c r="ANU14"/>
+      <c r="ANW14"/>
+      <c r="ANY14"/>
+      <c r="AOA14"/>
+      <c r="AOC14"/>
+      <c r="AOE14"/>
+      <c r="AOG14"/>
+      <c r="AOI14"/>
+      <c r="AOK14"/>
+      <c r="AOM14"/>
+      <c r="AOO14"/>
+      <c r="AOQ14"/>
+      <c r="AOS14"/>
+      <c r="AOU14"/>
+      <c r="AOW14"/>
+      <c r="AOY14"/>
+      <c r="APA14"/>
+      <c r="APC14"/>
+      <c r="APE14"/>
+      <c r="APG14"/>
+      <c r="API14"/>
+      <c r="APK14"/>
+      <c r="APM14"/>
+      <c r="APO14"/>
+      <c r="APQ14"/>
+      <c r="APS14"/>
+      <c r="APU14"/>
+      <c r="APW14"/>
+      <c r="APY14"/>
+      <c r="AQA14"/>
+      <c r="AQC14"/>
+      <c r="AQE14"/>
+      <c r="AQG14"/>
+      <c r="AQI14"/>
+      <c r="AQK14"/>
+      <c r="AQM14"/>
+      <c r="AQO14"/>
+      <c r="AQQ14"/>
+      <c r="AQS14"/>
+      <c r="AQU14"/>
+      <c r="AQW14"/>
+      <c r="AQY14"/>
+      <c r="ARA14"/>
+      <c r="ARC14"/>
+      <c r="ARE14"/>
+      <c r="ARG14"/>
+      <c r="ARI14"/>
+      <c r="ARK14"/>
+      <c r="ARM14"/>
+      <c r="ARO14"/>
+      <c r="ARQ14"/>
+      <c r="ARS14"/>
+      <c r="ARU14"/>
+      <c r="ARW14"/>
+      <c r="ARY14"/>
+      <c r="ASA14"/>
+      <c r="ASC14"/>
+      <c r="ASE14"/>
+      <c r="ASG14"/>
+      <c r="ASI14"/>
+      <c r="ASK14"/>
+      <c r="ASM14"/>
+      <c r="ASO14"/>
+      <c r="ASQ14"/>
+      <c r="ASS14"/>
+      <c r="ASU14"/>
+      <c r="ASW14"/>
+      <c r="ASY14"/>
+      <c r="ATA14"/>
+      <c r="ATC14"/>
+      <c r="ATE14"/>
+      <c r="ATG14"/>
+      <c r="ATI14"/>
+      <c r="ATK14"/>
+      <c r="ATM14"/>
+      <c r="ATO14"/>
+      <c r="ATQ14"/>
+      <c r="ATS14"/>
+      <c r="ATU14"/>
+      <c r="ATW14"/>
+      <c r="ATY14"/>
+      <c r="AUA14"/>
+      <c r="AUC14"/>
+      <c r="AUE14"/>
+      <c r="AUG14"/>
+      <c r="AUI14"/>
+      <c r="AUK14"/>
+      <c r="AUM14"/>
+      <c r="AUO14"/>
+      <c r="AUQ14"/>
+      <c r="AUS14"/>
+      <c r="AUU14"/>
+      <c r="AUW14"/>
+      <c r="AUY14"/>
+      <c r="AVA14"/>
+      <c r="AVC14"/>
+      <c r="AVE14"/>
+      <c r="AVG14"/>
+      <c r="AVI14"/>
+      <c r="AVK14"/>
+      <c r="AVM14"/>
+      <c r="AVO14"/>
+      <c r="AVQ14"/>
+      <c r="AVS14"/>
+      <c r="AVU14"/>
+      <c r="AVW14"/>
+      <c r="AVY14"/>
+      <c r="AWA14"/>
+      <c r="AWC14"/>
+      <c r="AWE14"/>
+      <c r="AWG14"/>
+      <c r="AWI14"/>
+      <c r="AWK14"/>
+      <c r="AWM14"/>
+      <c r="AWO14"/>
+      <c r="AWQ14"/>
+      <c r="AWS14"/>
+      <c r="AWU14"/>
+      <c r="AWW14"/>
+      <c r="AWY14"/>
+      <c r="AXA14"/>
+      <c r="AXC14"/>
+      <c r="AXE14"/>
+      <c r="AXG14"/>
+      <c r="AXI14"/>
+      <c r="AXK14"/>
+      <c r="AXM14"/>
+      <c r="AXO14"/>
+      <c r="AXQ14"/>
+      <c r="AXS14"/>
+      <c r="AXU14"/>
+      <c r="AXW14"/>
+      <c r="AXY14"/>
+      <c r="AYA14"/>
+      <c r="AYC14"/>
+      <c r="AYE14"/>
+      <c r="AYG14"/>
+      <c r="AYI14"/>
+      <c r="AYK14"/>
+      <c r="AYM14"/>
+      <c r="AYO14"/>
+      <c r="AYQ14"/>
+      <c r="AYS14"/>
+      <c r="AYU14"/>
+      <c r="AYW14"/>
+      <c r="AYY14"/>
+      <c r="AZA14"/>
+      <c r="AZC14"/>
+      <c r="AZE14"/>
+      <c r="AZG14"/>
+      <c r="AZI14"/>
+      <c r="AZK14"/>
+      <c r="AZM14"/>
+      <c r="AZO14"/>
+      <c r="AZQ14"/>
+      <c r="AZS14"/>
+      <c r="AZU14"/>
+      <c r="AZW14"/>
+      <c r="AZY14"/>
+      <c r="BAA14"/>
+      <c r="BAC14"/>
+      <c r="BAE14"/>
+      <c r="BAG14"/>
+      <c r="BAI14"/>
+      <c r="BAK14"/>
+      <c r="BAM14"/>
+      <c r="BAO14"/>
+      <c r="BAQ14"/>
+      <c r="BAS14"/>
+      <c r="BAU14"/>
+      <c r="BAW14"/>
+      <c r="BAY14"/>
+      <c r="BBA14"/>
+      <c r="BBC14"/>
+      <c r="BBE14"/>
+      <c r="BBG14"/>
+      <c r="BBI14"/>
+      <c r="BBK14"/>
+      <c r="BBM14"/>
+      <c r="BBO14"/>
+      <c r="BBQ14"/>
+      <c r="BBS14"/>
+      <c r="BBU14"/>
+      <c r="BBW14"/>
+      <c r="BBY14"/>
+      <c r="BCA14"/>
+      <c r="BCC14"/>
+      <c r="BCE14"/>
+      <c r="BCG14"/>
+      <c r="BCI14"/>
+      <c r="BCK14"/>
+      <c r="BCM14"/>
+      <c r="BCO14"/>
+      <c r="BCQ14"/>
+      <c r="BCS14"/>
+      <c r="BCU14"/>
+      <c r="BCW14"/>
+      <c r="BCY14"/>
+      <c r="BDA14"/>
+      <c r="BDC14"/>
+      <c r="BDE14"/>
+      <c r="BDG14"/>
+      <c r="BDI14"/>
+      <c r="BDK14"/>
+      <c r="BDM14"/>
+      <c r="BDO14"/>
+      <c r="BDQ14"/>
+      <c r="BDS14"/>
+      <c r="BDU14"/>
+      <c r="BDW14"/>
+      <c r="BDY14"/>
+      <c r="BEA14"/>
+      <c r="BEC14"/>
+      <c r="BEE14"/>
+      <c r="BEG14"/>
+      <c r="BEI14"/>
+      <c r="BEK14"/>
+      <c r="BEM14"/>
+      <c r="BEO14"/>
+      <c r="BEQ14"/>
+      <c r="BES14"/>
+      <c r="BEU14"/>
+      <c r="BEW14"/>
+      <c r="BEY14"/>
+      <c r="BFA14"/>
+      <c r="BFC14"/>
+      <c r="BFE14"/>
+      <c r="BFG14"/>
+      <c r="BFI14"/>
+      <c r="BFK14"/>
+      <c r="BFM14"/>
+      <c r="BFO14"/>
+      <c r="BFQ14"/>
+      <c r="BFS14"/>
+      <c r="BFU14"/>
+      <c r="BFW14"/>
+      <c r="BFY14"/>
+      <c r="BGA14"/>
+      <c r="BGC14"/>
+      <c r="BGE14"/>
+      <c r="BGG14"/>
+      <c r="BGI14"/>
+      <c r="BGK14"/>
+      <c r="BGM14"/>
+      <c r="BGO14"/>
+      <c r="BGQ14"/>
+      <c r="BGS14"/>
+      <c r="BGU14"/>
+      <c r="BGW14"/>
+      <c r="BGY14"/>
+      <c r="BHA14"/>
+      <c r="BHC14"/>
+      <c r="BHE14"/>
+      <c r="BHG14"/>
+      <c r="BHI14"/>
+      <c r="BHK14"/>
+      <c r="BHM14"/>
+      <c r="BHO14"/>
+      <c r="BHQ14"/>
+      <c r="BHS14"/>
+      <c r="BHU14"/>
+      <c r="BHW14"/>
+      <c r="BHY14"/>
+      <c r="BIA14"/>
+      <c r="BIC14"/>
+      <c r="BIE14"/>
+      <c r="BIG14"/>
+      <c r="BII14"/>
+      <c r="BIK14"/>
+      <c r="BIM14"/>
+      <c r="BIO14"/>
+      <c r="BIQ14"/>
+      <c r="BIS14"/>
+      <c r="BIU14"/>
+      <c r="BIW14"/>
+      <c r="BIY14"/>
+      <c r="BJA14"/>
+      <c r="BJC14"/>
+      <c r="BJE14"/>
+      <c r="BJG14"/>
+      <c r="BJI14"/>
+      <c r="BJK14"/>
+      <c r="BJM14"/>
+      <c r="BJO14"/>
+      <c r="BJQ14"/>
+      <c r="BJS14"/>
+      <c r="BJU14"/>
+      <c r="BJW14"/>
+      <c r="BJY14"/>
+      <c r="BKA14"/>
+      <c r="BKC14"/>
+      <c r="BKE14"/>
+      <c r="BKG14"/>
+      <c r="BKI14"/>
+      <c r="BKK14"/>
+      <c r="BKM14"/>
+      <c r="BKO14"/>
+      <c r="BKQ14"/>
+      <c r="BKS14"/>
+      <c r="BKU14"/>
+      <c r="BKW14"/>
+      <c r="BKY14"/>
+      <c r="BLA14"/>
+      <c r="BLC14"/>
+      <c r="BLE14"/>
+      <c r="BLG14"/>
+      <c r="BLI14"/>
+      <c r="BLK14"/>
+      <c r="BLM14"/>
+      <c r="BLO14"/>
+      <c r="BLQ14"/>
+      <c r="BLS14"/>
+      <c r="BLU14"/>
+      <c r="BLW14"/>
+      <c r="BLY14"/>
+      <c r="BMA14"/>
+      <c r="BMC14"/>
+      <c r="BME14"/>
+      <c r="BMG14"/>
+      <c r="BMI14"/>
+      <c r="BMK14"/>
+      <c r="BMM14"/>
+      <c r="BMO14"/>
+      <c r="BMQ14"/>
+      <c r="BMS14"/>
+      <c r="BMU14"/>
+      <c r="BMW14"/>
+      <c r="BMY14"/>
+      <c r="BNA14"/>
+      <c r="BNC14"/>
+      <c r="BNE14"/>
+      <c r="BNG14"/>
+      <c r="BNI14"/>
+      <c r="BNK14"/>
+      <c r="BNM14"/>
+      <c r="BNO14"/>
+      <c r="BNQ14"/>
+      <c r="BNS14"/>
+      <c r="BNU14"/>
+      <c r="BNW14"/>
+      <c r="BNY14"/>
+      <c r="BOA14"/>
+      <c r="BOC14"/>
+      <c r="BOE14"/>
+      <c r="BOG14"/>
+      <c r="BOI14"/>
+      <c r="BOK14"/>
+      <c r="BOM14"/>
+      <c r="BOO14"/>
+      <c r="BOQ14"/>
+      <c r="BOS14"/>
+      <c r="BOU14"/>
+      <c r="BOW14"/>
+      <c r="BOY14"/>
+      <c r="BPA14"/>
+      <c r="BPC14"/>
+      <c r="BPE14"/>
+      <c r="BPG14"/>
+      <c r="BPI14"/>
+      <c r="BPK14"/>
+      <c r="BPM14"/>
+      <c r="BPO14"/>
+      <c r="BPQ14"/>
+      <c r="BPS14"/>
+      <c r="BPU14"/>
+      <c r="BPW14"/>
+      <c r="BPY14"/>
+      <c r="BQA14"/>
+      <c r="BQC14"/>
+      <c r="BQE14"/>
+      <c r="BQG14"/>
+      <c r="BQI14"/>
+      <c r="BQK14"/>
+      <c r="BQM14"/>
+      <c r="BQO14"/>
+      <c r="BQQ14"/>
+      <c r="BQS14"/>
+      <c r="BQU14"/>
+      <c r="BQW14"/>
+      <c r="BQY14"/>
+      <c r="BRA14"/>
+      <c r="BRC14"/>
+      <c r="BRE14"/>
+      <c r="BRG14"/>
+      <c r="BRI14"/>
+      <c r="BRK14"/>
+      <c r="BRM14"/>
+      <c r="BRO14"/>
+      <c r="BRQ14"/>
+      <c r="BRS14"/>
+      <c r="BRU14"/>
+      <c r="BRW14"/>
+      <c r="BRY14"/>
+      <c r="BSA14"/>
+      <c r="BSC14"/>
+      <c r="BSE14"/>
+      <c r="BSG14"/>
+      <c r="BSI14"/>
+      <c r="BSK14"/>
+      <c r="BSM14"/>
+      <c r="BSO14"/>
+      <c r="BSQ14"/>
+      <c r="BSS14"/>
+      <c r="BSU14"/>
+      <c r="BSW14"/>
+      <c r="BSY14"/>
+      <c r="BTA14"/>
+      <c r="BTC14"/>
+      <c r="BTE14"/>
+      <c r="BTG14"/>
+      <c r="BTI14"/>
+      <c r="BTK14"/>
+      <c r="BTM14"/>
+      <c r="BTO14"/>
+      <c r="BTQ14"/>
+      <c r="BTS14"/>
+      <c r="BTU14"/>
+      <c r="BTW14"/>
+      <c r="BTY14"/>
+      <c r="BUA14"/>
+      <c r="BUC14"/>
+      <c r="BUE14"/>
+      <c r="BUG14"/>
+      <c r="BUI14"/>
+      <c r="BUK14"/>
+      <c r="BUM14"/>
+      <c r="BUO14"/>
+      <c r="BUQ14"/>
+      <c r="BUS14"/>
+      <c r="BUU14"/>
+      <c r="BUW14"/>
+      <c r="BUY14"/>
+      <c r="BVA14"/>
+      <c r="BVC14"/>
+      <c r="BVE14"/>
+      <c r="BVG14"/>
+      <c r="BVI14"/>
+      <c r="BVK14"/>
+      <c r="BVM14"/>
+      <c r="BVO14"/>
+      <c r="BVQ14"/>
+      <c r="BVS14"/>
+      <c r="BVU14"/>
+      <c r="BVW14"/>
+      <c r="BVY14"/>
+      <c r="BWA14"/>
+      <c r="BWC14"/>
+      <c r="BWE14"/>
+      <c r="BWG14"/>
+      <c r="BWI14"/>
+      <c r="BWK14"/>
+      <c r="BWM14"/>
+      <c r="BWO14"/>
+      <c r="BWQ14"/>
+      <c r="BWS14"/>
+      <c r="BWU14"/>
+      <c r="BWW14"/>
+      <c r="BWY14"/>
+      <c r="BXA14"/>
+      <c r="BXC14"/>
+      <c r="BXE14"/>
+      <c r="BXG14"/>
+      <c r="BXI14"/>
+      <c r="BXK14"/>
+      <c r="BXM14"/>
+      <c r="BXO14"/>
+      <c r="BXQ14"/>
+      <c r="BXS14"/>
+      <c r="BXU14"/>
+      <c r="BXW14"/>
+      <c r="BXY14"/>
+      <c r="BYA14"/>
+      <c r="BYC14"/>
+      <c r="BYE14"/>
+      <c r="BYG14"/>
+      <c r="BYI14"/>
+      <c r="BYK14"/>
+      <c r="BYM14"/>
+      <c r="BYO14"/>
+      <c r="BYQ14"/>
+      <c r="BYS14"/>
+      <c r="BYU14"/>
+      <c r="BYW14"/>
+      <c r="BYY14"/>
+      <c r="BZA14"/>
+      <c r="BZC14"/>
+      <c r="BZE14"/>
+      <c r="BZG14"/>
+      <c r="BZI14"/>
+      <c r="BZK14"/>
+      <c r="BZM14"/>
+      <c r="BZO14"/>
+      <c r="BZQ14"/>
+      <c r="BZS14"/>
+      <c r="BZU14"/>
+      <c r="BZW14"/>
+      <c r="BZY14"/>
+      <c r="CAA14"/>
+      <c r="CAC14"/>
+      <c r="CAE14"/>
+      <c r="CAG14"/>
+      <c r="CAI14"/>
+      <c r="CAK14"/>
+      <c r="CAM14"/>
+      <c r="CAO14"/>
+      <c r="CAQ14"/>
+      <c r="CAS14"/>
+      <c r="CAU14"/>
+      <c r="CAW14"/>
+      <c r="CAY14"/>
+      <c r="CBA14"/>
+      <c r="CBC14"/>
+      <c r="CBE14"/>
+      <c r="CBG14"/>
+      <c r="CBI14"/>
+      <c r="CBK14"/>
+      <c r="CBM14"/>
+      <c r="CBO14"/>
+      <c r="CBQ14"/>
+      <c r="CBS14"/>
+      <c r="CBU14"/>
+      <c r="CBW14"/>
+      <c r="CBY14"/>
+      <c r="CCA14"/>
+      <c r="CCC14"/>
+      <c r="CCE14"/>
+      <c r="CCG14"/>
+      <c r="CCI14"/>
+      <c r="CCK14"/>
+      <c r="CCM14"/>
+      <c r="CCO14"/>
+      <c r="CCQ14"/>
+      <c r="CCS14"/>
+      <c r="CCU14"/>
+      <c r="CCW14"/>
+      <c r="CCY14"/>
+      <c r="CDA14"/>
+      <c r="CDC14"/>
+      <c r="CDE14"/>
+      <c r="CDG14"/>
+      <c r="CDI14"/>
+      <c r="CDK14"/>
+      <c r="CDM14"/>
+      <c r="CDO14"/>
+      <c r="CDQ14"/>
+      <c r="CDS14"/>
+      <c r="CDU14"/>
+      <c r="CDW14"/>
+      <c r="CDY14"/>
+      <c r="CEA14"/>
+      <c r="CEC14"/>
+      <c r="CEE14"/>
+      <c r="CEG14"/>
+      <c r="CEI14"/>
+      <c r="CEK14"/>
+      <c r="CEM14"/>
+      <c r="CEO14"/>
+      <c r="CEQ14"/>
+      <c r="CES14"/>
+      <c r="CEU14"/>
+      <c r="CEW14"/>
+      <c r="CEY14"/>
+      <c r="CFA14"/>
+      <c r="CFC14"/>
+      <c r="CFE14"/>
+      <c r="CFG14"/>
+      <c r="CFI14"/>
+      <c r="CFK14"/>
+      <c r="CFM14"/>
+      <c r="CFO14"/>
+      <c r="CFQ14"/>
+      <c r="CFS14"/>
+      <c r="CFU14"/>
+      <c r="CFW14"/>
+      <c r="CFY14"/>
+      <c r="CGA14"/>
+      <c r="CGC14"/>
+      <c r="CGE14"/>
+      <c r="CGG14"/>
+      <c r="CGI14"/>
+      <c r="CGK14"/>
+      <c r="CGM14"/>
+      <c r="CGO14"/>
+      <c r="CGQ14"/>
+      <c r="CGS14"/>
+      <c r="CGU14"/>
+      <c r="CGW14"/>
+      <c r="CGY14"/>
+      <c r="CHA14"/>
+      <c r="CHC14"/>
+      <c r="CHE14"/>
+      <c r="CHG14"/>
+      <c r="CHI14"/>
+      <c r="CHK14"/>
+      <c r="CHM14"/>
+      <c r="CHO14"/>
+      <c r="CHQ14"/>
+      <c r="CHS14"/>
+      <c r="CHU14"/>
+      <c r="CHW14"/>
+      <c r="CHY14"/>
+      <c r="CIA14"/>
+      <c r="CIC14"/>
+      <c r="CIE14"/>
+      <c r="CIG14"/>
+      <c r="CII14"/>
+      <c r="CIK14"/>
+      <c r="CIM14"/>
+      <c r="CIO14"/>
+      <c r="CIQ14"/>
+      <c r="CIS14"/>
+      <c r="CIU14"/>
+      <c r="CIW14"/>
+      <c r="CIY14"/>
+      <c r="CJA14"/>
+      <c r="CJC14"/>
+      <c r="CJE14"/>
+      <c r="CJG14"/>
+      <c r="CJI14"/>
+      <c r="CJK14"/>
+      <c r="CJM14"/>
+      <c r="CJO14"/>
+      <c r="CJQ14"/>
+      <c r="CJS14"/>
+      <c r="CJU14"/>
+      <c r="CJW14"/>
+      <c r="CJY14"/>
+      <c r="CKA14"/>
+      <c r="CKC14"/>
+      <c r="CKE14"/>
+      <c r="CKG14"/>
+      <c r="CKI14"/>
+      <c r="CKK14"/>
+      <c r="CKM14"/>
+      <c r="CKO14"/>
+      <c r="CKQ14"/>
+      <c r="CKS14"/>
+      <c r="CKU14"/>
+      <c r="CKW14"/>
+      <c r="CKY14"/>
+      <c r="CLA14"/>
+      <c r="CLC14"/>
+      <c r="CLE14"/>
+      <c r="CLG14"/>
+      <c r="CLI14"/>
+      <c r="CLK14"/>
+      <c r="CLM14"/>
+      <c r="CLO14"/>
+      <c r="CLQ14"/>
+      <c r="CLS14"/>
+      <c r="CLU14"/>
+      <c r="CLW14"/>
+      <c r="CLY14"/>
+      <c r="CMA14"/>
+      <c r="CMC14"/>
+      <c r="CME14"/>
+      <c r="CMG14"/>
+      <c r="CMI14"/>
+      <c r="CMK14"/>
+      <c r="CMM14"/>
+      <c r="CMO14"/>
+      <c r="CMQ14"/>
+      <c r="CMS14"/>
+      <c r="CMU14"/>
+      <c r="CMW14"/>
+      <c r="CMY14"/>
+      <c r="CNA14"/>
+      <c r="CNC14"/>
+      <c r="CNE14"/>
+      <c r="CNG14"/>
+      <c r="CNI14"/>
+      <c r="CNK14"/>
+      <c r="CNM14"/>
+      <c r="CNO14"/>
+      <c r="CNQ14"/>
+      <c r="CNS14"/>
+      <c r="CNU14"/>
+      <c r="CNW14"/>
+      <c r="CNY14"/>
+      <c r="COA14"/>
+      <c r="COC14"/>
+      <c r="COE14"/>
+      <c r="COG14"/>
+      <c r="COI14"/>
+      <c r="COK14"/>
+      <c r="COM14"/>
+      <c r="COO14"/>
+      <c r="COQ14"/>
+      <c r="COS14"/>
+      <c r="COU14"/>
+      <c r="COW14"/>
+      <c r="COY14"/>
+      <c r="CPA14"/>
+      <c r="CPC14"/>
+      <c r="CPE14"/>
+      <c r="CPG14"/>
+      <c r="CPI14"/>
+      <c r="CPK14"/>
+      <c r="CPM14"/>
+      <c r="CPO14"/>
+      <c r="CPQ14"/>
+      <c r="CPS14"/>
+      <c r="CPU14"/>
+      <c r="CPW14"/>
+      <c r="CPY14"/>
+      <c r="CQA14"/>
+      <c r="CQC14"/>
+      <c r="CQE14"/>
+      <c r="CQG14"/>
+      <c r="CQI14"/>
+      <c r="CQK14"/>
+      <c r="CQM14"/>
+      <c r="CQO14"/>
+      <c r="CQQ14"/>
+      <c r="CQS14"/>
+      <c r="CQU14"/>
+      <c r="CQW14"/>
+      <c r="CQY14"/>
+      <c r="CRA14"/>
+      <c r="CRC14"/>
+      <c r="CRE14"/>
+      <c r="CRG14"/>
+      <c r="CRI14"/>
+      <c r="CRK14"/>
+      <c r="CRM14"/>
+      <c r="CRO14"/>
+      <c r="CRQ14"/>
+      <c r="CRS14"/>
+      <c r="CRU14"/>
+      <c r="CRW14"/>
+      <c r="CRY14"/>
+      <c r="CSA14"/>
+      <c r="CSC14"/>
+      <c r="CSE14"/>
+      <c r="CSG14"/>
+      <c r="CSI14"/>
+      <c r="CSK14"/>
+      <c r="CSM14"/>
+      <c r="CSO14"/>
+      <c r="CSQ14"/>
+      <c r="CSS14"/>
+      <c r="CSU14"/>
+      <c r="CSW14"/>
+      <c r="CSY14"/>
+      <c r="CTA14"/>
+      <c r="CTC14"/>
+      <c r="CTE14"/>
+      <c r="CTG14"/>
+      <c r="CTI14"/>
+      <c r="CTK14"/>
+      <c r="CTM14"/>
+      <c r="CTO14"/>
+      <c r="CTQ14"/>
+      <c r="CTS14"/>
+      <c r="CTU14"/>
+      <c r="CTW14"/>
+      <c r="CTY14"/>
+      <c r="CUA14"/>
+      <c r="CUC14"/>
+      <c r="CUE14"/>
+      <c r="CUG14"/>
+      <c r="CUI14"/>
+      <c r="CUK14"/>
+      <c r="CUM14"/>
+      <c r="CUO14"/>
+      <c r="CUQ14"/>
+      <c r="CUS14"/>
+      <c r="CUU14"/>
+      <c r="CUW14"/>
+      <c r="CUY14"/>
+      <c r="CVA14"/>
+      <c r="CVC14"/>
+      <c r="CVE14"/>
+      <c r="CVG14"/>
+      <c r="CVI14"/>
+      <c r="CVK14"/>
+      <c r="CVM14"/>
+      <c r="CVO14"/>
+      <c r="CVQ14"/>
+      <c r="CVS14"/>
+      <c r="CVU14"/>
+      <c r="CVW14"/>
+      <c r="CVY14"/>
+      <c r="CWA14"/>
+      <c r="CWC14"/>
+      <c r="CWE14"/>
+      <c r="CWG14"/>
+      <c r="CWI14"/>
+      <c r="CWK14"/>
+      <c r="CWM14"/>
+      <c r="CWO14"/>
+      <c r="CWQ14"/>
+      <c r="CWS14"/>
+      <c r="CWU14"/>
+      <c r="CWW14"/>
+      <c r="CWY14"/>
+      <c r="CXA14"/>
+      <c r="CXC14"/>
+      <c r="CXE14"/>
+      <c r="CXG14"/>
+      <c r="CXI14"/>
+      <c r="CXK14"/>
+      <c r="CXM14"/>
+      <c r="CXO14"/>
+      <c r="CXQ14"/>
+      <c r="CXS14"/>
+      <c r="CXU14"/>
+      <c r="CXW14"/>
+      <c r="CXY14"/>
+      <c r="CYA14"/>
+      <c r="CYC14"/>
+      <c r="CYE14"/>
+      <c r="CYG14"/>
+      <c r="CYI14"/>
+      <c r="CYK14"/>
+      <c r="CYM14"/>
+      <c r="CYO14"/>
+      <c r="CYQ14"/>
+      <c r="CYS14"/>
+      <c r="CYU14"/>
+      <c r="CYW14"/>
+      <c r="CYY14"/>
+      <c r="CZA14"/>
+      <c r="CZC14"/>
+      <c r="CZE14"/>
+      <c r="CZG14"/>
+      <c r="CZI14"/>
+      <c r="CZK14"/>
+      <c r="CZM14"/>
+      <c r="CZO14"/>
+      <c r="CZQ14"/>
+      <c r="CZS14"/>
+      <c r="CZU14"/>
+      <c r="CZW14"/>
+      <c r="CZY14"/>
+      <c r="DAA14"/>
+      <c r="DAC14"/>
+      <c r="DAE14"/>
+      <c r="DAG14"/>
+      <c r="DAI14"/>
+      <c r="DAK14"/>
+      <c r="DAM14"/>
+      <c r="DAO14"/>
+      <c r="DAQ14"/>
+      <c r="DAS14"/>
+      <c r="DAU14"/>
+      <c r="DAW14"/>
+      <c r="DAY14"/>
+      <c r="DBA14"/>
+      <c r="DBC14"/>
+      <c r="DBE14"/>
+      <c r="DBG14"/>
+      <c r="DBI14"/>
+      <c r="DBK14"/>
+      <c r="DBM14"/>
+      <c r="DBO14"/>
+      <c r="DBQ14"/>
+      <c r="DBS14"/>
+      <c r="DBU14"/>
+      <c r="DBW14"/>
+      <c r="DBY14"/>
+      <c r="DCA14"/>
+      <c r="DCC14"/>
+      <c r="DCE14"/>
+      <c r="DCG14"/>
+      <c r="DCI14"/>
+      <c r="DCK14"/>
+      <c r="DCM14"/>
+      <c r="DCO14"/>
+      <c r="DCQ14"/>
+      <c r="DCS14"/>
+      <c r="DCU14"/>
+      <c r="DCW14"/>
+      <c r="DCY14"/>
+      <c r="DDA14"/>
+      <c r="DDC14"/>
+      <c r="DDE14"/>
+      <c r="DDG14"/>
+      <c r="DDI14"/>
+      <c r="DDK14"/>
+      <c r="DDM14"/>
+      <c r="DDO14"/>
+      <c r="DDQ14"/>
+      <c r="DDS14"/>
+      <c r="DDU14"/>
+      <c r="DDW14"/>
+      <c r="DDY14"/>
+      <c r="DEA14"/>
+      <c r="DEC14"/>
+      <c r="DEE14"/>
+      <c r="DEG14"/>
+      <c r="DEI14"/>
+      <c r="DEK14"/>
+      <c r="DEM14"/>
+      <c r="DEO14"/>
+      <c r="DEQ14"/>
+      <c r="DES14"/>
+      <c r="DEU14"/>
+      <c r="DEW14"/>
+      <c r="DEY14"/>
+      <c r="DFA14"/>
+      <c r="DFC14"/>
+      <c r="DFE14"/>
+      <c r="DFG14"/>
+      <c r="DFI14"/>
+      <c r="DFK14"/>
+      <c r="DFM14"/>
+      <c r="DFO14"/>
+      <c r="DFQ14"/>
+      <c r="DFS14"/>
+      <c r="DFU14"/>
+      <c r="DFW14"/>
+      <c r="DFY14"/>
+      <c r="DGA14"/>
+      <c r="DGC14"/>
+      <c r="DGE14"/>
+      <c r="DGG14"/>
+      <c r="DGI14"/>
+      <c r="DGK14"/>
+      <c r="DGM14"/>
+      <c r="DGO14"/>
+      <c r="DGQ14"/>
+      <c r="DGS14"/>
+      <c r="DGU14"/>
+      <c r="DGW14"/>
+      <c r="DGY14"/>
+      <c r="DHA14"/>
+      <c r="DHC14"/>
+      <c r="DHE14"/>
+      <c r="DHG14"/>
+      <c r="DHI14"/>
+      <c r="DHK14"/>
+      <c r="DHM14"/>
+      <c r="DHO14"/>
+      <c r="DHQ14"/>
+      <c r="DHS14"/>
+      <c r="DHU14"/>
+      <c r="DHW14"/>
+      <c r="DHY14"/>
+      <c r="DIA14"/>
+      <c r="DIC14"/>
+      <c r="DIE14"/>
+      <c r="DIG14"/>
+      <c r="DII14"/>
+      <c r="DIK14"/>
+      <c r="DIM14"/>
+      <c r="DIO14"/>
+      <c r="DIQ14"/>
+      <c r="DIS14"/>
+      <c r="DIU14"/>
+      <c r="DIW14"/>
+      <c r="DIY14"/>
+      <c r="DJA14"/>
+      <c r="DJC14"/>
+      <c r="DJE14"/>
+      <c r="DJG14"/>
+      <c r="DJI14"/>
+      <c r="DJK14"/>
+      <c r="DJM14"/>
+      <c r="DJO14"/>
+      <c r="DJQ14"/>
+      <c r="DJS14"/>
+      <c r="DJU14"/>
+      <c r="DJW14"/>
+      <c r="DJY14"/>
+      <c r="DKA14"/>
+      <c r="DKC14"/>
+      <c r="DKE14"/>
+      <c r="DKG14"/>
+      <c r="DKI14"/>
+      <c r="DKK14"/>
+      <c r="DKM14"/>
+      <c r="DKO14"/>
+      <c r="DKQ14"/>
+      <c r="DKS14"/>
+      <c r="DKU14"/>
+      <c r="DKW14"/>
+      <c r="DKY14"/>
+      <c r="DLA14"/>
+      <c r="DLC14"/>
+      <c r="DLE14"/>
+      <c r="DLG14"/>
+      <c r="DLI14"/>
+      <c r="DLK14"/>
+      <c r="DLM14"/>
+      <c r="DLO14"/>
+      <c r="DLQ14"/>
+      <c r="DLS14"/>
+      <c r="DLU14"/>
+      <c r="DLW14"/>
+      <c r="DLY14"/>
+      <c r="DMA14"/>
+      <c r="DMC14"/>
+      <c r="DME14"/>
+      <c r="DMG14"/>
+      <c r="DMI14"/>
+      <c r="DMK14"/>
+      <c r="DMM14"/>
+      <c r="DMO14"/>
+      <c r="DMQ14"/>
+      <c r="DMS14"/>
+      <c r="DMU14"/>
+      <c r="DMW14"/>
+      <c r="DMY14"/>
+      <c r="DNA14"/>
+      <c r="DNC14"/>
+      <c r="DNE14"/>
+      <c r="DNG14"/>
+      <c r="DNI14"/>
+      <c r="DNK14"/>
+      <c r="DNM14"/>
+      <c r="DNO14"/>
+      <c r="DNQ14"/>
+      <c r="DNS14"/>
+      <c r="DNU14"/>
+      <c r="DNW14"/>
+      <c r="DNY14"/>
+      <c r="DOA14"/>
+      <c r="DOC14"/>
+      <c r="DOE14"/>
+      <c r="DOG14"/>
+      <c r="DOI14"/>
+      <c r="DOK14"/>
+      <c r="DOM14"/>
+      <c r="DOO14"/>
+      <c r="DOQ14"/>
+      <c r="DOS14"/>
+      <c r="DOU14"/>
+      <c r="DOW14"/>
+      <c r="DOY14"/>
+      <c r="DPA14"/>
+      <c r="DPC14"/>
+      <c r="DPE14"/>
+      <c r="DPG14"/>
+      <c r="DPI14"/>
+      <c r="DPK14"/>
+      <c r="DPM14"/>
+      <c r="DPO14"/>
+      <c r="DPQ14"/>
+      <c r="DPS14"/>
+      <c r="DPU14"/>
+      <c r="DPW14"/>
+      <c r="DPY14"/>
+      <c r="DQA14"/>
+      <c r="DQC14"/>
+      <c r="DQE14"/>
+      <c r="DQG14"/>
+      <c r="DQI14"/>
+      <c r="DQK14"/>
+      <c r="DQM14"/>
+      <c r="DQO14"/>
+      <c r="DQQ14"/>
+      <c r="DQS14"/>
+      <c r="DQU14"/>
+      <c r="DQW14"/>
+      <c r="DQY14"/>
+      <c r="DRA14"/>
+      <c r="DRC14"/>
+      <c r="DRE14"/>
+      <c r="DRG14"/>
+      <c r="DRI14"/>
+      <c r="DRK14"/>
+      <c r="DRM14"/>
+      <c r="DRO14"/>
+      <c r="DRQ14"/>
+      <c r="DRS14"/>
+      <c r="DRU14"/>
+      <c r="DRW14"/>
+      <c r="DRY14"/>
+      <c r="DSA14"/>
+      <c r="DSC14"/>
+      <c r="DSE14"/>
+      <c r="DSG14"/>
+      <c r="DSI14"/>
+      <c r="DSK14"/>
+      <c r="DSM14"/>
+      <c r="DSO14"/>
+      <c r="DSQ14"/>
+      <c r="DSS14"/>
+      <c r="DSU14"/>
+      <c r="DSW14"/>
+      <c r="DSY14"/>
+      <c r="DTA14"/>
+      <c r="DTC14"/>
+      <c r="DTE14"/>
+      <c r="DTG14"/>
+      <c r="DTI14"/>
+      <c r="DTK14"/>
+      <c r="DTM14"/>
+      <c r="DTO14"/>
+      <c r="DTQ14"/>
+      <c r="DTS14"/>
+      <c r="DTU14"/>
+      <c r="DTW14"/>
+      <c r="DTY14"/>
+      <c r="DUA14"/>
+      <c r="DUC14"/>
+      <c r="DUE14"/>
+      <c r="DUG14"/>
+      <c r="DUI14"/>
+      <c r="DUK14"/>
+      <c r="DUM14"/>
+      <c r="DUO14"/>
+      <c r="DUQ14"/>
+      <c r="DUS14"/>
+      <c r="DUU14"/>
+      <c r="DUW14"/>
+      <c r="DUY14"/>
+      <c r="DVA14"/>
+      <c r="DVC14"/>
+      <c r="DVE14"/>
+      <c r="DVG14"/>
+      <c r="DVI14"/>
+      <c r="DVK14"/>
+      <c r="DVM14"/>
+      <c r="DVO14"/>
+      <c r="DVQ14"/>
+      <c r="DVS14"/>
+      <c r="DVU14"/>
+      <c r="DVW14"/>
+      <c r="DVY14"/>
+      <c r="DWA14"/>
+      <c r="DWC14"/>
+      <c r="DWE14"/>
+      <c r="DWG14"/>
+      <c r="DWI14"/>
+      <c r="DWK14"/>
+      <c r="DWM14"/>
+      <c r="DWO14"/>
+      <c r="DWQ14"/>
+      <c r="DWS14"/>
+      <c r="DWU14"/>
+      <c r="DWW14"/>
+      <c r="DWY14"/>
+      <c r="DXA14"/>
+      <c r="DXC14"/>
+      <c r="DXE14"/>
+      <c r="DXG14"/>
+      <c r="DXI14"/>
+      <c r="DXK14"/>
+      <c r="DXM14"/>
+      <c r="DXO14"/>
+      <c r="DXQ14"/>
+      <c r="DXS14"/>
+      <c r="DXU14"/>
+      <c r="DXW14"/>
+      <c r="DXY14"/>
+      <c r="DYA14"/>
+      <c r="DYC14"/>
+      <c r="DYE14"/>
+      <c r="DYG14"/>
+      <c r="DYI14"/>
+      <c r="DYK14"/>
+      <c r="DYM14"/>
+      <c r="DYO14"/>
+      <c r="DYQ14"/>
+      <c r="DYS14"/>
+      <c r="DYU14"/>
+      <c r="DYW14"/>
+      <c r="DYY14"/>
+      <c r="DZA14"/>
+      <c r="DZC14"/>
+      <c r="DZE14"/>
+      <c r="DZG14"/>
+      <c r="DZI14"/>
+      <c r="DZK14"/>
+      <c r="DZM14"/>
+      <c r="DZO14"/>
+      <c r="DZQ14"/>
+      <c r="DZS14"/>
+      <c r="DZU14"/>
+      <c r="DZW14"/>
+      <c r="DZY14"/>
+      <c r="EAA14"/>
+      <c r="EAC14"/>
+      <c r="EAE14"/>
+      <c r="EAG14"/>
+      <c r="EAI14"/>
+      <c r="EAK14"/>
+      <c r="EAM14"/>
+      <c r="EAO14"/>
+      <c r="EAQ14"/>
+      <c r="EAS14"/>
+      <c r="EAU14"/>
+      <c r="EAW14"/>
+      <c r="EAY14"/>
+      <c r="EBA14"/>
+      <c r="EBC14"/>
+      <c r="EBE14"/>
+      <c r="EBG14"/>
+      <c r="EBI14"/>
+      <c r="EBK14"/>
+      <c r="EBM14"/>
+      <c r="EBO14"/>
+      <c r="EBQ14"/>
+      <c r="EBS14"/>
+      <c r="EBU14"/>
+      <c r="EBW14"/>
+      <c r="EBY14"/>
+      <c r="ECA14"/>
+      <c r="ECC14"/>
+      <c r="ECE14"/>
+      <c r="ECG14"/>
+      <c r="ECI14"/>
+      <c r="ECK14"/>
+      <c r="ECM14"/>
+      <c r="ECO14"/>
+      <c r="ECQ14"/>
+      <c r="ECS14"/>
+      <c r="ECU14"/>
+      <c r="ECW14"/>
+      <c r="ECY14"/>
+      <c r="EDA14"/>
+      <c r="EDC14"/>
+      <c r="EDE14"/>
+      <c r="EDG14"/>
+      <c r="EDI14"/>
+      <c r="EDK14"/>
+      <c r="EDM14"/>
+      <c r="EDO14"/>
+      <c r="EDQ14"/>
+      <c r="EDS14"/>
+      <c r="EDU14"/>
+      <c r="EDW14"/>
+      <c r="EDY14"/>
+      <c r="EEA14"/>
+      <c r="EEC14"/>
+      <c r="EEE14"/>
+      <c r="EEG14"/>
+      <c r="EEI14"/>
+      <c r="EEK14"/>
+      <c r="EEM14"/>
+      <c r="EEO14"/>
+      <c r="EEQ14"/>
+      <c r="EES14"/>
+      <c r="EEU14"/>
+      <c r="EEW14"/>
+      <c r="EEY14"/>
+      <c r="EFA14"/>
+      <c r="EFC14"/>
+      <c r="EFE14"/>
+      <c r="EFG14"/>
+      <c r="EFI14"/>
+      <c r="EFK14"/>
+      <c r="EFM14"/>
+      <c r="EFO14"/>
+      <c r="EFQ14"/>
+      <c r="EFS14"/>
+      <c r="EFU14"/>
+      <c r="EFW14"/>
+      <c r="EFY14"/>
+      <c r="EGA14"/>
+      <c r="EGC14"/>
+      <c r="EGE14"/>
+      <c r="EGG14"/>
+      <c r="EGI14"/>
+      <c r="EGK14"/>
+      <c r="EGM14"/>
+      <c r="EGO14"/>
+      <c r="EGQ14"/>
+      <c r="EGS14"/>
+      <c r="EGU14"/>
+      <c r="EGW14"/>
+      <c r="EGY14"/>
+      <c r="EHA14"/>
+      <c r="EHC14"/>
+      <c r="EHE14"/>
+      <c r="EHG14"/>
+      <c r="EHI14"/>
+      <c r="EHK14"/>
+      <c r="EHM14"/>
+      <c r="EHO14"/>
+      <c r="EHQ14"/>
+      <c r="EHS14"/>
+      <c r="EHU14"/>
+      <c r="EHW14"/>
+      <c r="EHY14"/>
+      <c r="EIA14"/>
+      <c r="EIC14"/>
+      <c r="EIE14"/>
+      <c r="EIG14"/>
+      <c r="EII14"/>
+      <c r="EIK14"/>
+      <c r="EIM14"/>
+      <c r="EIO14"/>
+      <c r="EIQ14"/>
+      <c r="EIS14"/>
+      <c r="EIU14"/>
+      <c r="EIW14"/>
+      <c r="EIY14"/>
+      <c r="EJA14"/>
+      <c r="EJC14"/>
+      <c r="EJE14"/>
+      <c r="EJG14"/>
+      <c r="EJI14"/>
+      <c r="EJK14"/>
+      <c r="EJM14"/>
+      <c r="EJO14"/>
+      <c r="EJQ14"/>
+      <c r="EJS14"/>
+      <c r="EJU14"/>
+      <c r="EJW14"/>
+      <c r="EJY14"/>
+      <c r="EKA14"/>
+      <c r="EKC14"/>
+      <c r="EKE14"/>
+      <c r="EKG14"/>
+      <c r="EKI14"/>
+      <c r="EKK14"/>
+      <c r="EKM14"/>
+      <c r="EKO14"/>
+      <c r="EKQ14"/>
+      <c r="EKS14"/>
+      <c r="EKU14"/>
+      <c r="EKW14"/>
+      <c r="EKY14"/>
+      <c r="ELA14"/>
+      <c r="ELC14"/>
+      <c r="ELE14"/>
+      <c r="ELG14"/>
+      <c r="ELI14"/>
+      <c r="ELK14"/>
+      <c r="ELM14"/>
+      <c r="ELO14"/>
+      <c r="ELQ14"/>
+      <c r="ELS14"/>
+      <c r="ELU14"/>
+      <c r="ELW14"/>
+      <c r="ELY14"/>
+      <c r="EMA14"/>
+      <c r="EMC14"/>
+      <c r="EME14"/>
+      <c r="EMG14"/>
+      <c r="EMI14"/>
+      <c r="EMK14"/>
+      <c r="EMM14"/>
+      <c r="EMO14"/>
+      <c r="EMQ14"/>
+      <c r="EMS14"/>
+      <c r="EMU14"/>
+      <c r="EMW14"/>
+      <c r="EMY14"/>
+      <c r="ENA14"/>
+      <c r="ENC14"/>
+      <c r="ENE14"/>
+      <c r="ENG14"/>
+      <c r="ENI14"/>
+      <c r="ENK14"/>
+      <c r="ENM14"/>
+      <c r="ENO14"/>
+      <c r="ENQ14"/>
+      <c r="ENS14"/>
+      <c r="ENU14"/>
+      <c r="ENW14"/>
+      <c r="ENY14"/>
+      <c r="EOA14"/>
+      <c r="EOC14"/>
+      <c r="EOE14"/>
+      <c r="EOG14"/>
+      <c r="EOI14"/>
+      <c r="EOK14"/>
+      <c r="EOM14"/>
+      <c r="EOO14"/>
+      <c r="EOQ14"/>
+      <c r="EOS14"/>
+      <c r="EOU14"/>
+      <c r="EOW14"/>
+      <c r="EOY14"/>
+      <c r="EPA14"/>
+      <c r="EPC14"/>
+      <c r="EPE14"/>
+      <c r="EPG14"/>
+      <c r="EPI14"/>
+      <c r="EPK14"/>
+      <c r="EPM14"/>
+      <c r="EPO14"/>
+      <c r="EPQ14"/>
+      <c r="EPS14"/>
+      <c r="EPU14"/>
+      <c r="EPW14"/>
+      <c r="EPY14"/>
+      <c r="EQA14"/>
+      <c r="EQC14"/>
+      <c r="EQE14"/>
+      <c r="EQG14"/>
+      <c r="EQI14"/>
+      <c r="EQK14"/>
+      <c r="EQM14"/>
+      <c r="EQO14"/>
+      <c r="EQQ14"/>
+      <c r="EQS14"/>
+      <c r="EQU14"/>
+      <c r="EQW14"/>
+      <c r="EQY14"/>
+      <c r="ERA14"/>
+      <c r="ERC14"/>
+      <c r="ERE14"/>
+      <c r="ERG14"/>
+      <c r="ERI14"/>
+      <c r="ERK14"/>
+      <c r="ERM14"/>
+      <c r="ERO14"/>
+      <c r="ERQ14"/>
+      <c r="ERS14"/>
+      <c r="ERU14"/>
+      <c r="ERW14"/>
+      <c r="ERY14"/>
+      <c r="ESA14"/>
+      <c r="ESC14"/>
+      <c r="ESE14"/>
+      <c r="ESG14"/>
+      <c r="ESI14"/>
+      <c r="ESK14"/>
+      <c r="ESM14"/>
+      <c r="ESO14"/>
+      <c r="ESQ14"/>
+      <c r="ESS14"/>
+      <c r="ESU14"/>
+      <c r="ESW14"/>
+      <c r="ESY14"/>
+      <c r="ETA14"/>
+      <c r="ETC14"/>
+      <c r="ETE14"/>
+      <c r="ETG14"/>
+      <c r="ETI14"/>
+      <c r="ETK14"/>
+      <c r="ETM14"/>
+      <c r="ETO14"/>
+      <c r="ETQ14"/>
+      <c r="ETS14"/>
+      <c r="ETU14"/>
+      <c r="ETW14"/>
+      <c r="ETY14"/>
+      <c r="EUA14"/>
+      <c r="EUC14"/>
+      <c r="EUE14"/>
+      <c r="EUG14"/>
+      <c r="EUI14"/>
+      <c r="EUK14"/>
+      <c r="EUM14"/>
+      <c r="EUO14"/>
+      <c r="EUQ14"/>
+      <c r="EUS14"/>
+      <c r="EUU14"/>
+      <c r="EUW14"/>
+      <c r="EUY14"/>
+      <c r="EVA14"/>
+      <c r="EVC14"/>
+      <c r="EVE14"/>
+      <c r="EVG14"/>
+      <c r="EVI14"/>
+      <c r="EVK14"/>
+      <c r="EVM14"/>
+      <c r="EVO14"/>
+      <c r="EVQ14"/>
+      <c r="EVS14"/>
+      <c r="EVU14"/>
+      <c r="EVW14"/>
+      <c r="EVY14"/>
+      <c r="EWA14"/>
+      <c r="EWC14"/>
+      <c r="EWE14"/>
+      <c r="EWG14"/>
+      <c r="EWI14"/>
+      <c r="EWK14"/>
+      <c r="EWM14"/>
+      <c r="EWO14"/>
+      <c r="EWQ14"/>
+      <c r="EWS14"/>
+      <c r="EWU14"/>
+      <c r="EWW14"/>
+      <c r="EWY14"/>
+      <c r="EXA14"/>
+      <c r="EXC14"/>
+      <c r="EXE14"/>
+      <c r="EXG14"/>
+      <c r="EXI14"/>
+      <c r="EXK14"/>
+      <c r="EXM14"/>
+      <c r="EXO14"/>
+      <c r="EXQ14"/>
+      <c r="EXS14"/>
+      <c r="EXU14"/>
+      <c r="EXW14"/>
+      <c r="EXY14"/>
+      <c r="EYA14"/>
+      <c r="EYC14"/>
+      <c r="EYE14"/>
+      <c r="EYG14"/>
+      <c r="EYI14"/>
+      <c r="EYK14"/>
+      <c r="EYM14"/>
+      <c r="EYO14"/>
+      <c r="EYQ14"/>
+      <c r="EYS14"/>
+      <c r="EYU14"/>
+      <c r="EYW14"/>
+      <c r="EYY14"/>
+      <c r="EZA14"/>
+      <c r="EZC14"/>
+      <c r="EZE14"/>
+      <c r="EZG14"/>
+      <c r="EZI14"/>
+      <c r="EZK14"/>
+      <c r="EZM14"/>
+      <c r="EZO14"/>
+      <c r="EZQ14"/>
+      <c r="EZS14"/>
+      <c r="EZU14"/>
+      <c r="EZW14"/>
+      <c r="EZY14"/>
+      <c r="FAA14"/>
+      <c r="FAC14"/>
+      <c r="FAE14"/>
+      <c r="FAG14"/>
+      <c r="FAI14"/>
+      <c r="FAK14"/>
+      <c r="FAM14"/>
+      <c r="FAO14"/>
+      <c r="FAQ14"/>
+      <c r="FAS14"/>
+      <c r="FAU14"/>
+      <c r="FAW14"/>
+      <c r="FAY14"/>
+      <c r="FBA14"/>
+      <c r="FBC14"/>
+      <c r="FBE14"/>
+      <c r="FBG14"/>
+      <c r="FBI14"/>
+      <c r="FBK14"/>
+      <c r="FBM14"/>
+      <c r="FBO14"/>
+      <c r="FBQ14"/>
+      <c r="FBS14"/>
+      <c r="FBU14"/>
+      <c r="FBW14"/>
+      <c r="FBY14"/>
+      <c r="FCA14"/>
+      <c r="FCC14"/>
+      <c r="FCE14"/>
+      <c r="FCG14"/>
+      <c r="FCI14"/>
+      <c r="FCK14"/>
+      <c r="FCM14"/>
+      <c r="FCO14"/>
+      <c r="FCQ14"/>
+      <c r="FCS14"/>
+      <c r="FCU14"/>
+      <c r="FCW14"/>
+      <c r="FCY14"/>
+      <c r="FDA14"/>
+      <c r="FDC14"/>
+      <c r="FDE14"/>
+      <c r="FDG14"/>
+      <c r="FDI14"/>
+      <c r="FDK14"/>
+      <c r="FDM14"/>
+      <c r="FDO14"/>
+      <c r="FDQ14"/>
+      <c r="FDS14"/>
+      <c r="FDU14"/>
+      <c r="FDW14"/>
+      <c r="FDY14"/>
+      <c r="FEA14"/>
+      <c r="FEC14"/>
+      <c r="FEE14"/>
+      <c r="FEG14"/>
+      <c r="FEI14"/>
+      <c r="FEK14"/>
+      <c r="FEM14"/>
+      <c r="FEO14"/>
+      <c r="FEQ14"/>
+      <c r="FES14"/>
+      <c r="FEU14"/>
+      <c r="FEW14"/>
+      <c r="FEY14"/>
+      <c r="FFA14"/>
+      <c r="FFC14"/>
+      <c r="FFE14"/>
+      <c r="FFG14"/>
+      <c r="FFI14"/>
+      <c r="FFK14"/>
+      <c r="FFM14"/>
+      <c r="FFO14"/>
+      <c r="FFQ14"/>
+      <c r="FFS14"/>
+      <c r="FFU14"/>
+      <c r="FFW14"/>
+      <c r="FFY14"/>
+      <c r="FGA14"/>
+      <c r="FGC14"/>
+      <c r="FGE14"/>
+      <c r="FGG14"/>
+      <c r="FGI14"/>
+      <c r="FGK14"/>
+      <c r="FGM14"/>
+      <c r="FGO14"/>
+      <c r="FGQ14"/>
+      <c r="FGS14"/>
+      <c r="FGU14"/>
+      <c r="FGW14"/>
+      <c r="FGY14"/>
+      <c r="FHA14"/>
+      <c r="FHC14"/>
+      <c r="FHE14"/>
+      <c r="FHG14"/>
+      <c r="FHI14"/>
+      <c r="FHK14"/>
+      <c r="FHM14"/>
+      <c r="FHO14"/>
+      <c r="FHQ14"/>
+      <c r="FHS14"/>
+      <c r="FHU14"/>
+      <c r="FHW14"/>
+      <c r="FHY14"/>
+      <c r="FIA14"/>
+      <c r="FIC14"/>
+      <c r="FIE14"/>
+      <c r="FIG14"/>
+      <c r="FII14"/>
+      <c r="FIK14"/>
+      <c r="FIM14"/>
+      <c r="FIO14"/>
+      <c r="FIQ14"/>
+      <c r="FIS14"/>
+      <c r="FIU14"/>
+      <c r="FIW14"/>
+      <c r="FIY14"/>
+      <c r="FJA14"/>
+      <c r="FJC14"/>
+      <c r="FJE14"/>
+      <c r="FJG14"/>
+      <c r="FJI14"/>
+      <c r="FJK14"/>
+      <c r="FJM14"/>
+      <c r="FJO14"/>
+      <c r="FJQ14"/>
+      <c r="FJS14"/>
+      <c r="FJU14"/>
+      <c r="FJW14"/>
+      <c r="FJY14"/>
+      <c r="FKA14"/>
+      <c r="FKC14"/>
+      <c r="FKE14"/>
+      <c r="FKG14"/>
+      <c r="FKI14"/>
+      <c r="FKK14"/>
+      <c r="FKM14"/>
+      <c r="FKO14"/>
+      <c r="FKQ14"/>
+      <c r="FKS14"/>
+      <c r="FKU14"/>
+      <c r="FKW14"/>
+      <c r="FKY14"/>
+      <c r="FLA14"/>
+      <c r="FLC14"/>
+      <c r="FLE14"/>
+      <c r="FLG14"/>
+      <c r="FLI14"/>
+      <c r="FLK14"/>
+      <c r="FLM14"/>
+      <c r="FLO14"/>
+      <c r="FLQ14"/>
+      <c r="FLS14"/>
+      <c r="FLU14"/>
+      <c r="FLW14"/>
+      <c r="FLY14"/>
+      <c r="FMA14"/>
+      <c r="FMC14"/>
+      <c r="FME14"/>
+      <c r="FMG14"/>
+      <c r="FMI14"/>
+      <c r="FMK14"/>
+      <c r="FMM14"/>
+      <c r="FMO14"/>
+      <c r="FMQ14"/>
+      <c r="FMS14"/>
+      <c r="FMU14"/>
+      <c r="FMW14"/>
+      <c r="FMY14"/>
+      <c r="FNA14"/>
+      <c r="FNC14"/>
+      <c r="FNE14"/>
+      <c r="FNG14"/>
+      <c r="FNI14"/>
+      <c r="FNK14"/>
+      <c r="FNM14"/>
+      <c r="FNO14"/>
+      <c r="FNQ14"/>
+      <c r="FNS14"/>
+      <c r="FNU14"/>
+      <c r="FNW14"/>
+      <c r="FNY14"/>
+      <c r="FOA14"/>
+      <c r="FOC14"/>
+      <c r="FOE14"/>
+      <c r="FOG14"/>
+      <c r="FOI14"/>
+      <c r="FOK14"/>
+      <c r="FOM14"/>
+      <c r="FOO14"/>
+      <c r="FOQ14"/>
+      <c r="FOS14"/>
+      <c r="FOU14"/>
+      <c r="FOW14"/>
+      <c r="FOY14"/>
+      <c r="FPA14"/>
+      <c r="FPC14"/>
+      <c r="FPE14"/>
+      <c r="FPG14"/>
+      <c r="FPI14"/>
+      <c r="FPK14"/>
+      <c r="FPM14"/>
+      <c r="FPO14"/>
+      <c r="FPQ14"/>
+      <c r="FPS14"/>
+      <c r="FPU14"/>
+      <c r="FPW14"/>
+      <c r="FPY14"/>
+      <c r="FQA14"/>
+      <c r="FQC14"/>
+      <c r="FQE14"/>
+      <c r="FQG14"/>
+      <c r="FQI14"/>
+      <c r="FQK14"/>
+      <c r="FQM14"/>
+      <c r="FQO14"/>
+      <c r="FQQ14"/>
+      <c r="FQS14"/>
+      <c r="FQU14"/>
+      <c r="FQW14"/>
+      <c r="FQY14"/>
+      <c r="FRA14"/>
+      <c r="FRC14"/>
+      <c r="FRE14"/>
+      <c r="FRG14"/>
+      <c r="FRI14"/>
+      <c r="FRK14"/>
+      <c r="FRM14"/>
+      <c r="FRO14"/>
+      <c r="FRQ14"/>
+      <c r="FRS14"/>
+      <c r="FRU14"/>
+      <c r="FRW14"/>
+      <c r="FRY14"/>
+      <c r="FSA14"/>
+      <c r="FSC14"/>
+      <c r="FSE14"/>
+      <c r="FSG14"/>
+      <c r="FSI14"/>
+      <c r="FSK14"/>
+      <c r="FSM14"/>
+      <c r="FSO14"/>
+      <c r="FSQ14"/>
+      <c r="FSS14"/>
+      <c r="FSU14"/>
+      <c r="FSW14"/>
+      <c r="FSY14"/>
+      <c r="FTA14"/>
+      <c r="FTC14"/>
+      <c r="FTE14"/>
+      <c r="FTG14"/>
+      <c r="FTI14"/>
+      <c r="FTK14"/>
+      <c r="FTM14"/>
+      <c r="FTO14"/>
+      <c r="FTQ14"/>
+      <c r="FTS14"/>
+      <c r="FTU14"/>
+      <c r="FTW14"/>
+      <c r="FTY14"/>
+      <c r="FUA14"/>
+      <c r="FUC14"/>
+      <c r="FUE14"/>
+      <c r="FUG14"/>
+      <c r="FUI14"/>
+      <c r="FUK14"/>
+      <c r="FUM14"/>
+      <c r="FUO14"/>
+      <c r="FUQ14"/>
+      <c r="FUS14"/>
+      <c r="FUU14"/>
+      <c r="FUW14"/>
+      <c r="FUY14"/>
+      <c r="FVA14"/>
+      <c r="FVC14"/>
+      <c r="FVE14"/>
+      <c r="FVG14"/>
+      <c r="FVI14"/>
+      <c r="FVK14"/>
+      <c r="FVM14"/>
+      <c r="FVO14"/>
+      <c r="FVQ14"/>
+      <c r="FVS14"/>
+      <c r="FVU14"/>
+      <c r="FVW14"/>
+      <c r="FVY14"/>
+      <c r="FWA14"/>
+      <c r="FWC14"/>
+      <c r="FWE14"/>
+      <c r="FWG14"/>
+      <c r="FWI14"/>
+      <c r="FWK14"/>
+      <c r="FWM14"/>
+      <c r="FWO14"/>
+      <c r="FWQ14"/>
+      <c r="FWS14"/>
+      <c r="FWU14"/>
+      <c r="FWW14"/>
+      <c r="FWY14"/>
+      <c r="FXA14"/>
+      <c r="FXC14"/>
+      <c r="FXE14"/>
+      <c r="FXG14"/>
+      <c r="FXI14"/>
+      <c r="FXK14"/>
+      <c r="FXM14"/>
+      <c r="FXO14"/>
+      <c r="FXQ14"/>
+      <c r="FXS14"/>
+      <c r="FXU14"/>
+      <c r="FXW14"/>
+      <c r="FXY14"/>
+      <c r="FYA14"/>
+      <c r="FYC14"/>
+      <c r="FYE14"/>
+      <c r="FYG14"/>
+      <c r="FYI14"/>
+      <c r="FYK14"/>
+      <c r="FYM14"/>
+      <c r="FYO14"/>
+      <c r="FYQ14"/>
+      <c r="FYS14"/>
+      <c r="FYU14"/>
+      <c r="FYW14"/>
+      <c r="FYY14"/>
+      <c r="FZA14"/>
+      <c r="FZC14"/>
+      <c r="FZE14"/>
+      <c r="FZG14"/>
+      <c r="FZI14"/>
+      <c r="FZK14"/>
+      <c r="FZM14"/>
+      <c r="FZO14"/>
+      <c r="FZQ14"/>
+      <c r="FZS14"/>
+      <c r="FZU14"/>
+      <c r="FZW14"/>
+      <c r="FZY14"/>
+      <c r="GAA14"/>
+      <c r="GAC14"/>
+      <c r="GAE14"/>
+      <c r="GAG14"/>
+      <c r="GAI14"/>
+      <c r="GAK14"/>
+      <c r="GAM14"/>
+      <c r="GAO14"/>
+      <c r="GAQ14"/>
+      <c r="GAS14"/>
+      <c r="GAU14"/>
+      <c r="GAW14"/>
+      <c r="GAY14"/>
+      <c r="GBA14"/>
+      <c r="GBC14"/>
+      <c r="GBE14"/>
+      <c r="GBG14"/>
+      <c r="GBI14"/>
+      <c r="GBK14"/>
+      <c r="GBM14"/>
+      <c r="GBO14"/>
+      <c r="GBQ14"/>
+      <c r="GBS14"/>
+      <c r="GBU14"/>
+      <c r="GBW14"/>
+      <c r="GBY14"/>
+      <c r="GCA14"/>
+      <c r="GCC14"/>
+      <c r="GCE14"/>
+      <c r="GCG14"/>
+      <c r="GCI14"/>
+      <c r="GCK14"/>
+      <c r="GCM14"/>
+      <c r="GCO14"/>
+      <c r="GCQ14"/>
+      <c r="GCS14"/>
+      <c r="GCU14"/>
+      <c r="GCW14"/>
+      <c r="GCY14"/>
+      <c r="GDA14"/>
+      <c r="GDC14"/>
+      <c r="GDE14"/>
+      <c r="GDG14"/>
+      <c r="GDI14"/>
+      <c r="GDK14"/>
+      <c r="GDM14"/>
+      <c r="GDO14"/>
+      <c r="GDQ14"/>
+      <c r="GDS14"/>
+      <c r="GDU14"/>
+      <c r="GDW14"/>
+      <c r="GDY14"/>
+      <c r="GEA14"/>
+      <c r="GEC14"/>
+      <c r="GEE14"/>
+      <c r="GEG14"/>
+      <c r="GEI14"/>
+      <c r="GEK14"/>
+      <c r="GEM14"/>
+      <c r="GEO14"/>
+      <c r="GEQ14"/>
+      <c r="GES14"/>
+      <c r="GEU14"/>
+      <c r="GEW14"/>
+      <c r="GEY14"/>
+      <c r="GFA14"/>
+      <c r="GFC14"/>
+      <c r="GFE14"/>
+      <c r="GFG14"/>
+      <c r="GFI14"/>
+      <c r="GFK14"/>
+      <c r="GFM14"/>
+      <c r="GFO14"/>
+      <c r="GFQ14"/>
+      <c r="GFS14"/>
+      <c r="GFU14"/>
+      <c r="GFW14"/>
+      <c r="GFY14"/>
+      <c r="GGA14"/>
+      <c r="GGC14"/>
+      <c r="GGE14"/>
+      <c r="GGG14"/>
+      <c r="GGI14"/>
+      <c r="GGK14"/>
+      <c r="GGM14"/>
+      <c r="GGO14"/>
+      <c r="GGQ14"/>
+      <c r="GGS14"/>
+      <c r="GGU14"/>
+      <c r="GGW14"/>
+      <c r="GGY14"/>
+      <c r="GHA14"/>
+      <c r="GHC14"/>
+      <c r="GHE14"/>
+      <c r="GHG14"/>
+      <c r="GHI14"/>
+      <c r="GHK14"/>
+      <c r="GHM14"/>
+      <c r="GHO14"/>
+      <c r="GHQ14"/>
+      <c r="GHS14"/>
+      <c r="GHU14"/>
+      <c r="GHW14"/>
+      <c r="GHY14"/>
+      <c r="GIA14"/>
+      <c r="GIC14"/>
+      <c r="GIE14"/>
+      <c r="GIG14"/>
+      <c r="GII14"/>
+      <c r="GIK14"/>
+      <c r="GIM14"/>
+      <c r="GIO14"/>
+      <c r="GIQ14"/>
+      <c r="GIS14"/>
+      <c r="GIU14"/>
+      <c r="GIW14"/>
+      <c r="GIY14"/>
+      <c r="GJA14"/>
+      <c r="GJC14"/>
+      <c r="GJE14"/>
+      <c r="GJG14"/>
+      <c r="GJI14"/>
+      <c r="GJK14"/>
+      <c r="GJM14"/>
+      <c r="GJO14"/>
+      <c r="GJQ14"/>
+      <c r="GJS14"/>
+      <c r="GJU14"/>
+      <c r="GJW14"/>
+      <c r="GJY14"/>
+      <c r="GKA14"/>
+      <c r="GKC14"/>
+      <c r="GKE14"/>
+      <c r="GKG14"/>
+      <c r="GKI14"/>
+      <c r="GKK14"/>
+      <c r="GKM14"/>
+      <c r="GKO14"/>
+      <c r="GKQ14"/>
+      <c r="GKS14"/>
+      <c r="GKU14"/>
+      <c r="GKW14"/>
+      <c r="GKY14"/>
+      <c r="GLA14"/>
+      <c r="GLC14"/>
+      <c r="GLE14"/>
+      <c r="GLG14"/>
+      <c r="GLI14"/>
+      <c r="GLK14"/>
+      <c r="GLM14"/>
+      <c r="GLO14"/>
+      <c r="GLQ14"/>
+      <c r="GLS14"/>
+      <c r="GLU14"/>
+      <c r="GLW14"/>
+      <c r="GLY14"/>
+      <c r="GMA14"/>
+      <c r="GMC14"/>
+      <c r="GME14"/>
+      <c r="GMG14"/>
+      <c r="GMI14"/>
+      <c r="GMK14"/>
+      <c r="GMM14"/>
+      <c r="GMO14"/>
+      <c r="GMQ14"/>
+      <c r="GMS14"/>
+      <c r="GMU14"/>
+      <c r="GMW14"/>
+      <c r="GMY14"/>
+      <c r="GNA14"/>
+      <c r="GNC14"/>
+      <c r="GNE14"/>
+      <c r="GNG14"/>
+      <c r="GNI14"/>
+      <c r="GNK14"/>
+      <c r="GNM14"/>
+      <c r="GNO14"/>
+      <c r="GNQ14"/>
+      <c r="GNS14"/>
+      <c r="GNU14"/>
+      <c r="GNW14"/>
+      <c r="GNY14"/>
+      <c r="GOA14"/>
+      <c r="GOC14"/>
+      <c r="GOE14"/>
+      <c r="GOG14"/>
+      <c r="GOI14"/>
+      <c r="GOK14"/>
+      <c r="GOM14"/>
+      <c r="GOO14"/>
+      <c r="GOQ14"/>
+      <c r="GOS14"/>
+      <c r="GOU14"/>
+      <c r="GOW14"/>
+      <c r="GOY14"/>
+      <c r="GPA14"/>
+      <c r="GPC14"/>
+      <c r="GPE14"/>
+      <c r="GPG14"/>
+      <c r="GPI14"/>
+      <c r="GPK14"/>
+      <c r="GPM14"/>
+      <c r="GPO14"/>
+      <c r="GPQ14"/>
+      <c r="GPS14"/>
+      <c r="GPU14"/>
+      <c r="GPW14"/>
+      <c r="GPY14"/>
+      <c r="GQA14"/>
+      <c r="GQC14"/>
+      <c r="GQE14"/>
+      <c r="GQG14"/>
+      <c r="GQI14"/>
+      <c r="GQK14"/>
+      <c r="GQM14"/>
+      <c r="GQO14"/>
+      <c r="GQQ14"/>
+      <c r="GQS14"/>
+      <c r="GQU14"/>
+      <c r="GQW14"/>
+      <c r="GQY14"/>
+      <c r="GRA14"/>
+      <c r="GRC14"/>
+      <c r="GRE14"/>
+      <c r="GRG14"/>
+      <c r="GRI14"/>
+      <c r="GRK14"/>
+      <c r="GRM14"/>
+      <c r="GRO14"/>
+      <c r="GRQ14"/>
+      <c r="GRS14"/>
+      <c r="GRU14"/>
+      <c r="GRW14"/>
+      <c r="GRY14"/>
+      <c r="GSA14"/>
+      <c r="GSC14"/>
+      <c r="GSE14"/>
+      <c r="GSG14"/>
+      <c r="GSI14"/>
+      <c r="GSK14"/>
+      <c r="GSM14"/>
+      <c r="GSO14"/>
+      <c r="GSQ14"/>
+      <c r="GSS14"/>
+      <c r="GSU14"/>
+      <c r="GSW14"/>
+      <c r="GSY14"/>
+      <c r="GTA14"/>
+      <c r="GTC14"/>
+      <c r="GTE14"/>
+      <c r="GTG14"/>
+      <c r="GTI14"/>
+      <c r="GTK14"/>
+      <c r="GTM14"/>
+      <c r="GTO14"/>
+      <c r="GTQ14"/>
+      <c r="GTS14"/>
+      <c r="GTU14"/>
+      <c r="GTW14"/>
+      <c r="GTY14"/>
+      <c r="GUA14"/>
+      <c r="GUC14"/>
+      <c r="GUE14"/>
+      <c r="GUG14"/>
+      <c r="GUI14"/>
+      <c r="GUK14"/>
+      <c r="GUM14"/>
+      <c r="GUO14"/>
+      <c r="GUQ14"/>
+      <c r="GUS14"/>
+      <c r="GUU14"/>
+      <c r="GUW14"/>
+      <c r="GUY14"/>
+      <c r="GVA14"/>
+      <c r="GVC14"/>
+      <c r="GVE14"/>
+      <c r="GVG14"/>
+      <c r="GVI14"/>
+      <c r="GVK14"/>
+      <c r="GVM14"/>
+      <c r="GVO14"/>
+      <c r="GVQ14"/>
+      <c r="GVS14"/>
+      <c r="GVU14"/>
+      <c r="GVW14"/>
+      <c r="GVY14"/>
+      <c r="GWA14"/>
+      <c r="GWC14"/>
+      <c r="GWE14"/>
+      <c r="GWG14"/>
+      <c r="GWI14"/>
+      <c r="GWK14"/>
+      <c r="GWM14"/>
+      <c r="GWO14"/>
+      <c r="GWQ14"/>
+      <c r="GWS14"/>
+      <c r="GWU14"/>
+      <c r="GWW14"/>
+      <c r="GWY14"/>
+      <c r="GXA14"/>
+      <c r="GXC14"/>
+      <c r="GXE14"/>
+      <c r="GXG14"/>
+      <c r="GXI14"/>
+      <c r="GXK14"/>
+      <c r="GXM14"/>
+      <c r="GXO14"/>
+      <c r="GXQ14"/>
+      <c r="GXS14"/>
+      <c r="GXU14"/>
+      <c r="GXW14"/>
+      <c r="GXY14"/>
+      <c r="GYA14"/>
+      <c r="GYC14"/>
+      <c r="GYE14"/>
+      <c r="GYG14"/>
+      <c r="GYI14"/>
+      <c r="GYK14"/>
+      <c r="GYM14"/>
+      <c r="GYO14"/>
+      <c r="GYQ14"/>
+      <c r="GYS14"/>
+      <c r="GYU14"/>
+      <c r="GYW14"/>
+      <c r="GYY14"/>
+      <c r="GZA14"/>
+      <c r="GZC14"/>
+      <c r="GZE14"/>
+      <c r="GZG14"/>
+      <c r="GZI14"/>
+      <c r="GZK14"/>
+      <c r="GZM14"/>
+      <c r="GZO14"/>
+      <c r="GZQ14"/>
+      <c r="GZS14"/>
+      <c r="GZU14"/>
+      <c r="GZW14"/>
+      <c r="GZY14"/>
+      <c r="HAA14"/>
+      <c r="HAC14"/>
+      <c r="HAE14"/>
+      <c r="HAG14"/>
+      <c r="HAI14"/>
+      <c r="HAK14"/>
+      <c r="HAM14"/>
+      <c r="HAO14"/>
+      <c r="HAQ14"/>
+      <c r="HAS14"/>
+      <c r="HAU14"/>
+      <c r="HAW14"/>
+      <c r="HAY14"/>
+      <c r="HBA14"/>
+      <c r="HBC14"/>
+      <c r="HBE14"/>
+      <c r="HBG14"/>
+      <c r="HBI14"/>
+      <c r="HBK14"/>
+      <c r="HBM14"/>
+      <c r="HBO14"/>
+      <c r="HBQ14"/>
+      <c r="HBS14"/>
+      <c r="HBU14"/>
+      <c r="HBW14"/>
+      <c r="HBY14"/>
+      <c r="HCA14"/>
+      <c r="HCC14"/>
+      <c r="HCE14"/>
+      <c r="HCG14"/>
+      <c r="HCI14"/>
+      <c r="HCK14"/>
+      <c r="HCM14"/>
+      <c r="HCO14"/>
+      <c r="HCQ14"/>
+      <c r="HCS14"/>
+      <c r="HCU14"/>
+      <c r="HCW14"/>
+      <c r="HCY14"/>
+      <c r="HDA14"/>
+      <c r="HDC14"/>
+      <c r="HDE14"/>
+      <c r="HDG14"/>
+      <c r="HDI14"/>
+      <c r="HDK14"/>
+      <c r="HDM14"/>
+      <c r="HDO14"/>
+      <c r="HDQ14"/>
+      <c r="HDS14"/>
+      <c r="HDU14"/>
+      <c r="HDW14"/>
+      <c r="HDY14"/>
+      <c r="HEA14"/>
+      <c r="HEC14"/>
+      <c r="HEE14"/>
+      <c r="HEG14"/>
+      <c r="HEI14"/>
+      <c r="HEK14"/>
+      <c r="HEM14"/>
+      <c r="HEO14"/>
+      <c r="HEQ14"/>
+      <c r="HES14"/>
+      <c r="HEU14"/>
+      <c r="HEW14"/>
+      <c r="HEY14"/>
+      <c r="HFA14"/>
+      <c r="HFC14"/>
+      <c r="HFE14"/>
+      <c r="HFG14"/>
+      <c r="HFI14"/>
+      <c r="HFK14"/>
+      <c r="HFM14"/>
+      <c r="HFO14"/>
+      <c r="HFQ14"/>
+      <c r="HFS14"/>
+      <c r="HFU14"/>
+      <c r="HFW14"/>
+      <c r="HFY14"/>
+      <c r="HGA14"/>
+      <c r="HGC14"/>
+      <c r="HGE14"/>
+      <c r="HGG14"/>
+      <c r="HGI14"/>
+      <c r="HGK14"/>
+      <c r="HGM14"/>
+      <c r="HGO14"/>
+      <c r="HGQ14"/>
+      <c r="HGS14"/>
+      <c r="HGU14"/>
+      <c r="HGW14"/>
+      <c r="HGY14"/>
+      <c r="HHA14"/>
+      <c r="HHC14"/>
+      <c r="HHE14"/>
+      <c r="HHG14"/>
+      <c r="HHI14"/>
+      <c r="HHK14"/>
+      <c r="HHM14"/>
+      <c r="HHO14"/>
+      <c r="HHQ14"/>
+      <c r="HHS14"/>
+      <c r="HHU14"/>
+      <c r="HHW14"/>
+      <c r="HHY14"/>
+      <c r="HIA14"/>
+      <c r="HIC14"/>
+      <c r="HIE14"/>
+      <c r="HIG14"/>
+      <c r="HII14"/>
+      <c r="HIK14"/>
+      <c r="HIM14"/>
+      <c r="HIO14"/>
+      <c r="HIQ14"/>
+      <c r="HIS14"/>
+      <c r="HIU14"/>
+      <c r="HIW14"/>
+      <c r="HIY14"/>
+      <c r="HJA14"/>
+      <c r="HJC14"/>
+      <c r="HJE14"/>
+      <c r="HJG14"/>
+      <c r="HJI14"/>
+      <c r="HJK14"/>
+      <c r="HJM14"/>
+      <c r="HJO14"/>
+      <c r="HJQ14"/>
+      <c r="HJS14"/>
+      <c r="HJU14"/>
+      <c r="HJW14"/>
+      <c r="HJY14"/>
+      <c r="HKA14"/>
+      <c r="HKC14"/>
+      <c r="HKE14"/>
+      <c r="HKG14"/>
+      <c r="HKI14"/>
+      <c r="HKK14"/>
+      <c r="HKM14"/>
+      <c r="HKO14"/>
+      <c r="HKQ14"/>
+      <c r="HKS14"/>
+      <c r="HKU14"/>
+      <c r="HKW14"/>
+      <c r="HKY14"/>
+      <c r="HLA14"/>
+      <c r="HLC14"/>
+      <c r="HLE14"/>
+      <c r="HLG14"/>
+      <c r="HLI14"/>
+      <c r="HLK14"/>
+      <c r="HLM14"/>
+      <c r="HLO14"/>
+      <c r="HLQ14"/>
+      <c r="HLS14"/>
+      <c r="HLU14"/>
+      <c r="HLW14"/>
+      <c r="HLY14"/>
+      <c r="HMA14"/>
+      <c r="HMC14"/>
+      <c r="HME14"/>
+      <c r="HMG14"/>
+      <c r="HMI14"/>
+      <c r="HMK14"/>
+      <c r="HMM14"/>
+      <c r="HMO14"/>
+      <c r="HMQ14"/>
+      <c r="HMS14"/>
+      <c r="HMU14"/>
+      <c r="HMW14"/>
+      <c r="HMY14"/>
+      <c r="HNA14"/>
+      <c r="HNC14"/>
+      <c r="HNE14"/>
+      <c r="HNG14"/>
+      <c r="HNI14"/>
+      <c r="HNK14"/>
+      <c r="HNM14"/>
+      <c r="HNO14"/>
+      <c r="HNQ14"/>
+      <c r="HNS14"/>
+      <c r="HNU14"/>
+      <c r="HNW14"/>
+      <c r="HNY14"/>
+      <c r="HOA14"/>
+      <c r="HOC14"/>
+      <c r="HOE14"/>
+      <c r="HOG14"/>
+      <c r="HOI14"/>
+      <c r="HOK14"/>
+      <c r="HOM14"/>
+      <c r="HOO14"/>
+      <c r="HOQ14"/>
+      <c r="HOS14"/>
+      <c r="HOU14"/>
+      <c r="HOW14"/>
+      <c r="HOY14"/>
+      <c r="HPA14"/>
+      <c r="HPC14"/>
+      <c r="HPE14"/>
+      <c r="HPG14"/>
+      <c r="HPI14"/>
+      <c r="HPK14"/>
+      <c r="HPM14"/>
+      <c r="HPO14"/>
+      <c r="HPQ14"/>
+      <c r="HPS14"/>
+      <c r="HPU14"/>
+      <c r="HPW14"/>
+      <c r="HPY14"/>
+      <c r="HQA14"/>
+      <c r="HQC14"/>
+      <c r="HQE14"/>
+      <c r="HQG14"/>
+      <c r="HQI14"/>
+      <c r="HQK14"/>
+      <c r="HQM14"/>
+      <c r="HQO14"/>
+      <c r="HQQ14"/>
+      <c r="HQS14"/>
+      <c r="HQU14"/>
+      <c r="HQW14"/>
+      <c r="HQY14"/>
+      <c r="HRA14"/>
+      <c r="HRC14"/>
+      <c r="HRE14"/>
+      <c r="HRG14"/>
+      <c r="HRI14"/>
+      <c r="HRK14"/>
+      <c r="HRM14"/>
+      <c r="HRO14"/>
+      <c r="HRQ14"/>
+      <c r="HRS14"/>
+      <c r="HRU14"/>
+      <c r="HRW14"/>
+      <c r="HRY14"/>
+      <c r="HSA14"/>
+      <c r="HSC14"/>
+      <c r="HSE14"/>
+      <c r="HSG14"/>
+      <c r="HSI14"/>
+      <c r="HSK14"/>
+      <c r="HSM14"/>
+      <c r="HSO14"/>
+      <c r="HSQ14"/>
+      <c r="HSS14"/>
+      <c r="HSU14"/>
+      <c r="HSW14"/>
+      <c r="HSY14"/>
+      <c r="HTA14"/>
+      <c r="HTC14"/>
+      <c r="HTE14"/>
+      <c r="HTG14"/>
+      <c r="HTI14"/>
+      <c r="HTK14"/>
+      <c r="HTM14"/>
+      <c r="HTO14"/>
+      <c r="HTQ14"/>
+      <c r="HTS14"/>
+      <c r="HTU14"/>
+      <c r="HTW14"/>
+      <c r="HTY14"/>
+      <c r="HUA14"/>
+      <c r="HUC14"/>
+      <c r="HUE14"/>
+      <c r="HUG14"/>
+      <c r="HUI14"/>
+      <c r="HUK14"/>
+      <c r="HUM14"/>
+      <c r="HUO14"/>
+      <c r="HUQ14"/>
+      <c r="HUS14"/>
+      <c r="HUU14"/>
+      <c r="HUW14"/>
+      <c r="HUY14"/>
+      <c r="HVA14"/>
+      <c r="HVC14"/>
+      <c r="HVE14"/>
+      <c r="HVG14"/>
+      <c r="HVI14"/>
+      <c r="HVK14"/>
+      <c r="HVM14"/>
+      <c r="HVO14"/>
+      <c r="HVQ14"/>
+      <c r="HVS14"/>
+      <c r="HVU14"/>
+      <c r="HVW14"/>
+      <c r="HVY14"/>
+      <c r="HWA14"/>
+      <c r="HWC14"/>
+      <c r="HWE14"/>
+      <c r="HWG14"/>
+      <c r="HWI14"/>
+      <c r="HWK14"/>
+      <c r="HWM14"/>
+      <c r="HWO14"/>
+      <c r="HWQ14"/>
+      <c r="HWS14"/>
+      <c r="HWU14"/>
+      <c r="HWW14"/>
+      <c r="HWY14"/>
+      <c r="HXA14"/>
+      <c r="HXC14"/>
+      <c r="HXE14"/>
+      <c r="HXG14"/>
+      <c r="HXI14"/>
+      <c r="HXK14"/>
+      <c r="HXM14"/>
+      <c r="HXO14"/>
+      <c r="HXQ14"/>
+      <c r="HXS14"/>
+      <c r="HXU14"/>
+      <c r="HXW14"/>
+      <c r="HXY14"/>
+      <c r="HYA14"/>
+      <c r="HYC14"/>
+      <c r="HYE14"/>
+      <c r="HYG14"/>
+      <c r="HYI14"/>
+      <c r="HYK14"/>
+      <c r="HYM14"/>
+      <c r="HYO14"/>
+      <c r="HYQ14"/>
+      <c r="HYS14"/>
+      <c r="HYU14"/>
+      <c r="HYW14"/>
+      <c r="HYY14"/>
+      <c r="HZA14"/>
+      <c r="HZC14"/>
+      <c r="HZE14"/>
+      <c r="HZG14"/>
+      <c r="HZI14"/>
+      <c r="HZK14"/>
+      <c r="HZM14"/>
+      <c r="HZO14"/>
+      <c r="HZQ14"/>
+      <c r="HZS14"/>
+      <c r="HZU14"/>
+      <c r="HZW14"/>
+      <c r="HZY14"/>
+      <c r="IAA14"/>
+      <c r="IAC14"/>
+      <c r="IAE14"/>
+      <c r="IAG14"/>
+      <c r="IAI14"/>
+      <c r="IAK14"/>
+      <c r="IAM14"/>
+      <c r="IAO14"/>
+      <c r="IAQ14"/>
+      <c r="IAS14"/>
+      <c r="IAU14"/>
+      <c r="IAW14"/>
+      <c r="IAY14"/>
+      <c r="IBA14"/>
+      <c r="IBC14"/>
+      <c r="IBE14"/>
+      <c r="IBG14"/>
+      <c r="IBI14"/>
+      <c r="IBK14"/>
+      <c r="IBM14"/>
+      <c r="IBO14"/>
+      <c r="IBQ14"/>
+      <c r="IBS14"/>
+      <c r="IBU14"/>
+      <c r="IBW14"/>
+      <c r="IBY14"/>
+      <c r="ICA14"/>
+      <c r="ICC14"/>
+      <c r="ICE14"/>
+      <c r="ICG14"/>
+      <c r="ICI14"/>
+      <c r="ICK14"/>
+      <c r="ICM14"/>
+      <c r="ICO14"/>
+      <c r="ICQ14"/>
+      <c r="ICS14"/>
+      <c r="ICU14"/>
+      <c r="ICW14"/>
+      <c r="ICY14"/>
+      <c r="IDA14"/>
+      <c r="IDC14"/>
+      <c r="IDE14"/>
+      <c r="IDG14"/>
+      <c r="IDI14"/>
+      <c r="IDK14"/>
+      <c r="IDM14"/>
+      <c r="IDO14"/>
+      <c r="IDQ14"/>
+      <c r="IDS14"/>
+      <c r="IDU14"/>
+      <c r="IDW14"/>
+      <c r="IDY14"/>
+      <c r="IEA14"/>
+      <c r="IEC14"/>
+      <c r="IEE14"/>
+      <c r="IEG14"/>
+      <c r="IEI14"/>
+      <c r="IEK14"/>
+      <c r="IEM14"/>
+      <c r="IEO14"/>
+      <c r="IEQ14"/>
+      <c r="IES14"/>
+      <c r="IEU14"/>
+      <c r="IEW14"/>
+      <c r="IEY14"/>
+      <c r="IFA14"/>
+      <c r="IFC14"/>
+      <c r="IFE14"/>
+      <c r="IFG14"/>
+      <c r="IFI14"/>
+      <c r="IFK14"/>
+      <c r="IFM14"/>
+      <c r="IFO14"/>
+      <c r="IFQ14"/>
+      <c r="IFS14"/>
+      <c r="IFU14"/>
+      <c r="IFW14"/>
+      <c r="IFY14"/>
+      <c r="IGA14"/>
+      <c r="IGC14"/>
+      <c r="IGE14"/>
+      <c r="IGG14"/>
+      <c r="IGI14"/>
+      <c r="IGK14"/>
+      <c r="IGM14"/>
+      <c r="IGO14"/>
+      <c r="IGQ14"/>
+      <c r="IGS14"/>
+      <c r="IGU14"/>
+      <c r="IGW14"/>
+      <c r="IGY14"/>
+      <c r="IHA14"/>
+      <c r="IHC14"/>
+      <c r="IHE14"/>
+      <c r="IHG14"/>
+      <c r="IHI14"/>
+      <c r="IHK14"/>
+      <c r="IHM14"/>
+      <c r="IHO14"/>
+      <c r="IHQ14"/>
+      <c r="IHS14"/>
+      <c r="IHU14"/>
+      <c r="IHW14"/>
+      <c r="IHY14"/>
+      <c r="IIA14"/>
+      <c r="IIC14"/>
+      <c r="IIE14"/>
+      <c r="IIG14"/>
+      <c r="III14"/>
+      <c r="IIK14"/>
+      <c r="IIM14"/>
+      <c r="IIO14"/>
+      <c r="IIQ14"/>
+      <c r="IIS14"/>
+      <c r="IIU14"/>
+      <c r="IIW14"/>
+      <c r="IIY14"/>
+      <c r="IJA14"/>
+      <c r="IJC14"/>
+      <c r="IJE14"/>
+      <c r="IJG14"/>
+      <c r="IJI14"/>
+      <c r="IJK14"/>
+      <c r="IJM14"/>
+      <c r="IJO14"/>
+      <c r="IJQ14"/>
+      <c r="IJS14"/>
+      <c r="IJU14"/>
+      <c r="IJW14"/>
+      <c r="IJY14"/>
+      <c r="IKA14"/>
+      <c r="IKC14"/>
+      <c r="IKE14"/>
+      <c r="IKG14"/>
+      <c r="IKI14"/>
+      <c r="IKK14"/>
+      <c r="IKM14"/>
+      <c r="IKO14"/>
+      <c r="IKQ14"/>
+      <c r="IKS14"/>
+      <c r="IKU14"/>
+      <c r="IKW14"/>
+      <c r="IKY14"/>
+      <c r="ILA14"/>
+      <c r="ILC14"/>
+      <c r="ILE14"/>
+      <c r="ILG14"/>
+      <c r="ILI14"/>
+      <c r="ILK14"/>
+      <c r="ILM14"/>
+      <c r="ILO14"/>
+      <c r="ILQ14"/>
+      <c r="ILS14"/>
+      <c r="ILU14"/>
+      <c r="ILW14"/>
+      <c r="ILY14"/>
+      <c r="IMA14"/>
+      <c r="IMC14"/>
+      <c r="IME14"/>
+      <c r="IMG14"/>
+      <c r="IMI14"/>
+      <c r="IMK14"/>
+      <c r="IMM14"/>
+      <c r="IMO14"/>
+      <c r="IMQ14"/>
+      <c r="IMS14"/>
+      <c r="IMU14"/>
+      <c r="IMW14"/>
+      <c r="IMY14"/>
+      <c r="INA14"/>
+      <c r="INC14"/>
+      <c r="INE14"/>
+      <c r="ING14"/>
+      <c r="INI14"/>
+      <c r="INK14"/>
+      <c r="INM14"/>
+      <c r="INO14"/>
+      <c r="INQ14"/>
+      <c r="INS14"/>
+      <c r="INU14"/>
+      <c r="INW14"/>
+      <c r="INY14"/>
+      <c r="IOA14"/>
+      <c r="IOC14"/>
+      <c r="IOE14"/>
+      <c r="IOG14"/>
+      <c r="IOI14"/>
+      <c r="IOK14"/>
+      <c r="IOM14"/>
+      <c r="IOO14"/>
+      <c r="IOQ14"/>
+      <c r="IOS14"/>
+      <c r="IOU14"/>
+      <c r="IOW14"/>
+      <c r="IOY14"/>
+      <c r="IPA14"/>
+      <c r="IPC14"/>
+      <c r="IPE14"/>
+      <c r="IPG14"/>
+      <c r="IPI14"/>
+      <c r="IPK14"/>
+      <c r="IPM14"/>
+      <c r="IPO14"/>
+      <c r="IPQ14"/>
+      <c r="IPS14"/>
+      <c r="IPU14"/>
+      <c r="IPW14"/>
+      <c r="IPY14"/>
+      <c r="IQA14"/>
+      <c r="IQC14"/>
+      <c r="IQE14"/>
+      <c r="IQG14"/>
+      <c r="IQI14"/>
+      <c r="IQK14"/>
+      <c r="IQM14"/>
+      <c r="IQO14"/>
+      <c r="IQQ14"/>
+      <c r="IQS14"/>
+      <c r="IQU14"/>
+      <c r="IQW14"/>
+      <c r="IQY14"/>
+      <c r="IRA14"/>
+      <c r="IRC14"/>
+      <c r="IRE14"/>
+      <c r="IRG14"/>
+      <c r="IRI14"/>
+      <c r="IRK14"/>
+      <c r="IRM14"/>
+      <c r="IRO14"/>
+      <c r="IRQ14"/>
+      <c r="IRS14"/>
+      <c r="IRU14"/>
+      <c r="IRW14"/>
+      <c r="IRY14"/>
+      <c r="ISA14"/>
+      <c r="ISC14"/>
+      <c r="ISE14"/>
+      <c r="ISG14"/>
+      <c r="ISI14"/>
+      <c r="ISK14"/>
+      <c r="ISM14"/>
+      <c r="ISO14"/>
+      <c r="ISQ14"/>
+      <c r="ISS14"/>
+      <c r="ISU14"/>
+      <c r="ISW14"/>
+      <c r="ISY14"/>
+      <c r="ITA14"/>
+      <c r="ITC14"/>
+      <c r="ITE14"/>
+      <c r="ITG14"/>
+      <c r="ITI14"/>
+      <c r="ITK14"/>
+      <c r="ITM14"/>
+      <c r="ITO14"/>
+      <c r="ITQ14"/>
+      <c r="ITS14"/>
+      <c r="ITU14"/>
+      <c r="ITW14"/>
+      <c r="ITY14"/>
+      <c r="IUA14"/>
+      <c r="IUC14"/>
+      <c r="IUE14"/>
+      <c r="IUG14"/>
+      <c r="IUI14"/>
+      <c r="IUK14"/>
+      <c r="IUM14"/>
+      <c r="IUO14"/>
+      <c r="IUQ14"/>
+      <c r="IUS14"/>
+      <c r="IUU14"/>
+      <c r="IUW14"/>
+      <c r="IUY14"/>
+      <c r="IVA14"/>
+      <c r="IVC14"/>
+      <c r="IVE14"/>
+      <c r="IVG14"/>
+      <c r="IVI14"/>
+      <c r="IVK14"/>
+      <c r="IVM14"/>
+      <c r="IVO14"/>
+      <c r="IVQ14"/>
+      <c r="IVS14"/>
+      <c r="IVU14"/>
+      <c r="IVW14"/>
+      <c r="IVY14"/>
+      <c r="IWA14"/>
+      <c r="IWC14"/>
+      <c r="IWE14"/>
+      <c r="IWG14"/>
+      <c r="IWI14"/>
+      <c r="IWK14"/>
+      <c r="IWM14"/>
+      <c r="IWO14"/>
+      <c r="IWQ14"/>
+      <c r="IWS14"/>
+      <c r="IWU14"/>
+      <c r="IWW14"/>
+      <c r="IWY14"/>
+      <c r="IXA14"/>
+      <c r="IXC14"/>
+      <c r="IXE14"/>
+      <c r="IXG14"/>
+      <c r="IXI14"/>
+      <c r="IXK14"/>
+      <c r="IXM14"/>
+      <c r="IXO14"/>
+      <c r="IXQ14"/>
+      <c r="IXS14"/>
+      <c r="IXU14"/>
+      <c r="IXW14"/>
+      <c r="IXY14"/>
+      <c r="IYA14"/>
+      <c r="IYC14"/>
+      <c r="IYE14"/>
+      <c r="IYG14"/>
+      <c r="IYI14"/>
+      <c r="IYK14"/>
+      <c r="IYM14"/>
+      <c r="IYO14"/>
+      <c r="IYQ14"/>
+      <c r="IYS14"/>
+      <c r="IYU14"/>
+      <c r="IYW14"/>
+      <c r="IYY14"/>
+      <c r="IZA14"/>
+      <c r="IZC14"/>
+      <c r="IZE14"/>
+      <c r="IZG14"/>
+      <c r="IZI14"/>
+      <c r="IZK14"/>
+      <c r="IZM14"/>
+      <c r="IZO14"/>
+      <c r="IZQ14"/>
+      <c r="IZS14"/>
+      <c r="IZU14"/>
+      <c r="IZW14"/>
+      <c r="IZY14"/>
+      <c r="JAA14"/>
+      <c r="JAC14"/>
+      <c r="JAE14"/>
+      <c r="JAG14"/>
+      <c r="JAI14"/>
+      <c r="JAK14"/>
+      <c r="JAM14"/>
+      <c r="JAO14"/>
+      <c r="JAQ14"/>
+      <c r="JAS14"/>
+      <c r="JAU14"/>
+      <c r="JAW14"/>
+      <c r="JAY14"/>
+      <c r="JBA14"/>
+      <c r="JBC14"/>
+      <c r="JBE14"/>
+      <c r="JBG14"/>
+      <c r="JBI14"/>
+      <c r="JBK14"/>
+      <c r="JBM14"/>
+      <c r="JBO14"/>
+      <c r="JBQ14"/>
+      <c r="JBS14"/>
+      <c r="JBU14"/>
+      <c r="JBW14"/>
+      <c r="JBY14"/>
+      <c r="JCA14"/>
+      <c r="JCC14"/>
+      <c r="JCE14"/>
+      <c r="JCG14"/>
+      <c r="JCI14"/>
+      <c r="JCK14"/>
+      <c r="JCM14"/>
+      <c r="JCO14"/>
+      <c r="JCQ14"/>
+      <c r="JCS14"/>
+      <c r="JCU14"/>
+      <c r="JCW14"/>
+      <c r="JCY14"/>
+      <c r="JDA14"/>
+      <c r="JDC14"/>
+      <c r="JDE14"/>
+      <c r="JDG14"/>
+      <c r="JDI14"/>
+      <c r="JDK14"/>
+      <c r="JDM14"/>
+      <c r="JDO14"/>
+      <c r="JDQ14"/>
+      <c r="JDS14"/>
+      <c r="JDU14"/>
+      <c r="JDW14"/>
+      <c r="JDY14"/>
+      <c r="JEA14"/>
+      <c r="JEC14"/>
+      <c r="JEE14"/>
+      <c r="JEG14"/>
+      <c r="JEI14"/>
+      <c r="JEK14"/>
+      <c r="JEM14"/>
+      <c r="JEO14"/>
+      <c r="JEQ14"/>
+      <c r="JES14"/>
+      <c r="JEU14"/>
+      <c r="JEW14"/>
+      <c r="JEY14"/>
+      <c r="JFA14"/>
+      <c r="JFC14"/>
+      <c r="JFE14"/>
+      <c r="JFG14"/>
+      <c r="JFI14"/>
+      <c r="JFK14"/>
+      <c r="JFM14"/>
+      <c r="JFO14"/>
+      <c r="JFQ14"/>
+      <c r="JFS14"/>
+      <c r="JFU14"/>
+      <c r="JFW14"/>
+      <c r="JFY14"/>
+      <c r="JGA14"/>
+      <c r="JGC14"/>
+      <c r="JGE14"/>
+      <c r="JGG14"/>
+      <c r="JGI14"/>
+      <c r="JGK14"/>
+      <c r="JGM14"/>
+      <c r="JGO14"/>
+      <c r="JGQ14"/>
+      <c r="JGS14"/>
+      <c r="JGU14"/>
+      <c r="JGW14"/>
+      <c r="JGY14"/>
+      <c r="JHA14"/>
+      <c r="JHC14"/>
+      <c r="JHE14"/>
+      <c r="JHG14"/>
+      <c r="JHI14"/>
+      <c r="JHK14"/>
+      <c r="JHM14"/>
+      <c r="JHO14"/>
+      <c r="JHQ14"/>
+      <c r="JHS14"/>
+      <c r="JHU14"/>
+      <c r="JHW14"/>
+      <c r="JHY14"/>
+      <c r="JIA14"/>
+      <c r="JIC14"/>
+      <c r="JIE14"/>
+      <c r="JIG14"/>
+      <c r="JII14"/>
+      <c r="JIK14"/>
+      <c r="JIM14"/>
+      <c r="JIO14"/>
+      <c r="JIQ14"/>
+      <c r="JIS14"/>
+      <c r="JIU14"/>
+      <c r="JIW14"/>
+      <c r="JIY14"/>
+      <c r="JJA14"/>
+      <c r="JJC14"/>
+      <c r="JJE14"/>
+      <c r="JJG14"/>
+      <c r="JJI14"/>
+      <c r="JJK14"/>
+      <c r="JJM14"/>
+      <c r="JJO14"/>
+      <c r="JJQ14"/>
+      <c r="JJS14"/>
+      <c r="JJU14"/>
+      <c r="JJW14"/>
+      <c r="JJY14"/>
+      <c r="JKA14"/>
+      <c r="JKC14"/>
+      <c r="JKE14"/>
+      <c r="JKG14"/>
+      <c r="JKI14"/>
+      <c r="JKK14"/>
+      <c r="JKM14"/>
+      <c r="JKO14"/>
+      <c r="JKQ14"/>
+      <c r="JKS14"/>
+      <c r="JKU14"/>
+      <c r="JKW14"/>
+      <c r="JKY14"/>
+      <c r="JLA14"/>
+      <c r="JLC14"/>
+      <c r="JLE14"/>
+      <c r="JLG14"/>
+      <c r="JLI14"/>
+      <c r="JLK14"/>
+      <c r="JLM14"/>
+      <c r="JLO14"/>
+      <c r="JLQ14"/>
+      <c r="JLS14"/>
+      <c r="JLU14"/>
+      <c r="JLW14"/>
+      <c r="JLY14"/>
+      <c r="JMA14"/>
+      <c r="JMC14"/>
+      <c r="JME14"/>
+      <c r="JMG14"/>
+      <c r="JMI14"/>
+      <c r="JMK14"/>
+      <c r="JMM14"/>
+      <c r="JMO14"/>
+      <c r="JMQ14"/>
+      <c r="JMS14"/>
+      <c r="JMU14"/>
+      <c r="JMW14"/>
+      <c r="JMY14"/>
+      <c r="JNA14"/>
+      <c r="JNC14"/>
+      <c r="JNE14"/>
+      <c r="JNG14"/>
+      <c r="JNI14"/>
+      <c r="JNK14"/>
+      <c r="JNM14"/>
+      <c r="JNO14"/>
+      <c r="JNQ14"/>
+      <c r="JNS14"/>
+      <c r="JNU14"/>
+      <c r="JNW14"/>
+      <c r="JNY14"/>
+      <c r="JOA14"/>
+      <c r="JOC14"/>
+      <c r="JOE14"/>
+      <c r="JOG14"/>
+      <c r="JOI14"/>
+      <c r="JOK14"/>
+      <c r="JOM14"/>
+      <c r="JOO14"/>
+      <c r="JOQ14"/>
+      <c r="JOS14"/>
+      <c r="JOU14"/>
+      <c r="JOW14"/>
+      <c r="JOY14"/>
+      <c r="JPA14"/>
+      <c r="JPC14"/>
+      <c r="JPE14"/>
+      <c r="JPG14"/>
+      <c r="JPI14"/>
+      <c r="JPK14"/>
+      <c r="JPM14"/>
+      <c r="JPO14"/>
+      <c r="JPQ14"/>
+      <c r="JPS14"/>
+      <c r="JPU14"/>
+      <c r="JPW14"/>
+      <c r="JPY14"/>
+      <c r="JQA14"/>
+      <c r="JQC14"/>
+      <c r="JQE14"/>
+      <c r="JQG14"/>
+      <c r="JQI14"/>
+      <c r="JQK14"/>
+      <c r="JQM14"/>
+      <c r="JQO14"/>
+      <c r="JQQ14"/>
+      <c r="JQS14"/>
+      <c r="JQU14"/>
+      <c r="JQW14"/>
+      <c r="JQY14"/>
+      <c r="JRA14"/>
+      <c r="JRC14"/>
+      <c r="JRE14"/>
+      <c r="JRG14"/>
+      <c r="JRI14"/>
+      <c r="JRK14"/>
+      <c r="JRM14"/>
+      <c r="JRO14"/>
+      <c r="JRQ14"/>
+      <c r="JRS14"/>
+      <c r="JRU14"/>
+      <c r="JRW14"/>
+      <c r="JRY14"/>
+      <c r="JSA14"/>
+      <c r="JSC14"/>
+      <c r="JSE14"/>
+      <c r="JSG14"/>
+      <c r="JSI14"/>
+      <c r="JSK14"/>
+      <c r="JSM14"/>
+      <c r="JSO14"/>
+      <c r="JSQ14"/>
+      <c r="JSS14"/>
+      <c r="JSU14"/>
+      <c r="JSW14"/>
+      <c r="JSY14"/>
+      <c r="JTA14"/>
+      <c r="JTC14"/>
+      <c r="JTE14"/>
+      <c r="JTG14"/>
+      <c r="JTI14"/>
+      <c r="JTK14"/>
+      <c r="JTM14"/>
+      <c r="JTO14"/>
+      <c r="JTQ14"/>
+      <c r="JTS14"/>
+      <c r="JTU14"/>
+      <c r="JTW14"/>
+      <c r="JTY14"/>
+      <c r="JUA14"/>
+      <c r="JUC14"/>
+      <c r="JUE14"/>
+      <c r="JUG14"/>
+      <c r="JUI14"/>
+      <c r="JUK14"/>
+      <c r="JUM14"/>
+      <c r="JUO14"/>
+      <c r="JUQ14"/>
+      <c r="JUS14"/>
+      <c r="JUU14"/>
+      <c r="JUW14"/>
+      <c r="JUY14"/>
+      <c r="JVA14"/>
+      <c r="JVC14"/>
+      <c r="JVE14"/>
+      <c r="JVG14"/>
+      <c r="JVI14"/>
+      <c r="JVK14"/>
+      <c r="JVM14"/>
+      <c r="JVO14"/>
+      <c r="JVQ14"/>
+      <c r="JVS14"/>
+      <c r="JVU14"/>
+      <c r="JVW14"/>
+      <c r="JVY14"/>
+      <c r="JWA14"/>
+      <c r="JWC14"/>
+      <c r="JWE14"/>
+      <c r="JWG14"/>
+      <c r="JWI14"/>
+      <c r="JWK14"/>
+      <c r="JWM14"/>
+      <c r="JWO14"/>
+      <c r="JWQ14"/>
+      <c r="JWS14"/>
+      <c r="JWU14"/>
+      <c r="JWW14"/>
+      <c r="JWY14"/>
+      <c r="JXA14"/>
+      <c r="JXC14"/>
+      <c r="JXE14"/>
+      <c r="JXG14"/>
+      <c r="JXI14"/>
+      <c r="JXK14"/>
+      <c r="JXM14"/>
+      <c r="JXO14"/>
+      <c r="JXQ14"/>
+      <c r="JXS14"/>
+      <c r="JXU14"/>
+      <c r="JXW14"/>
+      <c r="JXY14"/>
+      <c r="JYA14"/>
+      <c r="JYC14"/>
+      <c r="JYE14"/>
+      <c r="JYG14"/>
+      <c r="JYI14"/>
+      <c r="JYK14"/>
+      <c r="JYM14"/>
+      <c r="JYO14"/>
+      <c r="JYQ14"/>
+      <c r="JYS14"/>
+      <c r="JYU14"/>
+      <c r="JYW14"/>
+      <c r="JYY14"/>
+      <c r="JZA14"/>
+      <c r="JZC14"/>
+      <c r="JZE14"/>
+      <c r="JZG14"/>
+      <c r="JZI14"/>
+      <c r="JZK14"/>
+      <c r="JZM14"/>
+      <c r="JZO14"/>
+      <c r="JZQ14"/>
+      <c r="JZS14"/>
+      <c r="JZU14"/>
+      <c r="JZW14"/>
+      <c r="JZY14"/>
+      <c r="KAA14"/>
+      <c r="KAC14"/>
+      <c r="KAE14"/>
+      <c r="KAG14"/>
+      <c r="KAI14"/>
+      <c r="KAK14"/>
+      <c r="KAM14"/>
+      <c r="KAO14"/>
+      <c r="KAQ14"/>
+      <c r="KAS14"/>
+      <c r="KAU14"/>
+      <c r="KAW14"/>
+      <c r="KAY14"/>
+      <c r="KBA14"/>
+      <c r="KBC14"/>
+      <c r="KBE14"/>
+      <c r="KBG14"/>
+      <c r="KBI14"/>
+      <c r="KBK14"/>
+      <c r="KBM14"/>
+      <c r="KBO14"/>
+      <c r="KBQ14"/>
+      <c r="KBS14"/>
+      <c r="KBU14"/>
+      <c r="KBW14"/>
+      <c r="KBY14"/>
+      <c r="KCA14"/>
+      <c r="KCC14"/>
+      <c r="KCE14"/>
+      <c r="KCG14"/>
+      <c r="KCI14"/>
+      <c r="KCK14"/>
+      <c r="KCM14"/>
+      <c r="KCO14"/>
+      <c r="KCQ14"/>
+      <c r="KCS14"/>
+      <c r="KCU14"/>
+      <c r="KCW14"/>
+      <c r="KCY14"/>
+      <c r="KDA14"/>
+      <c r="KDC14"/>
+      <c r="KDE14"/>
+      <c r="KDG14"/>
+      <c r="KDI14"/>
+      <c r="KDK14"/>
+      <c r="KDM14"/>
+      <c r="KDO14"/>
+      <c r="KDQ14"/>
+      <c r="KDS14"/>
+      <c r="KDU14"/>
+      <c r="KDW14"/>
+      <c r="KDY14"/>
+      <c r="KEA14"/>
+      <c r="KEC14"/>
+      <c r="KEE14"/>
+      <c r="KEG14"/>
+      <c r="KEI14"/>
+      <c r="KEK14"/>
+      <c r="KEM14"/>
+      <c r="KEO14"/>
+      <c r="KEQ14"/>
+      <c r="KES14"/>
+      <c r="KEU14"/>
+      <c r="KEW14"/>
+      <c r="KEY14"/>
+      <c r="KFA14"/>
+      <c r="KFC14"/>
+      <c r="KFE14"/>
+      <c r="KFG14"/>
+      <c r="KFI14"/>
+      <c r="KFK14"/>
+      <c r="KFM14"/>
+      <c r="KFO14"/>
+      <c r="KFQ14"/>
+      <c r="KFS14"/>
+      <c r="KFU14"/>
+      <c r="KFW14"/>
+      <c r="KFY14"/>
+      <c r="KGA14"/>
+      <c r="KGC14"/>
+      <c r="KGE14"/>
+      <c r="KGG14"/>
+      <c r="KGI14"/>
+      <c r="KGK14"/>
+      <c r="KGM14"/>
+      <c r="KGO14"/>
+      <c r="KGQ14"/>
+      <c r="KGS14"/>
+      <c r="KGU14"/>
+      <c r="KGW14"/>
+      <c r="KGY14"/>
+      <c r="KHA14"/>
+      <c r="KHC14"/>
+      <c r="KHE14"/>
+      <c r="KHG14"/>
+      <c r="KHI14"/>
+      <c r="KHK14"/>
+      <c r="KHM14"/>
+      <c r="KHO14"/>
+      <c r="KHQ14"/>
+      <c r="KHS14"/>
+      <c r="KHU14"/>
+      <c r="KHW14"/>
+      <c r="KHY14"/>
+      <c r="KIA14"/>
+      <c r="KIC14"/>
+      <c r="KIE14"/>
+      <c r="KIG14"/>
+      <c r="KII14"/>
+      <c r="KIK14"/>
+      <c r="KIM14"/>
+      <c r="KIO14"/>
+      <c r="KIQ14"/>
+      <c r="KIS14"/>
+      <c r="KIU14"/>
+      <c r="KIW14"/>
+      <c r="KIY14"/>
+      <c r="KJA14"/>
+      <c r="KJC14"/>
+      <c r="KJE14"/>
+      <c r="KJG14"/>
+      <c r="KJI14"/>
+      <c r="KJK14"/>
+      <c r="KJM14"/>
+      <c r="KJO14"/>
+      <c r="KJQ14"/>
+      <c r="KJS14"/>
+      <c r="KJU14"/>
+      <c r="KJW14"/>
+      <c r="KJY14"/>
+      <c r="KKA14"/>
+      <c r="KKC14"/>
+      <c r="KKE14"/>
+      <c r="KKG14"/>
+      <c r="KKI14"/>
+      <c r="KKK14"/>
+      <c r="KKM14"/>
+      <c r="KKO14"/>
+      <c r="KKQ14"/>
+      <c r="KKS14"/>
+      <c r="KKU14"/>
+      <c r="KKW14"/>
+      <c r="KKY14"/>
+      <c r="KLA14"/>
+      <c r="KLC14"/>
+      <c r="KLE14"/>
+      <c r="KLG14"/>
+      <c r="KLI14"/>
+      <c r="KLK14"/>
+      <c r="KLM14"/>
+      <c r="KLO14"/>
+      <c r="KLQ14"/>
+      <c r="KLS14"/>
+      <c r="KLU14"/>
+      <c r="KLW14"/>
+      <c r="KLY14"/>
+      <c r="KMA14"/>
+      <c r="KMC14"/>
+      <c r="KME14"/>
+      <c r="KMG14"/>
+      <c r="KMI14"/>
+      <c r="KMK14"/>
+      <c r="KMM14"/>
+      <c r="KMO14"/>
+      <c r="KMQ14"/>
+      <c r="KMS14"/>
+      <c r="KMU14"/>
+      <c r="KMW14"/>
+      <c r="KMY14"/>
+      <c r="KNA14"/>
+      <c r="KNC14"/>
+      <c r="KNE14"/>
+      <c r="KNG14"/>
+      <c r="KNI14"/>
+      <c r="KNK14"/>
+      <c r="KNM14"/>
+      <c r="KNO14"/>
+      <c r="KNQ14"/>
+      <c r="KNS14"/>
+      <c r="KNU14"/>
+      <c r="KNW14"/>
+      <c r="KNY14"/>
+      <c r="KOA14"/>
+      <c r="KOC14"/>
+      <c r="KOE14"/>
+      <c r="KOG14"/>
+      <c r="KOI14"/>
+      <c r="KOK14"/>
+      <c r="KOM14"/>
+      <c r="KOO14"/>
+      <c r="KOQ14"/>
+      <c r="KOS14"/>
+      <c r="KOU14"/>
+      <c r="KOW14"/>
+      <c r="KOY14"/>
+      <c r="KPA14"/>
+      <c r="KPC14"/>
+      <c r="KPE14"/>
+      <c r="KPG14"/>
+      <c r="KPI14"/>
+      <c r="KPK14"/>
+      <c r="KPM14"/>
+      <c r="KPO14"/>
+      <c r="KPQ14"/>
+      <c r="KPS14"/>
+      <c r="KPU14"/>
+      <c r="KPW14"/>
+      <c r="KPY14"/>
+      <c r="KQA14"/>
+      <c r="KQC14"/>
+      <c r="KQE14"/>
+      <c r="KQG14"/>
+      <c r="KQI14"/>
+      <c r="KQK14"/>
+      <c r="KQM14"/>
+      <c r="KQO14"/>
+      <c r="KQQ14"/>
+      <c r="KQS14"/>
+      <c r="KQU14"/>
+      <c r="KQW14"/>
+      <c r="KQY14"/>
+      <c r="KRA14"/>
+      <c r="KRC14"/>
+      <c r="KRE14"/>
+      <c r="KRG14"/>
+      <c r="KRI14"/>
+      <c r="KRK14"/>
+      <c r="KRM14"/>
+      <c r="KRO14"/>
+      <c r="KRQ14"/>
+      <c r="KRS14"/>
+      <c r="KRU14"/>
+      <c r="KRW14"/>
+      <c r="KRY14"/>
+      <c r="KSA14"/>
+      <c r="KSC14"/>
+      <c r="KSE14"/>
+      <c r="KSG14"/>
+      <c r="KSI14"/>
+      <c r="KSK14"/>
+      <c r="KSM14"/>
+      <c r="KSO14"/>
+      <c r="KSQ14"/>
+      <c r="KSS14"/>
+      <c r="KSU14"/>
+      <c r="KSW14"/>
+      <c r="KSY14"/>
+      <c r="KTA14"/>
+      <c r="KTC14"/>
+      <c r="KTE14"/>
+      <c r="KTG14"/>
+      <c r="KTI14"/>
+      <c r="KTK14"/>
+      <c r="KTM14"/>
+      <c r="KTO14"/>
+      <c r="KTQ14"/>
+      <c r="KTS14"/>
+      <c r="KTU14"/>
+      <c r="KTW14"/>
+      <c r="KTY14"/>
+      <c r="KUA14"/>
+      <c r="KUC14"/>
+      <c r="KUE14"/>
+      <c r="KUG14"/>
+      <c r="KUI14"/>
+      <c r="KUK14"/>
+      <c r="KUM14"/>
+      <c r="KUO14"/>
+      <c r="KUQ14"/>
+      <c r="KUS14"/>
+      <c r="KUU14"/>
+      <c r="KUW14"/>
+      <c r="KUY14"/>
+      <c r="KVA14"/>
+      <c r="KVC14"/>
+      <c r="KVE14"/>
+      <c r="KVG14"/>
+      <c r="KVI14"/>
+      <c r="KVK14"/>
+      <c r="KVM14"/>
+      <c r="KVO14"/>
+      <c r="KVQ14"/>
+      <c r="KVS14"/>
+      <c r="KVU14"/>
+      <c r="KVW14"/>
+      <c r="KVY14"/>
+      <c r="KWA14"/>
+      <c r="KWC14"/>
+      <c r="KWE14"/>
+      <c r="KWG14"/>
+      <c r="KWI14"/>
+      <c r="KWK14"/>
+      <c r="KWM14"/>
+      <c r="KWO14"/>
+      <c r="KWQ14"/>
+      <c r="KWS14"/>
+      <c r="KWU14"/>
+      <c r="KWW14"/>
+      <c r="KWY14"/>
+      <c r="KXA14"/>
+      <c r="KXC14"/>
+      <c r="KXE14"/>
+      <c r="KXG14"/>
+      <c r="KXI14"/>
+      <c r="KXK14"/>
+      <c r="KXM14"/>
+      <c r="KXO14"/>
+      <c r="KXQ14"/>
+      <c r="KXS14"/>
+      <c r="KXU14"/>
+      <c r="KXW14"/>
+      <c r="KXY14"/>
+      <c r="KYA14"/>
+      <c r="KYC14"/>
+      <c r="KYE14"/>
+      <c r="KYG14"/>
+      <c r="KYI14"/>
+      <c r="KYK14"/>
+      <c r="KYM14"/>
+      <c r="KYO14"/>
+      <c r="KYQ14"/>
+      <c r="KYS14"/>
+      <c r="KYU14"/>
+      <c r="KYW14"/>
+      <c r="KYY14"/>
+      <c r="KZA14"/>
+      <c r="KZC14"/>
+      <c r="KZE14"/>
+      <c r="KZG14"/>
+      <c r="KZI14"/>
+      <c r="KZK14"/>
+      <c r="KZM14"/>
+      <c r="KZO14"/>
+      <c r="KZQ14"/>
+      <c r="KZS14"/>
+      <c r="KZU14"/>
+      <c r="KZW14"/>
+      <c r="KZY14"/>
+      <c r="LAA14"/>
+      <c r="LAC14"/>
+      <c r="LAE14"/>
+      <c r="LAG14"/>
+      <c r="LAI14"/>
+      <c r="LAK14"/>
+      <c r="LAM14"/>
+      <c r="LAO14"/>
+      <c r="LAQ14"/>
+      <c r="LAS14"/>
+      <c r="LAU14"/>
+      <c r="LAW14"/>
+      <c r="LAY14"/>
+      <c r="LBA14"/>
+      <c r="LBC14"/>
+      <c r="LBE14"/>
+      <c r="LBG14"/>
+      <c r="LBI14"/>
+      <c r="LBK14"/>
+      <c r="LBM14"/>
+      <c r="LBO14"/>
+      <c r="LBQ14"/>
+      <c r="LBS14"/>
+      <c r="LBU14"/>
+      <c r="LBW14"/>
+      <c r="LBY14"/>
+      <c r="LCA14"/>
+      <c r="LCC14"/>
+      <c r="LCE14"/>
+      <c r="LCG14"/>
+      <c r="LCI14"/>
+      <c r="LCK14"/>
+      <c r="LCM14"/>
+      <c r="LCO14"/>
+      <c r="LCQ14"/>
+      <c r="LCS14"/>
+      <c r="LCU14"/>
+      <c r="LCW14"/>
+      <c r="LCY14"/>
+      <c r="LDA14"/>
+      <c r="LDC14"/>
+      <c r="LDE14"/>
+      <c r="LDG14"/>
+      <c r="LDI14"/>
+      <c r="LDK14"/>
+      <c r="LDM14"/>
+      <c r="LDO14"/>
+      <c r="LDQ14"/>
+      <c r="LDS14"/>
+      <c r="LDU14"/>
+      <c r="LDW14"/>
+      <c r="LDY14"/>
+      <c r="LEA14"/>
+      <c r="LEC14"/>
+      <c r="LEE14"/>
+      <c r="LEG14"/>
+      <c r="LEI14"/>
+      <c r="LEK14"/>
+      <c r="LEM14"/>
+      <c r="LEO14"/>
+      <c r="LEQ14"/>
+      <c r="LES14"/>
+      <c r="LEU14"/>
+      <c r="LEW14"/>
+      <c r="LEY14"/>
+      <c r="LFA14"/>
+      <c r="LFC14"/>
+      <c r="LFE14"/>
+      <c r="LFG14"/>
+      <c r="LFI14"/>
+      <c r="LFK14"/>
+      <c r="LFM14"/>
+      <c r="LFO14"/>
+      <c r="LFQ14"/>
+      <c r="LFS14"/>
+      <c r="LFU14"/>
+      <c r="LFW14"/>
+      <c r="LFY14"/>
+      <c r="LGA14"/>
+      <c r="LGC14"/>
+      <c r="LGE14"/>
+      <c r="LGG14"/>
+      <c r="LGI14"/>
+      <c r="LGK14"/>
+      <c r="LGM14"/>
+      <c r="LGO14"/>
+      <c r="LGQ14"/>
+      <c r="LGS14"/>
+      <c r="LGU14"/>
+      <c r="LGW14"/>
+      <c r="LGY14"/>
+      <c r="LHA14"/>
+      <c r="LHC14"/>
+      <c r="LHE14"/>
+      <c r="LHG14"/>
+      <c r="LHI14"/>
+      <c r="LHK14"/>
+      <c r="LHM14"/>
+      <c r="LHO14"/>
+      <c r="LHQ14"/>
+      <c r="LHS14"/>
+      <c r="LHU14"/>
+      <c r="LHW14"/>
+      <c r="LHY14"/>
+      <c r="LIA14"/>
+      <c r="LIC14"/>
+      <c r="LIE14"/>
+      <c r="LIG14"/>
+      <c r="LII14"/>
+      <c r="LIK14"/>
+      <c r="LIM14"/>
+      <c r="LIO14"/>
+      <c r="LIQ14"/>
+      <c r="LIS14"/>
+      <c r="LIU14"/>
+      <c r="LIW14"/>
+      <c r="LIY14"/>
+      <c r="LJA14"/>
+      <c r="LJC14"/>
+      <c r="LJE14"/>
+      <c r="LJG14"/>
+      <c r="LJI14"/>
+      <c r="LJK14"/>
+      <c r="LJM14"/>
+      <c r="LJO14"/>
+      <c r="LJQ14"/>
+      <c r="LJS14"/>
+      <c r="LJU14"/>
+      <c r="LJW14"/>
+      <c r="LJY14"/>
+      <c r="LKA14"/>
+      <c r="LKC14"/>
+      <c r="LKE14"/>
+      <c r="LKG14"/>
+      <c r="LKI14"/>
+      <c r="LKK14"/>
+      <c r="LKM14"/>
+      <c r="LKO14"/>
+      <c r="LKQ14"/>
+      <c r="LKS14"/>
+      <c r="LKU14"/>
+      <c r="LKW14"/>
+      <c r="LKY14"/>
+      <c r="LLA14"/>
+      <c r="LLC14"/>
+      <c r="LLE14"/>
+      <c r="LLG14"/>
+      <c r="LLI14"/>
+      <c r="LLK14"/>
+      <c r="LLM14"/>
+      <c r="LLO14"/>
+      <c r="LLQ14"/>
+      <c r="LLS14"/>
+      <c r="LLU14"/>
+      <c r="LLW14"/>
+      <c r="LLY14"/>
+      <c r="LMA14"/>
+      <c r="LMC14"/>
+      <c r="LME14"/>
+      <c r="LMG14"/>
+      <c r="LMI14"/>
+      <c r="LMK14"/>
+      <c r="LMM14"/>
+      <c r="LMO14"/>
+      <c r="LMQ14"/>
+      <c r="LMS14"/>
+      <c r="LMU14"/>
+      <c r="LMW14"/>
+      <c r="LMY14"/>
+      <c r="LNA14"/>
+      <c r="LNC14"/>
+      <c r="LNE14"/>
+      <c r="LNG14"/>
+      <c r="LNI14"/>
+      <c r="LNK14"/>
+      <c r="LNM14"/>
+      <c r="LNO14"/>
+      <c r="LNQ14"/>
+      <c r="LNS14"/>
+      <c r="LNU14"/>
+      <c r="LNW14"/>
+      <c r="LNY14"/>
+      <c r="LOA14"/>
+      <c r="LOC14"/>
+      <c r="LOE14"/>
+      <c r="LOG14"/>
+      <c r="LOI14"/>
+      <c r="LOK14"/>
+      <c r="LOM14"/>
+      <c r="LOO14"/>
+      <c r="LOQ14"/>
+      <c r="LOS14"/>
+      <c r="LOU14"/>
+      <c r="LOW14"/>
+      <c r="LOY14"/>
+      <c r="LPA14"/>
+      <c r="LPC14"/>
+      <c r="LPE14"/>
+      <c r="LPG14"/>
+      <c r="LPI14"/>
+      <c r="LPK14"/>
+      <c r="LPM14"/>
+      <c r="LPO14"/>
+      <c r="LPQ14"/>
+      <c r="LPS14"/>
+      <c r="LPU14"/>
+      <c r="LPW14"/>
+      <c r="LPY14"/>
+      <c r="LQA14"/>
+      <c r="LQC14"/>
+      <c r="LQE14"/>
+      <c r="LQG14"/>
+      <c r="LQI14"/>
+      <c r="LQK14"/>
+      <c r="LQM14"/>
+      <c r="LQO14"/>
+      <c r="LQQ14"/>
+      <c r="LQS14"/>
+      <c r="LQU14"/>
+      <c r="LQW14"/>
+      <c r="LQY14"/>
+      <c r="LRA14"/>
+      <c r="LRC14"/>
+      <c r="LRE14"/>
+      <c r="LRG14"/>
+      <c r="LRI14"/>
+      <c r="LRK14"/>
+      <c r="LRM14"/>
+      <c r="LRO14"/>
+      <c r="LRQ14"/>
+      <c r="LRS14"/>
+      <c r="LRU14"/>
+      <c r="LRW14"/>
+      <c r="LRY14"/>
+      <c r="LSA14"/>
+      <c r="LSC14"/>
+      <c r="LSE14"/>
+      <c r="LSG14"/>
+      <c r="LSI14"/>
+      <c r="LSK14"/>
+      <c r="LSM14"/>
+      <c r="LSO14"/>
+      <c r="LSQ14"/>
+      <c r="LSS14"/>
+      <c r="LSU14"/>
+      <c r="LSW14"/>
+      <c r="LSY14"/>
+      <c r="LTA14"/>
+      <c r="LTC14"/>
+      <c r="LTE14"/>
+      <c r="LTG14"/>
+      <c r="LTI14"/>
+      <c r="LTK14"/>
+      <c r="LTM14"/>
+      <c r="LTO14"/>
+      <c r="LTQ14"/>
+      <c r="LTS14"/>
+      <c r="LTU14"/>
+      <c r="LTW14"/>
+      <c r="LTY14"/>
+      <c r="LUA14"/>
+      <c r="LUC14"/>
+      <c r="LUE14"/>
+      <c r="LUG14"/>
+      <c r="LUI14"/>
+      <c r="LUK14"/>
+      <c r="LUM14"/>
+      <c r="LUO14"/>
+      <c r="LUQ14"/>
+      <c r="LUS14"/>
+      <c r="LUU14"/>
+      <c r="LUW14"/>
+      <c r="LUY14"/>
+      <c r="LVA14"/>
+      <c r="LVC14"/>
+      <c r="LVE14"/>
+      <c r="LVG14"/>
+      <c r="LVI14"/>
+      <c r="LVK14"/>
+      <c r="LVM14"/>
+      <c r="LVO14"/>
+      <c r="LVQ14"/>
+      <c r="LVS14"/>
+      <c r="LVU14"/>
+      <c r="LVW14"/>
+      <c r="LVY14"/>
+      <c r="LWA14"/>
+      <c r="LWC14"/>
+      <c r="LWE14"/>
+      <c r="LWG14"/>
+      <c r="LWI14"/>
+      <c r="LWK14"/>
+      <c r="LWM14"/>
+      <c r="LWO14"/>
+      <c r="LWQ14"/>
+      <c r="LWS14"/>
+      <c r="LWU14"/>
+      <c r="LWW14"/>
+      <c r="LWY14"/>
+      <c r="LXA14"/>
+      <c r="LXC14"/>
+      <c r="LXE14"/>
+      <c r="LXG14"/>
+      <c r="LXI14"/>
+      <c r="LXK14"/>
+      <c r="LXM14"/>
+      <c r="LXO14"/>
+      <c r="LXQ14"/>
+      <c r="LXS14"/>
+      <c r="LXU14"/>
+      <c r="LXW14"/>
+      <c r="LXY14"/>
+      <c r="LYA14"/>
+      <c r="LYC14"/>
+      <c r="LYE14"/>
+      <c r="LYG14"/>
+      <c r="LYI14"/>
+      <c r="LYK14"/>
+      <c r="LYM14"/>
+      <c r="LYO14"/>
+      <c r="LYQ14"/>
+      <c r="LYS14"/>
+      <c r="LYU14"/>
+      <c r="LYW14"/>
+      <c r="LYY14"/>
+      <c r="LZA14"/>
+      <c r="LZC14"/>
+      <c r="LZE14"/>
+      <c r="LZG14"/>
+      <c r="LZI14"/>
+      <c r="LZK14"/>
+      <c r="LZM14"/>
+      <c r="LZO14"/>
+      <c r="LZQ14"/>
+      <c r="LZS14"/>
+      <c r="LZU14"/>
+      <c r="LZW14"/>
+      <c r="LZY14"/>
+      <c r="MAA14"/>
+      <c r="MAC14"/>
+      <c r="MAE14"/>
+      <c r="MAG14"/>
+      <c r="MAI14"/>
+      <c r="MAK14"/>
+      <c r="MAM14"/>
+      <c r="MAO14"/>
+      <c r="MAQ14"/>
+      <c r="MAS14"/>
+      <c r="MAU14"/>
+      <c r="MAW14"/>
+      <c r="MAY14"/>
+      <c r="MBA14"/>
+      <c r="MBC14"/>
+      <c r="MBE14"/>
+      <c r="MBG14"/>
+      <c r="MBI14"/>
+      <c r="MBK14"/>
+      <c r="MBM14"/>
+      <c r="MBO14"/>
+      <c r="MBQ14"/>
+      <c r="MBS14"/>
+      <c r="MBU14"/>
+      <c r="MBW14"/>
+      <c r="MBY14"/>
+      <c r="MCA14"/>
+      <c r="MCC14"/>
+      <c r="MCE14"/>
+      <c r="MCG14"/>
+      <c r="MCI14"/>
+      <c r="MCK14"/>
+      <c r="MCM14"/>
+      <c r="MCO14"/>
+      <c r="MCQ14"/>
+      <c r="MCS14"/>
+      <c r="MCU14"/>
+      <c r="MCW14"/>
+      <c r="MCY14"/>
+      <c r="MDA14"/>
+      <c r="MDC14"/>
+      <c r="MDE14"/>
+      <c r="MDG14"/>
+      <c r="MDI14"/>
+      <c r="MDK14"/>
+      <c r="MDM14"/>
+      <c r="MDO14"/>
+      <c r="MDQ14"/>
+      <c r="MDS14"/>
+      <c r="MDU14"/>
+      <c r="MDW14"/>
+      <c r="MDY14"/>
+      <c r="MEA14"/>
+      <c r="MEC14"/>
+      <c r="MEE14"/>
+      <c r="MEG14"/>
+      <c r="MEI14"/>
+      <c r="MEK14"/>
+      <c r="MEM14"/>
+      <c r="MEO14"/>
+      <c r="MEQ14"/>
+      <c r="MES14"/>
+      <c r="MEU14"/>
+      <c r="MEW14"/>
+      <c r="MEY14"/>
+      <c r="MFA14"/>
+      <c r="MFC14"/>
+      <c r="MFE14"/>
+      <c r="MFG14"/>
+      <c r="MFI14"/>
+      <c r="MFK14"/>
+      <c r="MFM14"/>
+      <c r="MFO14"/>
+      <c r="MFQ14"/>
+      <c r="MFS14"/>
+      <c r="MFU14"/>
+      <c r="MFW14"/>
+      <c r="MFY14"/>
+      <c r="MGA14"/>
+      <c r="MGC14"/>
+      <c r="MGE14"/>
+      <c r="MGG14"/>
+      <c r="MGI14"/>
+      <c r="MGK14"/>
+      <c r="MGM14"/>
+      <c r="MGO14"/>
+      <c r="MGQ14"/>
+      <c r="MGS14"/>
+      <c r="MGU14"/>
+      <c r="MGW14"/>
+      <c r="MGY14"/>
+      <c r="MHA14"/>
+      <c r="MHC14"/>
+      <c r="MHE14"/>
+      <c r="MHG14"/>
+      <c r="MHI14"/>
+      <c r="MHK14"/>
+      <c r="MHM14"/>
+      <c r="MHO14"/>
+      <c r="MHQ14"/>
+      <c r="MHS14"/>
+      <c r="MHU14"/>
+      <c r="MHW14"/>
+      <c r="MHY14"/>
+      <c r="MIA14"/>
+      <c r="MIC14"/>
+      <c r="MIE14"/>
+      <c r="MIG14"/>
+      <c r="MII14"/>
+      <c r="MIK14"/>
+      <c r="MIM14"/>
+      <c r="MIO14"/>
+      <c r="MIQ14"/>
+      <c r="MIS14"/>
+      <c r="MIU14"/>
+      <c r="MIW14"/>
+      <c r="MIY14"/>
+      <c r="MJA14"/>
+      <c r="MJC14"/>
+      <c r="MJE14"/>
+      <c r="MJG14"/>
+      <c r="MJI14"/>
+      <c r="MJK14"/>
+      <c r="MJM14"/>
+      <c r="MJO14"/>
+      <c r="MJQ14"/>
+      <c r="MJS14"/>
+      <c r="MJU14"/>
+      <c r="MJW14"/>
+      <c r="MJY14"/>
+      <c r="MKA14"/>
+      <c r="MKC14"/>
+      <c r="MKE14"/>
+      <c r="MKG14"/>
+      <c r="MKI14"/>
+      <c r="MKK14"/>
+      <c r="MKM14"/>
+      <c r="MKO14"/>
+      <c r="MKQ14"/>
+      <c r="MKS14"/>
+      <c r="MKU14"/>
+      <c r="MKW14"/>
+      <c r="MKY14"/>
+      <c r="MLA14"/>
+      <c r="MLC14"/>
+      <c r="MLE14"/>
+      <c r="MLG14"/>
+      <c r="MLI14"/>
+      <c r="MLK14"/>
+      <c r="MLM14"/>
+      <c r="MLO14"/>
+      <c r="MLQ14"/>
+      <c r="MLS14"/>
+      <c r="MLU14"/>
+      <c r="MLW14"/>
+      <c r="MLY14"/>
+      <c r="MMA14"/>
+      <c r="MMC14"/>
+      <c r="MME14"/>
+      <c r="MMG14"/>
+      <c r="MMI14"/>
+      <c r="MMK14"/>
+      <c r="MMM14"/>
+      <c r="MMO14"/>
+      <c r="MMQ14"/>
+      <c r="MMS14"/>
+      <c r="MMU14"/>
+      <c r="MMW14"/>
+      <c r="MMY14"/>
+      <c r="MNA14"/>
+      <c r="MNC14"/>
+      <c r="MNE14"/>
+      <c r="MNG14"/>
+      <c r="MNI14"/>
+      <c r="MNK14"/>
+      <c r="MNM14"/>
+      <c r="MNO14"/>
+      <c r="MNQ14"/>
+      <c r="MNS14"/>
+      <c r="MNU14"/>
+      <c r="MNW14"/>
+      <c r="MNY14"/>
+      <c r="MOA14"/>
+      <c r="MOC14"/>
+      <c r="MOE14"/>
+      <c r="MOG14"/>
+      <c r="MOI14"/>
+      <c r="MOK14"/>
+      <c r="MOM14"/>
+      <c r="MOO14"/>
+      <c r="MOQ14"/>
+      <c r="MOS14"/>
+      <c r="MOU14"/>
+      <c r="MOW14"/>
+      <c r="MOY14"/>
+      <c r="MPA14"/>
+      <c r="MPC14"/>
+      <c r="MPE14"/>
+      <c r="MPG14"/>
+      <c r="MPI14"/>
+      <c r="MPK14"/>
+      <c r="MPM14"/>
+      <c r="MPO14"/>
+      <c r="MPQ14"/>
+      <c r="MPS14"/>
+      <c r="MPU14"/>
+      <c r="MPW14"/>
+      <c r="MPY14"/>
+      <c r="MQA14"/>
+      <c r="MQC14"/>
+      <c r="MQE14"/>
+      <c r="MQG14"/>
+      <c r="MQI14"/>
+      <c r="MQK14"/>
+      <c r="MQM14"/>
+      <c r="MQO14"/>
+      <c r="MQQ14"/>
+      <c r="MQS14"/>
+      <c r="MQU14"/>
+      <c r="MQW14"/>
+      <c r="MQY14"/>
+      <c r="MRA14"/>
+      <c r="MRC14"/>
+      <c r="MRE14"/>
+      <c r="MRG14"/>
+      <c r="MRI14"/>
+      <c r="MRK14"/>
+      <c r="MRM14"/>
+      <c r="MRO14"/>
+      <c r="MRQ14"/>
+      <c r="MRS14"/>
+      <c r="MRU14"/>
+      <c r="MRW14"/>
+      <c r="MRY14"/>
+      <c r="MSA14"/>
+      <c r="MSC14"/>
+      <c r="MSE14"/>
+      <c r="MSG14"/>
+      <c r="MSI14"/>
+      <c r="MSK14"/>
+      <c r="MSM14"/>
+      <c r="MSO14"/>
+      <c r="MSQ14"/>
+      <c r="MSS14"/>
+      <c r="MSU14"/>
+      <c r="MSW14"/>
+      <c r="MSY14"/>
+      <c r="MTA14"/>
+      <c r="MTC14"/>
+      <c r="MTE14"/>
+      <c r="MTG14"/>
+      <c r="MTI14"/>
+      <c r="MTK14"/>
+      <c r="MTM14"/>
+      <c r="MTO14"/>
+      <c r="MTQ14"/>
+      <c r="MTS14"/>
+      <c r="MTU14"/>
+      <c r="MTW14"/>
+      <c r="MTY14"/>
+      <c r="MUA14"/>
+      <c r="MUC14"/>
+      <c r="MUE14"/>
+      <c r="MUG14"/>
+      <c r="MUI14"/>
+      <c r="MUK14"/>
+      <c r="MUM14"/>
+      <c r="MUO14"/>
+      <c r="MUQ14"/>
+      <c r="MUS14"/>
+      <c r="MUU14"/>
+      <c r="MUW14"/>
+      <c r="MUY14"/>
+      <c r="MVA14"/>
+      <c r="MVC14"/>
+      <c r="MVE14"/>
+      <c r="MVG14"/>
+      <c r="MVI14"/>
+      <c r="MVK14"/>
+      <c r="MVM14"/>
+      <c r="MVO14"/>
+      <c r="MVQ14"/>
+      <c r="MVS14"/>
+      <c r="MVU14"/>
+      <c r="MVW14"/>
+      <c r="MVY14"/>
+      <c r="MWA14"/>
+      <c r="MWC14"/>
+      <c r="MWE14"/>
+      <c r="MWG14"/>
+      <c r="MWI14"/>
+      <c r="MWK14"/>
+      <c r="MWM14"/>
+      <c r="MWO14"/>
+      <c r="MWQ14"/>
+      <c r="MWS14"/>
+      <c r="MWU14"/>
+      <c r="MWW14"/>
+      <c r="MWY14"/>
+      <c r="MXA14"/>
+      <c r="MXC14"/>
+      <c r="MXE14"/>
+      <c r="MXG14"/>
+      <c r="MXI14"/>
+      <c r="MXK14"/>
+      <c r="MXM14"/>
+      <c r="MXO14"/>
+      <c r="MXQ14"/>
+      <c r="MXS14"/>
+      <c r="MXU14"/>
+      <c r="MXW14"/>
+      <c r="MXY14"/>
+      <c r="MYA14"/>
+      <c r="MYC14"/>
+      <c r="MYE14"/>
+      <c r="MYG14"/>
+      <c r="MYI14"/>
+      <c r="MYK14"/>
+      <c r="MYM14"/>
+      <c r="MYO14"/>
+      <c r="MYQ14"/>
+      <c r="MYS14"/>
+      <c r="MYU14"/>
+      <c r="MYW14"/>
+      <c r="MYY14"/>
+      <c r="MZA14"/>
+      <c r="MZC14"/>
+      <c r="MZE14"/>
+      <c r="MZG14"/>
+      <c r="MZI14"/>
+      <c r="MZK14"/>
+      <c r="MZM14"/>
+      <c r="MZO14"/>
+      <c r="MZQ14"/>
+      <c r="MZS14"/>
+      <c r="MZU14"/>
+      <c r="MZW14"/>
+      <c r="MZY14"/>
+      <c r="NAA14"/>
+      <c r="NAC14"/>
+      <c r="NAE14"/>
+      <c r="NAG14"/>
+      <c r="NAI14"/>
+      <c r="NAK14"/>
+      <c r="NAM14"/>
+      <c r="NAO14"/>
+      <c r="NAQ14"/>
+      <c r="NAS14"/>
+      <c r="NAU14"/>
+      <c r="NAW14"/>
+      <c r="NAY14"/>
+      <c r="NBA14"/>
+      <c r="NBC14"/>
+      <c r="NBE14"/>
+      <c r="NBG14"/>
+      <c r="NBI14"/>
+      <c r="NBK14"/>
+      <c r="NBM14"/>
+      <c r="NBO14"/>
+      <c r="NBQ14"/>
+      <c r="NBS14"/>
+      <c r="NBU14"/>
+      <c r="NBW14"/>
+      <c r="NBY14"/>
+      <c r="NCA14"/>
+      <c r="NCC14"/>
+      <c r="NCE14"/>
+      <c r="NCG14"/>
+      <c r="NCI14"/>
+      <c r="NCK14"/>
+      <c r="NCM14"/>
+      <c r="NCO14"/>
+      <c r="NCQ14"/>
+      <c r="NCS14"/>
+      <c r="NCU14"/>
+      <c r="NCW14"/>
+      <c r="NCY14"/>
+      <c r="NDA14"/>
+      <c r="NDC14"/>
+      <c r="NDE14"/>
+      <c r="NDG14"/>
+      <c r="NDI14"/>
+      <c r="NDK14"/>
+      <c r="NDM14"/>
+      <c r="NDO14"/>
+      <c r="NDQ14"/>
+      <c r="NDS14"/>
+      <c r="NDU14"/>
+      <c r="NDW14"/>
+      <c r="NDY14"/>
+      <c r="NEA14"/>
+      <c r="NEC14"/>
+      <c r="NEE14"/>
+      <c r="NEG14"/>
+      <c r="NEI14"/>
+      <c r="NEK14"/>
+      <c r="NEM14"/>
+      <c r="NEO14"/>
+      <c r="NEQ14"/>
+      <c r="NES14"/>
+      <c r="NEU14"/>
+      <c r="NEW14"/>
+      <c r="NEY14"/>
+      <c r="NFA14"/>
+      <c r="NFC14"/>
+      <c r="NFE14"/>
+      <c r="NFG14"/>
+      <c r="NFI14"/>
+      <c r="NFK14"/>
+      <c r="NFM14"/>
+      <c r="NFO14"/>
+      <c r="NFQ14"/>
+      <c r="NFS14"/>
+      <c r="NFU14"/>
+      <c r="NFW14"/>
+      <c r="NFY14"/>
+      <c r="NGA14"/>
+      <c r="NGC14"/>
+      <c r="NGE14"/>
+      <c r="NGG14"/>
+      <c r="NGI14"/>
+      <c r="NGK14"/>
+      <c r="NGM14"/>
+      <c r="NGO14"/>
+      <c r="NGQ14"/>
+      <c r="NGS14"/>
+      <c r="NGU14"/>
+      <c r="NGW14"/>
+      <c r="NGY14"/>
+      <c r="NHA14"/>
+      <c r="NHC14"/>
+      <c r="NHE14"/>
+      <c r="NHG14"/>
+      <c r="NHI14"/>
+      <c r="NHK14"/>
+      <c r="NHM14"/>
+      <c r="NHO14"/>
+      <c r="NHQ14"/>
+      <c r="NHS14"/>
+      <c r="NHU14"/>
+      <c r="NHW14"/>
+      <c r="NHY14"/>
+      <c r="NIA14"/>
+      <c r="NIC14"/>
+      <c r="NIE14"/>
+      <c r="NIG14"/>
+      <c r="NII14"/>
+      <c r="NIK14"/>
+      <c r="NIM14"/>
+      <c r="NIO14"/>
+      <c r="NIQ14"/>
+      <c r="NIS14"/>
+      <c r="NIU14"/>
+      <c r="NIW14"/>
+      <c r="NIY14"/>
+      <c r="NJA14"/>
+      <c r="NJC14"/>
+      <c r="NJE14"/>
+      <c r="NJG14"/>
+      <c r="NJI14"/>
+      <c r="NJK14"/>
+      <c r="NJM14"/>
+      <c r="NJO14"/>
+      <c r="NJQ14"/>
+      <c r="NJS14"/>
+      <c r="NJU14"/>
+      <c r="NJW14"/>
+      <c r="NJY14"/>
+      <c r="NKA14"/>
+      <c r="NKC14"/>
+      <c r="NKE14"/>
+      <c r="NKG14"/>
+      <c r="NKI14"/>
+      <c r="NKK14"/>
+      <c r="NKM14"/>
+      <c r="NKO14"/>
+      <c r="NKQ14"/>
+      <c r="NKS14"/>
+      <c r="NKU14"/>
+      <c r="NKW14"/>
+      <c r="NKY14"/>
+      <c r="NLA14"/>
+      <c r="NLC14"/>
+      <c r="NLE14"/>
+      <c r="NLG14"/>
+      <c r="NLI14"/>
+      <c r="NLK14"/>
+      <c r="NLM14"/>
+      <c r="NLO14"/>
+      <c r="NLQ14"/>
+      <c r="NLS14"/>
+      <c r="NLU14"/>
+      <c r="NLW14"/>
+      <c r="NLY14"/>
+      <c r="NMA14"/>
+      <c r="NMC14"/>
+      <c r="NME14"/>
+      <c r="NMG14"/>
+      <c r="NMI14"/>
+      <c r="NMK14"/>
+      <c r="NMM14"/>
+      <c r="NMO14"/>
+      <c r="NMQ14"/>
+      <c r="NMS14"/>
+      <c r="NMU14"/>
+      <c r="NMW14"/>
+      <c r="NMY14"/>
+      <c r="NNA14"/>
+      <c r="NNC14"/>
+      <c r="NNE14"/>
+      <c r="NNG14"/>
+      <c r="NNI14"/>
+      <c r="NNK14"/>
+      <c r="NNM14"/>
+      <c r="NNO14"/>
+      <c r="NNQ14"/>
+      <c r="NNS14"/>
+      <c r="NNU14"/>
+      <c r="NNW14"/>
+      <c r="NNY14"/>
+      <c r="NOA14"/>
+      <c r="NOC14"/>
+      <c r="NOE14"/>
+      <c r="NOG14"/>
+      <c r="NOI14"/>
+      <c r="NOK14"/>
+      <c r="NOM14"/>
+      <c r="NOO14"/>
+      <c r="NOQ14"/>
+      <c r="NOS14"/>
+      <c r="NOU14"/>
+      <c r="NOW14"/>
+      <c r="NOY14"/>
+      <c r="NPA14"/>
+      <c r="NPC14"/>
+      <c r="NPE14"/>
+      <c r="NPG14"/>
+      <c r="NPI14"/>
+      <c r="NPK14"/>
+      <c r="NPM14"/>
+      <c r="NPO14"/>
+      <c r="NPQ14"/>
+      <c r="NPS14"/>
+      <c r="NPU14"/>
+      <c r="NPW14"/>
+      <c r="NPY14"/>
+      <c r="NQA14"/>
+      <c r="NQC14"/>
+      <c r="NQE14"/>
+      <c r="NQG14"/>
+      <c r="NQI14"/>
+      <c r="NQK14"/>
+      <c r="NQM14"/>
+      <c r="NQO14"/>
+      <c r="NQQ14"/>
+      <c r="NQS14"/>
+      <c r="NQU14"/>
+      <c r="NQW14"/>
+      <c r="NQY14"/>
+      <c r="NRA14"/>
+      <c r="NRC14"/>
+      <c r="NRE14"/>
+      <c r="NRG14"/>
+      <c r="NRI14"/>
+      <c r="NRK14"/>
+      <c r="NRM14"/>
+      <c r="NRO14"/>
+      <c r="NRQ14"/>
+      <c r="NRS14"/>
+      <c r="NRU14"/>
+      <c r="NRW14"/>
+      <c r="NRY14"/>
+      <c r="NSA14"/>
+      <c r="NSC14"/>
+      <c r="NSE14"/>
+      <c r="NSG14"/>
+      <c r="NSI14"/>
+      <c r="NSK14"/>
+      <c r="NSM14"/>
+      <c r="NSO14"/>
+      <c r="NSQ14"/>
+      <c r="NSS14"/>
+      <c r="NSU14"/>
+      <c r="NSW14"/>
+      <c r="NSY14"/>
+      <c r="NTA14"/>
+      <c r="NTC14"/>
+      <c r="NTE14"/>
+      <c r="NTG14"/>
+      <c r="NTI14"/>
+      <c r="NTK14"/>
+      <c r="NTM14"/>
+      <c r="NTO14"/>
+      <c r="NTQ14"/>
+      <c r="NTS14"/>
+      <c r="NTU14"/>
+      <c r="NTW14"/>
+      <c r="NTY14"/>
+      <c r="NUA14"/>
+      <c r="NUC14"/>
+      <c r="NUE14"/>
+      <c r="NUG14"/>
+      <c r="NUI14"/>
+      <c r="NUK14"/>
+      <c r="NUM14"/>
+      <c r="NUO14"/>
+      <c r="NUQ14"/>
+      <c r="NUS14"/>
+      <c r="NUU14"/>
+      <c r="NUW14"/>
+      <c r="NUY14"/>
+      <c r="NVA14"/>
+      <c r="NVC14"/>
+      <c r="NVE14"/>
+      <c r="NVG14"/>
+      <c r="NVI14"/>
+      <c r="NVK14"/>
+      <c r="NVM14"/>
+      <c r="NVO14"/>
+      <c r="NVQ14"/>
+      <c r="NVS14"/>
+      <c r="NVU14"/>
+      <c r="NVW14"/>
+      <c r="NVY14"/>
+      <c r="NWA14"/>
+      <c r="NWC14"/>
+      <c r="NWE14"/>
+      <c r="NWG14"/>
+      <c r="NWI14"/>
+      <c r="NWK14"/>
+      <c r="NWM14"/>
+      <c r="NWO14"/>
+      <c r="NWQ14"/>
+      <c r="NWS14"/>
+      <c r="NWU14"/>
+      <c r="NWW14"/>
+      <c r="NWY14"/>
+      <c r="NXA14"/>
+      <c r="NXC14"/>
+      <c r="NXE14"/>
+      <c r="NXG14"/>
+      <c r="NXI14"/>
+      <c r="NXK14"/>
+      <c r="NXM14"/>
+      <c r="NXO14"/>
+      <c r="NXQ14"/>
+      <c r="NXS14"/>
+      <c r="NXU14"/>
+      <c r="NXW14"/>
+      <c r="NXY14"/>
+      <c r="NYA14"/>
+      <c r="NYC14"/>
+      <c r="NYE14"/>
+      <c r="NYG14"/>
+      <c r="NYI14"/>
+      <c r="NYK14"/>
+      <c r="NYM14"/>
+      <c r="NYO14"/>
+      <c r="NYQ14"/>
+      <c r="NYS14"/>
+      <c r="NYU14"/>
+      <c r="NYW14"/>
+      <c r="NYY14"/>
+      <c r="NZA14"/>
+      <c r="NZC14"/>
+      <c r="NZE14"/>
+      <c r="NZG14"/>
+      <c r="NZI14"/>
+      <c r="NZK14"/>
+      <c r="NZM14"/>
+      <c r="NZO14"/>
+      <c r="NZQ14"/>
+      <c r="NZS14"/>
+      <c r="NZU14"/>
+      <c r="NZW14"/>
+      <c r="NZY14"/>
+      <c r="OAA14"/>
+      <c r="OAC14"/>
+      <c r="OAE14"/>
+      <c r="OAG14"/>
+      <c r="OAI14"/>
+      <c r="OAK14"/>
+      <c r="OAM14"/>
+      <c r="OAO14"/>
+      <c r="OAQ14"/>
+      <c r="OAS14"/>
+      <c r="OAU14"/>
+      <c r="OAW14"/>
+      <c r="OAY14"/>
+      <c r="OBA14"/>
+      <c r="OBC14"/>
+      <c r="OBE14"/>
+      <c r="OBG14"/>
+      <c r="OBI14"/>
+      <c r="OBK14"/>
+      <c r="OBM14"/>
+      <c r="OBO14"/>
+      <c r="OBQ14"/>
+      <c r="OBS14"/>
+      <c r="OBU14"/>
+      <c r="OBW14"/>
+      <c r="OBY14"/>
+      <c r="OCA14"/>
+      <c r="OCC14"/>
+      <c r="OCE14"/>
+      <c r="OCG14"/>
+      <c r="OCI14"/>
+      <c r="OCK14"/>
+      <c r="OCM14"/>
+      <c r="OCO14"/>
+      <c r="OCQ14"/>
+      <c r="OCS14"/>
+      <c r="OCU14"/>
+      <c r="OCW14"/>
+      <c r="OCY14"/>
+      <c r="ODA14"/>
+      <c r="ODC14"/>
+      <c r="ODE14"/>
+      <c r="ODG14"/>
+      <c r="ODI14"/>
+      <c r="ODK14"/>
+      <c r="ODM14"/>
+      <c r="ODO14"/>
+      <c r="ODQ14"/>
+      <c r="ODS14"/>
+      <c r="ODU14"/>
+      <c r="ODW14"/>
+      <c r="ODY14"/>
+      <c r="OEA14"/>
+      <c r="OEC14"/>
+      <c r="OEE14"/>
+      <c r="OEG14"/>
+      <c r="OEI14"/>
+      <c r="OEK14"/>
+      <c r="OEM14"/>
+      <c r="OEO14"/>
+      <c r="OEQ14"/>
+      <c r="OES14"/>
+      <c r="OEU14"/>
+      <c r="OEW14"/>
+      <c r="OEY14"/>
+      <c r="OFA14"/>
+      <c r="OFC14"/>
+      <c r="OFE14"/>
+      <c r="OFG14"/>
+      <c r="OFI14"/>
+      <c r="OFK14"/>
+      <c r="OFM14"/>
+      <c r="OFO14"/>
+      <c r="OFQ14"/>
+      <c r="OFS14"/>
+      <c r="OFU14"/>
+      <c r="OFW14"/>
+      <c r="OFY14"/>
+      <c r="OGA14"/>
+      <c r="OGC14"/>
+      <c r="OGE14"/>
+      <c r="OGG14"/>
+      <c r="OGI14"/>
+      <c r="OGK14"/>
+      <c r="OGM14"/>
+      <c r="OGO14"/>
+      <c r="OGQ14"/>
+      <c r="OGS14"/>
+      <c r="OGU14"/>
+      <c r="OGW14"/>
+      <c r="OGY14"/>
+      <c r="OHA14"/>
+      <c r="OHC14"/>
+      <c r="OHE14"/>
+      <c r="OHG14"/>
+      <c r="OHI14"/>
+      <c r="OHK14"/>
+      <c r="OHM14"/>
+      <c r="OHO14"/>
+      <c r="OHQ14"/>
+      <c r="OHS14"/>
+      <c r="OHU14"/>
+      <c r="OHW14"/>
+      <c r="OHY14"/>
+      <c r="OIA14"/>
+      <c r="OIC14"/>
+      <c r="OIE14"/>
+      <c r="OIG14"/>
+      <c r="OII14"/>
+      <c r="OIK14"/>
+      <c r="OIM14"/>
+      <c r="OIO14"/>
+      <c r="OIQ14"/>
+      <c r="OIS14"/>
+      <c r="OIU14"/>
+      <c r="OIW14"/>
+      <c r="OIY14"/>
+      <c r="OJA14"/>
+      <c r="OJC14"/>
+      <c r="OJE14"/>
+      <c r="OJG14"/>
+      <c r="OJI14"/>
+      <c r="OJK14"/>
+      <c r="OJM14"/>
+      <c r="OJO14"/>
+      <c r="OJQ14"/>
+      <c r="OJS14"/>
+      <c r="OJU14"/>
+      <c r="OJW14"/>
+      <c r="OJY14"/>
+      <c r="OKA14"/>
+      <c r="OKC14"/>
+      <c r="OKE14"/>
+      <c r="OKG14"/>
+      <c r="OKI14"/>
+      <c r="OKK14"/>
+      <c r="OKM14"/>
+      <c r="OKO14"/>
+      <c r="OKQ14"/>
+      <c r="OKS14"/>
+      <c r="OKU14"/>
+      <c r="OKW14"/>
+      <c r="OKY14"/>
+      <c r="OLA14"/>
+      <c r="OLC14"/>
+      <c r="OLE14"/>
+      <c r="OLG14"/>
+      <c r="OLI14"/>
+      <c r="OLK14"/>
+      <c r="OLM14"/>
+      <c r="OLO14"/>
+      <c r="OLQ14"/>
+      <c r="OLS14"/>
+      <c r="OLU14"/>
+      <c r="OLW14"/>
+      <c r="OLY14"/>
+      <c r="OMA14"/>
+      <c r="OMC14"/>
+      <c r="OME14"/>
+      <c r="OMG14"/>
+      <c r="OMI14"/>
+      <c r="OMK14"/>
+      <c r="OMM14"/>
+      <c r="OMO14"/>
+      <c r="OMQ14"/>
+      <c r="OMS14"/>
+      <c r="OMU14"/>
+      <c r="OMW14"/>
+      <c r="OMY14"/>
+      <c r="ONA14"/>
+      <c r="ONC14"/>
+      <c r="ONE14"/>
+      <c r="ONG14"/>
+      <c r="ONI14"/>
+      <c r="ONK14"/>
+      <c r="ONM14"/>
+      <c r="ONO14"/>
+      <c r="ONQ14"/>
+      <c r="ONS14"/>
+      <c r="ONU14"/>
+      <c r="ONW14"/>
+      <c r="ONY14"/>
+      <c r="OOA14"/>
+      <c r="OOC14"/>
+      <c r="OOE14"/>
+      <c r="OOG14"/>
+      <c r="OOI14"/>
+      <c r="OOK14"/>
+      <c r="OOM14"/>
+      <c r="OOO14"/>
+      <c r="OOQ14"/>
+      <c r="OOS14"/>
+      <c r="OOU14"/>
+      <c r="OOW14"/>
+      <c r="OOY14"/>
+      <c r="OPA14"/>
+      <c r="OPC14"/>
+      <c r="OPE14"/>
+      <c r="OPG14"/>
+      <c r="OPI14"/>
+      <c r="OPK14"/>
+      <c r="OPM14"/>
+      <c r="OPO14"/>
+      <c r="OPQ14"/>
+      <c r="OPS14"/>
+      <c r="OPU14"/>
+      <c r="OPW14"/>
+      <c r="OPY14"/>
+      <c r="OQA14"/>
+      <c r="OQC14"/>
+      <c r="OQE14"/>
+      <c r="OQG14"/>
+      <c r="OQI14"/>
+      <c r="OQK14"/>
+      <c r="OQM14"/>
+      <c r="OQO14"/>
+      <c r="OQQ14"/>
+      <c r="OQS14"/>
+      <c r="OQU14"/>
+      <c r="OQW14"/>
+      <c r="OQY14"/>
+      <c r="ORA14"/>
+      <c r="ORC14"/>
+      <c r="ORE14"/>
+      <c r="ORG14"/>
+      <c r="ORI14"/>
+      <c r="ORK14"/>
+      <c r="ORM14"/>
+      <c r="ORO14"/>
+      <c r="ORQ14"/>
+      <c r="ORS14"/>
+      <c r="ORU14"/>
+      <c r="ORW14"/>
+      <c r="ORY14"/>
+      <c r="OSA14"/>
+      <c r="OSC14"/>
+      <c r="OSE14"/>
+      <c r="OSG14"/>
+      <c r="OSI14"/>
+      <c r="OSK14"/>
+      <c r="OSM14"/>
+      <c r="OSO14"/>
+      <c r="OSQ14"/>
+      <c r="OSS14"/>
+      <c r="OSU14"/>
+      <c r="OSW14"/>
+      <c r="OSY14"/>
+      <c r="OTA14"/>
+      <c r="OTC14"/>
+      <c r="OTE14"/>
+      <c r="OTG14"/>
+      <c r="OTI14"/>
+      <c r="OTK14"/>
+      <c r="OTM14"/>
+      <c r="OTO14"/>
+      <c r="OTQ14"/>
+      <c r="OTS14"/>
+      <c r="OTU14"/>
+      <c r="OTW14"/>
+      <c r="OTY14"/>
+      <c r="OUA14"/>
+      <c r="OUC14"/>
+      <c r="OUE14"/>
+      <c r="OUG14"/>
+      <c r="OUI14"/>
+      <c r="OUK14"/>
+      <c r="OUM14"/>
+      <c r="OUO14"/>
+      <c r="OUQ14"/>
+      <c r="OUS14"/>
+      <c r="OUU14"/>
+      <c r="OUW14"/>
+      <c r="OUY14"/>
+      <c r="OVA14"/>
+      <c r="OVC14"/>
+      <c r="OVE14"/>
+      <c r="OVG14"/>
+      <c r="OVI14"/>
+      <c r="OVK14"/>
+      <c r="OVM14"/>
+      <c r="OVO14"/>
+      <c r="OVQ14"/>
+      <c r="OVS14"/>
+      <c r="OVU14"/>
+      <c r="OVW14"/>
+      <c r="OVY14"/>
+      <c r="OWA14"/>
+      <c r="OWC14"/>
+      <c r="OWE14"/>
+      <c r="OWG14"/>
+      <c r="OWI14"/>
+      <c r="OWK14"/>
+      <c r="OWM14"/>
+      <c r="OWO14"/>
+      <c r="OWQ14"/>
+      <c r="OWS14"/>
+      <c r="OWU14"/>
+      <c r="OWW14"/>
+      <c r="OWY14"/>
+      <c r="OXA14"/>
+      <c r="OXC14"/>
+      <c r="OXE14"/>
+      <c r="OXG14"/>
+      <c r="OXI14"/>
+      <c r="OXK14"/>
+      <c r="OXM14"/>
+      <c r="OXO14"/>
+      <c r="OXQ14"/>
+      <c r="OXS14"/>
+      <c r="OXU14"/>
+      <c r="OXW14"/>
+      <c r="OXY14"/>
+      <c r="OYA14"/>
+      <c r="OYC14"/>
+      <c r="OYE14"/>
+      <c r="OYG14"/>
+      <c r="OYI14"/>
+      <c r="OYK14"/>
+      <c r="OYM14"/>
+      <c r="OYO14"/>
+      <c r="OYQ14"/>
+      <c r="OYS14"/>
+      <c r="OYU14"/>
+      <c r="OYW14"/>
+      <c r="OYY14"/>
+      <c r="OZA14"/>
+      <c r="OZC14"/>
+      <c r="OZE14"/>
+      <c r="OZG14"/>
+      <c r="OZI14"/>
+      <c r="OZK14"/>
+      <c r="OZM14"/>
+      <c r="OZO14"/>
+      <c r="OZQ14"/>
+      <c r="OZS14"/>
+      <c r="OZU14"/>
+      <c r="OZW14"/>
+      <c r="OZY14"/>
+      <c r="PAA14"/>
+      <c r="PAC14"/>
+      <c r="PAE14"/>
+      <c r="PAG14"/>
+      <c r="PAI14"/>
+      <c r="PAK14"/>
+      <c r="PAM14"/>
+      <c r="PAO14"/>
+      <c r="PAQ14"/>
+      <c r="PAS14"/>
+      <c r="PAU14"/>
+      <c r="PAW14"/>
+      <c r="PAY14"/>
+      <c r="PBA14"/>
+      <c r="PBC14"/>
+      <c r="PBE14"/>
+      <c r="PBG14"/>
+      <c r="PBI14"/>
+      <c r="PBK14"/>
+      <c r="PBM14"/>
+      <c r="PBO14"/>
+      <c r="PBQ14"/>
+      <c r="PBS14"/>
+      <c r="PBU14"/>
+      <c r="PBW14"/>
+      <c r="PBY14"/>
+      <c r="PCA14"/>
+      <c r="PCC14"/>
+      <c r="PCE14"/>
+      <c r="PCG14"/>
+      <c r="PCI14"/>
+      <c r="PCK14"/>
+      <c r="PCM14"/>
+      <c r="PCO14"/>
+      <c r="PCQ14"/>
+      <c r="PCS14"/>
+      <c r="PCU14"/>
+      <c r="PCW14"/>
+      <c r="PCY14"/>
+      <c r="PDA14"/>
+      <c r="PDC14"/>
+      <c r="PDE14"/>
+      <c r="PDG14"/>
+      <c r="PDI14"/>
+      <c r="PDK14"/>
+      <c r="PDM14"/>
+      <c r="PDO14"/>
+      <c r="PDQ14"/>
+      <c r="PDS14"/>
+      <c r="PDU14"/>
+      <c r="PDW14"/>
+      <c r="PDY14"/>
+      <c r="PEA14"/>
+      <c r="PEC14"/>
+      <c r="PEE14"/>
+      <c r="PEG14"/>
+      <c r="PEI14"/>
+      <c r="PEK14"/>
+      <c r="PEM14"/>
+      <c r="PEO14"/>
+      <c r="PEQ14"/>
+      <c r="PES14"/>
+      <c r="PEU14"/>
+      <c r="PEW14"/>
+      <c r="PEY14"/>
+      <c r="PFA14"/>
+      <c r="PFC14"/>
+      <c r="PFE14"/>
+      <c r="PFG14"/>
+      <c r="PFI14"/>
+      <c r="PFK14"/>
+      <c r="PFM14"/>
+      <c r="PFO14"/>
+      <c r="PFQ14"/>
+      <c r="PFS14"/>
+      <c r="PFU14"/>
+      <c r="PFW14"/>
+      <c r="PFY14"/>
+      <c r="PGA14"/>
+      <c r="PGC14"/>
+      <c r="PGE14"/>
+      <c r="PGG14"/>
+      <c r="PGI14"/>
+      <c r="PGK14"/>
+      <c r="PGM14"/>
+      <c r="PGO14"/>
+      <c r="PGQ14"/>
+      <c r="PGS14"/>
+      <c r="PGU14"/>
+      <c r="PGW14"/>
+      <c r="PGY14"/>
+      <c r="PHA14"/>
+      <c r="PHC14"/>
+      <c r="PHE14"/>
+      <c r="PHG14"/>
+      <c r="PHI14"/>
+      <c r="PHK14"/>
+      <c r="PHM14"/>
+      <c r="PHO14"/>
+      <c r="PHQ14"/>
+      <c r="PHS14"/>
+      <c r="PHU14"/>
+      <c r="PHW14"/>
+      <c r="PHY14"/>
+      <c r="PIA14"/>
+      <c r="PIC14"/>
+      <c r="PIE14"/>
+      <c r="PIG14"/>
+      <c r="PII14"/>
+      <c r="PIK14"/>
+      <c r="PIM14"/>
+      <c r="PIO14"/>
+      <c r="PIQ14"/>
+      <c r="PIS14"/>
+      <c r="PIU14"/>
+      <c r="PIW14"/>
+      <c r="PIY14"/>
+      <c r="PJA14"/>
+      <c r="PJC14"/>
+      <c r="PJE14"/>
+      <c r="PJG14"/>
+      <c r="PJI14"/>
+      <c r="PJK14"/>
+      <c r="PJM14"/>
+      <c r="PJO14"/>
+      <c r="PJQ14"/>
+      <c r="PJS14"/>
+      <c r="PJU14"/>
+      <c r="PJW14"/>
+      <c r="PJY14"/>
+      <c r="PKA14"/>
+      <c r="PKC14"/>
+      <c r="PKE14"/>
+      <c r="PKG14"/>
+      <c r="PKI14"/>
+      <c r="PKK14"/>
+      <c r="PKM14"/>
+      <c r="PKO14"/>
+      <c r="PKQ14"/>
+      <c r="PKS14"/>
+      <c r="PKU14"/>
+      <c r="PKW14"/>
+      <c r="PKY14"/>
+      <c r="PLA14"/>
+      <c r="PLC14"/>
+      <c r="PLE14"/>
+      <c r="PLG14"/>
+      <c r="PLI14"/>
+      <c r="PLK14"/>
+      <c r="PLM14"/>
+      <c r="PLO14"/>
+      <c r="PLQ14"/>
+      <c r="PLS14"/>
+      <c r="PLU14"/>
+      <c r="PLW14"/>
+      <c r="PLY14"/>
+      <c r="PMA14"/>
+      <c r="PMC14"/>
+      <c r="PME14"/>
+      <c r="PMG14"/>
+      <c r="PMI14"/>
+      <c r="PMK14"/>
+      <c r="PMM14"/>
+      <c r="PMO14"/>
+      <c r="PMQ14"/>
+      <c r="PMS14"/>
+      <c r="PMU14"/>
+      <c r="PMW14"/>
+      <c r="PMY14"/>
+      <c r="PNA14"/>
+      <c r="PNC14"/>
+      <c r="PNE14"/>
+      <c r="PNG14"/>
+      <c r="PNI14"/>
+      <c r="PNK14"/>
+      <c r="PNM14"/>
+      <c r="PNO14"/>
+      <c r="PNQ14"/>
+      <c r="PNS14"/>
+      <c r="PNU14"/>
+      <c r="PNW14"/>
+      <c r="PNY14"/>
+      <c r="POA14"/>
+      <c r="POC14"/>
+      <c r="POE14"/>
+      <c r="POG14"/>
+      <c r="POI14"/>
+      <c r="POK14"/>
+      <c r="POM14"/>
+      <c r="POO14"/>
+      <c r="POQ14"/>
+      <c r="POS14"/>
+      <c r="POU14"/>
+      <c r="POW14"/>
+      <c r="POY14"/>
+      <c r="PPA14"/>
+      <c r="PPC14"/>
+      <c r="PPE14"/>
+      <c r="PPG14"/>
+      <c r="PPI14"/>
+      <c r="PPK14"/>
+      <c r="PPM14"/>
+      <c r="PPO14"/>
+      <c r="PPQ14"/>
+      <c r="PPS14"/>
+      <c r="PPU14"/>
+      <c r="PPW14"/>
+      <c r="PPY14"/>
+      <c r="PQA14"/>
+      <c r="PQC14"/>
+      <c r="PQE14"/>
+      <c r="PQG14"/>
+      <c r="PQI14"/>
+      <c r="PQK14"/>
+      <c r="PQM14"/>
+      <c r="PQO14"/>
+      <c r="PQQ14"/>
+      <c r="PQS14"/>
+      <c r="PQU14"/>
+      <c r="PQW14"/>
+      <c r="PQY14"/>
+      <c r="PRA14"/>
+      <c r="PRC14"/>
+      <c r="PRE14"/>
+      <c r="PRG14"/>
+      <c r="PRI14"/>
+      <c r="PRK14"/>
+      <c r="PRM14"/>
+      <c r="PRO14"/>
+      <c r="PRQ14"/>
+      <c r="PRS14"/>
+      <c r="PRU14"/>
+      <c r="PRW14"/>
+      <c r="PRY14"/>
+      <c r="PSA14"/>
+      <c r="PSC14"/>
+      <c r="PSE14"/>
+      <c r="PSG14"/>
+      <c r="PSI14"/>
+      <c r="PSK14"/>
+      <c r="PSM14"/>
+      <c r="PSO14"/>
+      <c r="PSQ14"/>
+      <c r="PSS14"/>
+      <c r="PSU14"/>
+      <c r="PSW14"/>
+      <c r="PSY14"/>
+      <c r="PTA14"/>
+      <c r="PTC14"/>
+      <c r="PTE14"/>
+      <c r="PTG14"/>
+      <c r="PTI14"/>
+      <c r="PTK14"/>
+      <c r="PTM14"/>
+      <c r="PTO14"/>
+      <c r="PTQ14"/>
+      <c r="PTS14"/>
+      <c r="PTU14"/>
+      <c r="PTW14"/>
+      <c r="PTY14"/>
+      <c r="PUA14"/>
+      <c r="PUC14"/>
+      <c r="PUE14"/>
+      <c r="PUG14"/>
+      <c r="PUI14"/>
+      <c r="PUK14"/>
+      <c r="PUM14"/>
+      <c r="PUO14"/>
+      <c r="PUQ14"/>
+      <c r="PUS14"/>
+      <c r="PUU14"/>
+      <c r="PUW14"/>
+      <c r="PUY14"/>
+      <c r="PVA14"/>
+      <c r="PVC14"/>
+      <c r="PVE14"/>
+      <c r="PVG14"/>
+      <c r="PVI14"/>
+      <c r="PVK14"/>
+      <c r="PVM14"/>
+      <c r="PVO14"/>
+      <c r="PVQ14"/>
+      <c r="PVS14"/>
+      <c r="PVU14"/>
+      <c r="PVW14"/>
+      <c r="PVY14"/>
+      <c r="PWA14"/>
+      <c r="PWC14"/>
+      <c r="PWE14"/>
+      <c r="PWG14"/>
+      <c r="PWI14"/>
+      <c r="PWK14"/>
+      <c r="PWM14"/>
+      <c r="PWO14"/>
+      <c r="PWQ14"/>
+      <c r="PWS14"/>
+      <c r="PWU14"/>
+      <c r="PWW14"/>
+      <c r="PWY14"/>
+      <c r="PXA14"/>
+      <c r="PXC14"/>
+      <c r="PXE14"/>
+      <c r="PXG14"/>
+      <c r="PXI14"/>
+      <c r="PXK14"/>
+      <c r="PXM14"/>
+      <c r="PXO14"/>
+      <c r="PXQ14"/>
+      <c r="PXS14"/>
+      <c r="PXU14"/>
+      <c r="PXW14"/>
+      <c r="PXY14"/>
+      <c r="PYA14"/>
+      <c r="PYC14"/>
+      <c r="PYE14"/>
+      <c r="PYG14"/>
+      <c r="PYI14"/>
+      <c r="PYK14"/>
+      <c r="PYM14"/>
+      <c r="PYO14"/>
+      <c r="PYQ14"/>
+      <c r="PYS14"/>
+      <c r="PYU14"/>
+      <c r="PYW14"/>
+      <c r="PYY14"/>
+      <c r="PZA14"/>
+      <c r="PZC14"/>
+      <c r="PZE14"/>
+      <c r="PZG14"/>
+      <c r="PZI14"/>
+      <c r="PZK14"/>
+      <c r="PZM14"/>
+      <c r="PZO14"/>
+      <c r="PZQ14"/>
+      <c r="PZS14"/>
+      <c r="PZU14"/>
+      <c r="PZW14"/>
+      <c r="PZY14"/>
+      <c r="QAA14"/>
+      <c r="QAC14"/>
+      <c r="QAE14"/>
+      <c r="QAG14"/>
+      <c r="QAI14"/>
+      <c r="QAK14"/>
+      <c r="QAM14"/>
+      <c r="QAO14"/>
+      <c r="QAQ14"/>
+      <c r="QAS14"/>
+      <c r="QAU14"/>
+      <c r="QAW14"/>
+      <c r="QAY14"/>
+      <c r="QBA14"/>
+      <c r="QBC14"/>
+      <c r="QBE14"/>
+      <c r="QBG14"/>
+      <c r="QBI14"/>
+      <c r="QBK14"/>
+      <c r="QBM14"/>
+      <c r="QBO14"/>
+      <c r="QBQ14"/>
+      <c r="QBS14"/>
+      <c r="QBU14"/>
+      <c r="QBW14"/>
+      <c r="QBY14"/>
+      <c r="QCA14"/>
+      <c r="QCC14"/>
+      <c r="QCE14"/>
+      <c r="QCG14"/>
+      <c r="QCI14"/>
+      <c r="QCK14"/>
+      <c r="QCM14"/>
+      <c r="QCO14"/>
+      <c r="QCQ14"/>
+      <c r="QCS14"/>
+      <c r="QCU14"/>
+      <c r="QCW14"/>
+      <c r="QCY14"/>
+      <c r="QDA14"/>
+      <c r="QDC14"/>
+      <c r="QDE14"/>
+      <c r="QDG14"/>
+      <c r="QDI14"/>
+      <c r="QDK14"/>
+      <c r="QDM14"/>
+      <c r="QDO14"/>
+      <c r="QDQ14"/>
+      <c r="QDS14"/>
+      <c r="QDU14"/>
+      <c r="QDW14"/>
+      <c r="QDY14"/>
+      <c r="QEA14"/>
+      <c r="QEC14"/>
+      <c r="QEE14"/>
+      <c r="QEG14"/>
+      <c r="QEI14"/>
+      <c r="QEK14"/>
+      <c r="QEM14"/>
+      <c r="QEO14"/>
+      <c r="QEQ14"/>
+      <c r="QES14"/>
+      <c r="QEU14"/>
+      <c r="QEW14"/>
+      <c r="QEY14"/>
+      <c r="QFA14"/>
+      <c r="QFC14"/>
+      <c r="QFE14"/>
+      <c r="QFG14"/>
+      <c r="QFI14"/>
+      <c r="QFK14"/>
+      <c r="QFM14"/>
+      <c r="QFO14"/>
+      <c r="QFQ14"/>
+      <c r="QFS14"/>
+      <c r="QFU14"/>
+      <c r="QFW14"/>
+      <c r="QFY14"/>
+      <c r="QGA14"/>
+      <c r="QGC14"/>
+      <c r="QGE14"/>
+      <c r="QGG14"/>
+      <c r="QGI14"/>
+      <c r="QGK14"/>
+      <c r="QGM14"/>
+      <c r="QGO14"/>
+      <c r="QGQ14"/>
+      <c r="QGS14"/>
+      <c r="QGU14"/>
+      <c r="QGW14"/>
+      <c r="QGY14"/>
+      <c r="QHA14"/>
+      <c r="QHC14"/>
+      <c r="QHE14"/>
+      <c r="QHG14"/>
+      <c r="QHI14"/>
+      <c r="QHK14"/>
+      <c r="QHM14"/>
+      <c r="QHO14"/>
+      <c r="QHQ14"/>
+      <c r="QHS14"/>
+      <c r="QHU14"/>
+      <c r="QHW14"/>
+      <c r="QHY14"/>
+      <c r="QIA14"/>
+      <c r="QIC14"/>
+      <c r="QIE14"/>
+      <c r="QIG14"/>
+      <c r="QII14"/>
+      <c r="QIK14"/>
+      <c r="QIM14"/>
+      <c r="QIO14"/>
+      <c r="QIQ14"/>
+      <c r="QIS14"/>
+      <c r="QIU14"/>
+      <c r="QIW14"/>
+      <c r="QIY14"/>
+      <c r="QJA14"/>
+      <c r="QJC14"/>
+      <c r="QJE14"/>
+      <c r="QJG14"/>
+      <c r="QJI14"/>
+      <c r="QJK14"/>
+      <c r="QJM14"/>
+      <c r="QJO14"/>
+      <c r="QJQ14"/>
+      <c r="QJS14"/>
+      <c r="QJU14"/>
+      <c r="QJW14"/>
+      <c r="QJY14"/>
+      <c r="QKA14"/>
+      <c r="QKC14"/>
+      <c r="QKE14"/>
+      <c r="QKG14"/>
+      <c r="QKI14"/>
+      <c r="QKK14"/>
+      <c r="QKM14"/>
+      <c r="QKO14"/>
+      <c r="QKQ14"/>
+      <c r="QKS14"/>
+      <c r="QKU14"/>
+      <c r="QKW14"/>
+      <c r="QKY14"/>
+      <c r="QLA14"/>
+      <c r="QLC14"/>
+      <c r="QLE14"/>
+      <c r="QLG14"/>
+      <c r="QLI14"/>
+      <c r="QLK14"/>
+      <c r="QLM14"/>
+      <c r="QLO14"/>
+      <c r="QLQ14"/>
+      <c r="QLS14"/>
+      <c r="QLU14"/>
+      <c r="QLW14"/>
+      <c r="QLY14"/>
+      <c r="QMA14"/>
+      <c r="QMC14"/>
+      <c r="QME14"/>
+      <c r="QMG14"/>
+      <c r="QMI14"/>
+      <c r="QMK14"/>
+      <c r="QMM14"/>
+      <c r="QMO14"/>
+      <c r="QMQ14"/>
+      <c r="QMS14"/>
+      <c r="QMU14"/>
+      <c r="QMW14"/>
+      <c r="QMY14"/>
+      <c r="QNA14"/>
+      <c r="QNC14"/>
+      <c r="QNE14"/>
+      <c r="QNG14"/>
+      <c r="QNI14"/>
+      <c r="QNK14"/>
+      <c r="QNM14"/>
+      <c r="QNO14"/>
+      <c r="QNQ14"/>
+      <c r="QNS14"/>
+      <c r="QNU14"/>
+      <c r="QNW14"/>
+      <c r="QNY14"/>
+      <c r="QOA14"/>
+      <c r="QOC14"/>
+      <c r="QOE14"/>
+      <c r="QOG14"/>
+      <c r="QOI14"/>
+      <c r="QOK14"/>
+      <c r="QOM14"/>
+      <c r="QOO14"/>
+      <c r="QOQ14"/>
+      <c r="QOS14"/>
+      <c r="QOU14"/>
+      <c r="QOW14"/>
+      <c r="QOY14"/>
+      <c r="QPA14"/>
+      <c r="QPC14"/>
+      <c r="QPE14"/>
+      <c r="QPG14"/>
+      <c r="QPI14"/>
+      <c r="QPK14"/>
+      <c r="QPM14"/>
+      <c r="QPO14"/>
+      <c r="QPQ14"/>
+      <c r="QPS14"/>
+      <c r="QPU14"/>
+      <c r="QPW14"/>
+      <c r="QPY14"/>
+      <c r="QQA14"/>
+      <c r="QQC14"/>
+      <c r="QQE14"/>
+      <c r="QQG14"/>
+      <c r="QQI14"/>
+      <c r="QQK14"/>
+      <c r="QQM14"/>
+      <c r="QQO14"/>
+      <c r="QQQ14"/>
+      <c r="QQS14"/>
+      <c r="QQU14"/>
+      <c r="QQW14"/>
+      <c r="QQY14"/>
+      <c r="QRA14"/>
+      <c r="QRC14"/>
+      <c r="QRE14"/>
+      <c r="QRG14"/>
+      <c r="QRI14"/>
+      <c r="QRK14"/>
+      <c r="QRM14"/>
+      <c r="QRO14"/>
+      <c r="QRQ14"/>
+      <c r="QRS14"/>
+      <c r="QRU14"/>
+      <c r="QRW14"/>
+      <c r="QRY14"/>
+      <c r="QSA14"/>
+      <c r="QSC14"/>
+      <c r="QSE14"/>
+      <c r="QSG14"/>
+      <c r="QSI14"/>
+      <c r="QSK14"/>
+      <c r="QSM14"/>
+      <c r="QSO14"/>
+      <c r="QSQ14"/>
+      <c r="QSS14"/>
+      <c r="QSU14"/>
+      <c r="QSW14"/>
+      <c r="QSY14"/>
+      <c r="QTA14"/>
+      <c r="QTC14"/>
+      <c r="QTE14"/>
+      <c r="QTG14"/>
+      <c r="QTI14"/>
+      <c r="QTK14"/>
+      <c r="QTM14"/>
+      <c r="QTO14"/>
+      <c r="QTQ14"/>
+      <c r="QTS14"/>
+      <c r="QTU14"/>
+      <c r="QTW14"/>
+      <c r="QTY14"/>
+      <c r="QUA14"/>
+      <c r="QUC14"/>
+      <c r="QUE14"/>
+      <c r="QUG14"/>
+      <c r="QUI14"/>
+      <c r="QUK14"/>
+      <c r="QUM14"/>
+      <c r="QUO14"/>
+      <c r="QUQ14"/>
+      <c r="QUS14"/>
+      <c r="QUU14"/>
+      <c r="QUW14"/>
+      <c r="QUY14"/>
+      <c r="QVA14"/>
+      <c r="QVC14"/>
+      <c r="QVE14"/>
+      <c r="QVG14"/>
+      <c r="QVI14"/>
+      <c r="QVK14"/>
+      <c r="QVM14"/>
+      <c r="QVO14"/>
+      <c r="QVQ14"/>
+      <c r="QVS14"/>
+      <c r="QVU14"/>
+      <c r="QVW14"/>
+      <c r="QVY14"/>
+      <c r="QWA14"/>
+      <c r="QWC14"/>
+      <c r="QWE14"/>
+      <c r="QWG14"/>
+      <c r="QWI14"/>
+      <c r="QWK14"/>
+      <c r="QWM14"/>
+      <c r="QWO14"/>
+      <c r="QWQ14"/>
+      <c r="QWS14"/>
+      <c r="QWU14"/>
+      <c r="QWW14"/>
+      <c r="QWY14"/>
+      <c r="QXA14"/>
+      <c r="QXC14"/>
+      <c r="QXE14"/>
+      <c r="QXG14"/>
+      <c r="QXI14"/>
+      <c r="QXK14"/>
+      <c r="QXM14"/>
+      <c r="QXO14"/>
+      <c r="QXQ14"/>
+      <c r="QXS14"/>
+      <c r="QXU14"/>
+      <c r="QXW14"/>
+      <c r="QXY14"/>
+      <c r="QYA14"/>
+      <c r="QYC14"/>
+      <c r="QYE14"/>
+      <c r="QYG14"/>
+      <c r="QYI14"/>
+      <c r="QYK14"/>
+      <c r="QYM14"/>
+      <c r="QYO14"/>
+      <c r="QYQ14"/>
+      <c r="QYS14"/>
+      <c r="QYU14"/>
+      <c r="QYW14"/>
+      <c r="QYY14"/>
+      <c r="QZA14"/>
+      <c r="QZC14"/>
+      <c r="QZE14"/>
+      <c r="QZG14"/>
+      <c r="QZI14"/>
+      <c r="QZK14"/>
+      <c r="QZM14"/>
+      <c r="QZO14"/>
+      <c r="QZQ14"/>
+      <c r="QZS14"/>
+      <c r="QZU14"/>
+      <c r="QZW14"/>
+      <c r="QZY14"/>
+      <c r="RAA14"/>
+      <c r="RAC14"/>
+      <c r="RAE14"/>
+      <c r="RAG14"/>
+      <c r="RAI14"/>
+      <c r="RAK14"/>
+      <c r="RAM14"/>
+      <c r="RAO14"/>
+      <c r="RAQ14"/>
+      <c r="RAS14"/>
+      <c r="RAU14"/>
+      <c r="RAW14"/>
+      <c r="RAY14"/>
+      <c r="RBA14"/>
+      <c r="RBC14"/>
+      <c r="RBE14"/>
+      <c r="RBG14"/>
+      <c r="RBI14"/>
+      <c r="RBK14"/>
+      <c r="RBM14"/>
+      <c r="RBO14"/>
+      <c r="RBQ14"/>
+      <c r="RBS14"/>
+      <c r="RBU14"/>
+      <c r="RBW14"/>
+      <c r="RBY14"/>
+      <c r="RCA14"/>
+      <c r="RCC14"/>
+      <c r="RCE14"/>
+      <c r="RCG14"/>
+      <c r="RCI14"/>
+      <c r="RCK14"/>
+      <c r="RCM14"/>
+      <c r="RCO14"/>
+      <c r="RCQ14"/>
+      <c r="RCS14"/>
+      <c r="RCU14"/>
+      <c r="RCW14"/>
+      <c r="RCY14"/>
+      <c r="RDA14"/>
+      <c r="RDC14"/>
+      <c r="RDE14"/>
+      <c r="RDG14"/>
+      <c r="RDI14"/>
+      <c r="RDK14"/>
+      <c r="RDM14"/>
+      <c r="RDO14"/>
+      <c r="RDQ14"/>
+      <c r="RDS14"/>
+      <c r="RDU14"/>
+      <c r="RDW14"/>
+      <c r="RDY14"/>
+      <c r="REA14"/>
+      <c r="REC14"/>
+      <c r="REE14"/>
+      <c r="REG14"/>
+      <c r="REI14"/>
+      <c r="REK14"/>
+      <c r="REM14"/>
+      <c r="REO14"/>
+      <c r="REQ14"/>
+      <c r="RES14"/>
+      <c r="REU14"/>
+      <c r="REW14"/>
+      <c r="REY14"/>
+      <c r="RFA14"/>
+      <c r="RFC14"/>
+      <c r="RFE14"/>
+      <c r="RFG14"/>
+      <c r="RFI14"/>
+      <c r="RFK14"/>
+      <c r="RFM14"/>
+      <c r="RFO14"/>
+      <c r="RFQ14"/>
+      <c r="RFS14"/>
+      <c r="RFU14"/>
+      <c r="RFW14"/>
+      <c r="RFY14"/>
+      <c r="RGA14"/>
+      <c r="RGC14"/>
+      <c r="RGE14"/>
+      <c r="RGG14"/>
+      <c r="RGI14"/>
+      <c r="RGK14"/>
+      <c r="RGM14"/>
+      <c r="RGO14"/>
+      <c r="RGQ14"/>
+      <c r="RGS14"/>
+      <c r="RGU14"/>
+      <c r="RGW14"/>
+      <c r="RGY14"/>
+      <c r="RHA14"/>
+      <c r="RHC14"/>
+      <c r="RHE14"/>
+      <c r="RHG14"/>
+      <c r="RHI14"/>
+      <c r="RHK14"/>
+      <c r="RHM14"/>
+      <c r="RHO14"/>
+      <c r="RHQ14"/>
+      <c r="RHS14"/>
+      <c r="RHU14"/>
+      <c r="RHW14"/>
+      <c r="RHY14"/>
+      <c r="RIA14"/>
+      <c r="RIC14"/>
+      <c r="RIE14"/>
+      <c r="RIG14"/>
+      <c r="RII14"/>
+      <c r="RIK14"/>
+      <c r="RIM14"/>
+      <c r="RIO14"/>
+      <c r="RIQ14"/>
+      <c r="RIS14"/>
+      <c r="RIU14"/>
+      <c r="RIW14"/>
+      <c r="RIY14"/>
+      <c r="RJA14"/>
+      <c r="RJC14"/>
+      <c r="RJE14"/>
+      <c r="RJG14"/>
+      <c r="RJI14"/>
+      <c r="RJK14"/>
+      <c r="RJM14"/>
+      <c r="RJO14"/>
+      <c r="RJQ14"/>
+      <c r="RJS14"/>
+      <c r="RJU14"/>
+      <c r="RJW14"/>
+      <c r="RJY14"/>
+      <c r="RKA14"/>
+      <c r="RKC14"/>
+      <c r="RKE14"/>
+      <c r="RKG14"/>
+      <c r="RKI14"/>
+      <c r="RKK14"/>
+      <c r="RKM14"/>
+      <c r="RKO14"/>
+      <c r="RKQ14"/>
+      <c r="RKS14"/>
+      <c r="RKU14"/>
+      <c r="RKW14"/>
+      <c r="RKY14"/>
+      <c r="RLA14"/>
+      <c r="RLC14"/>
+      <c r="RLE14"/>
+      <c r="RLG14"/>
+      <c r="RLI14"/>
+      <c r="RLK14"/>
+      <c r="RLM14"/>
+      <c r="RLO14"/>
+      <c r="RLQ14"/>
+      <c r="RLS14"/>
+      <c r="RLU14"/>
+      <c r="RLW14"/>
+      <c r="RLY14"/>
+      <c r="RMA14"/>
+      <c r="RMC14"/>
+      <c r="RME14"/>
+      <c r="RMG14"/>
+      <c r="RMI14"/>
+      <c r="RMK14"/>
+      <c r="RMM14"/>
+      <c r="RMO14"/>
+      <c r="RMQ14"/>
+      <c r="RMS14"/>
+      <c r="RMU14"/>
+      <c r="RMW14"/>
+      <c r="RMY14"/>
+      <c r="RNA14"/>
+      <c r="RNC14"/>
+      <c r="RNE14"/>
+      <c r="RNG14"/>
+      <c r="RNI14"/>
+      <c r="RNK14"/>
+      <c r="RNM14"/>
+      <c r="RNO14"/>
+      <c r="RNQ14"/>
+      <c r="RNS14"/>
+      <c r="RNU14"/>
+      <c r="RNW14"/>
+      <c r="RNY14"/>
+      <c r="ROA14"/>
+      <c r="ROC14"/>
+      <c r="ROE14"/>
+      <c r="ROG14"/>
+      <c r="ROI14"/>
+      <c r="ROK14"/>
+      <c r="ROM14"/>
+      <c r="ROO14"/>
+      <c r="ROQ14"/>
+      <c r="ROS14"/>
+      <c r="ROU14"/>
+      <c r="ROW14"/>
+      <c r="ROY14"/>
+      <c r="RPA14"/>
+      <c r="RPC14"/>
+      <c r="RPE14"/>
+      <c r="RPG14"/>
+      <c r="RPI14"/>
+      <c r="RPK14"/>
+      <c r="RPM14"/>
+      <c r="RPO14"/>
+      <c r="RPQ14"/>
+      <c r="RPS14"/>
+      <c r="RPU14"/>
+      <c r="RPW14"/>
+      <c r="RPY14"/>
+      <c r="RQA14"/>
+      <c r="RQC14"/>
+      <c r="RQE14"/>
+      <c r="RQG14"/>
+      <c r="RQI14"/>
+      <c r="RQK14"/>
+      <c r="RQM14"/>
+      <c r="RQO14"/>
+      <c r="RQQ14"/>
+      <c r="RQS14"/>
+      <c r="RQU14"/>
+      <c r="RQW14"/>
+      <c r="RQY14"/>
+      <c r="RRA14"/>
+      <c r="RRC14"/>
+      <c r="RRE14"/>
+      <c r="RRG14"/>
+      <c r="RRI14"/>
+      <c r="RRK14"/>
+      <c r="RRM14"/>
+      <c r="RRO14"/>
+      <c r="RRQ14"/>
+      <c r="RRS14"/>
+      <c r="RRU14"/>
+      <c r="RRW14"/>
+      <c r="RRY14"/>
+      <c r="RSA14"/>
+      <c r="RSC14"/>
+      <c r="RSE14"/>
+      <c r="RSG14"/>
+      <c r="RSI14"/>
+      <c r="RSK14"/>
+      <c r="RSM14"/>
+      <c r="RSO14"/>
+      <c r="RSQ14"/>
+      <c r="RSS14"/>
+      <c r="RSU14"/>
+      <c r="RSW14"/>
+      <c r="RSY14"/>
+      <c r="RTA14"/>
+      <c r="RTC14"/>
+      <c r="RTE14"/>
+      <c r="RTG14"/>
+      <c r="RTI14"/>
+      <c r="RTK14"/>
+      <c r="RTM14"/>
+      <c r="RTO14"/>
+      <c r="RTQ14"/>
+      <c r="RTS14"/>
+      <c r="RTU14"/>
+      <c r="RTW14"/>
+      <c r="RTY14"/>
+      <c r="RUA14"/>
+      <c r="RUC14"/>
+      <c r="RUE14"/>
+      <c r="RUG14"/>
+      <c r="RUI14"/>
+      <c r="RUK14"/>
+      <c r="RUM14"/>
+      <c r="RUO14"/>
+      <c r="RUQ14"/>
+      <c r="RUS14"/>
+      <c r="RUU14"/>
+      <c r="RUW14"/>
+      <c r="RUY14"/>
+      <c r="RVA14"/>
+      <c r="RVC14"/>
+      <c r="RVE14"/>
+      <c r="RVG14"/>
+      <c r="RVI14"/>
+      <c r="RVK14"/>
+      <c r="RVM14"/>
+      <c r="RVO14"/>
+      <c r="RVQ14"/>
+      <c r="RVS14"/>
+      <c r="RVU14"/>
+      <c r="RVW14"/>
+      <c r="RVY14"/>
+      <c r="RWA14"/>
+      <c r="RWC14"/>
+      <c r="RWE14"/>
+      <c r="RWG14"/>
+      <c r="RWI14"/>
+      <c r="RWK14"/>
+      <c r="RWM14"/>
+      <c r="RWO14"/>
+      <c r="RWQ14"/>
+      <c r="RWS14"/>
+      <c r="RWU14"/>
+      <c r="RWW14"/>
+      <c r="RWY14"/>
+      <c r="RXA14"/>
+      <c r="RXC14"/>
+      <c r="RXE14"/>
+      <c r="RXG14"/>
+      <c r="RXI14"/>
+      <c r="RXK14"/>
+      <c r="RXM14"/>
+      <c r="RXO14"/>
+      <c r="RXQ14"/>
+      <c r="RXS14"/>
+      <c r="RXU14"/>
+      <c r="RXW14"/>
+      <c r="RXY14"/>
+      <c r="RYA14"/>
+      <c r="RYC14"/>
+      <c r="RYE14"/>
+      <c r="RYG14"/>
+      <c r="RYI14"/>
+      <c r="RYK14"/>
+      <c r="RYM14"/>
+      <c r="RYO14"/>
+      <c r="RYQ14"/>
+      <c r="RYS14"/>
+      <c r="RYU14"/>
+      <c r="RYW14"/>
+      <c r="RYY14"/>
+      <c r="RZA14"/>
+      <c r="RZC14"/>
+      <c r="RZE14"/>
+      <c r="RZG14"/>
+      <c r="RZI14"/>
+      <c r="RZK14"/>
+      <c r="RZM14"/>
+      <c r="RZO14"/>
+      <c r="RZQ14"/>
+      <c r="RZS14"/>
+      <c r="RZU14"/>
+      <c r="RZW14"/>
+      <c r="RZY14"/>
+      <c r="SAA14"/>
+      <c r="SAC14"/>
+      <c r="SAE14"/>
+      <c r="SAG14"/>
+      <c r="SAI14"/>
+      <c r="SAK14"/>
+      <c r="SAM14"/>
+      <c r="SAO14"/>
+      <c r="SAQ14"/>
+      <c r="SAS14"/>
+      <c r="SAU14"/>
+      <c r="SAW14"/>
+      <c r="SAY14"/>
+      <c r="SBA14"/>
+      <c r="SBC14"/>
+      <c r="SBE14"/>
+      <c r="SBG14"/>
+      <c r="SBI14"/>
+      <c r="SBK14"/>
+      <c r="SBM14"/>
+      <c r="SBO14"/>
+      <c r="SBQ14"/>
+      <c r="SBS14"/>
+      <c r="SBU14"/>
+      <c r="SBW14"/>
+      <c r="SBY14"/>
+      <c r="SCA14"/>
+      <c r="SCC14"/>
+      <c r="SCE14"/>
+      <c r="SCG14"/>
+      <c r="SCI14"/>
+      <c r="SCK14"/>
+      <c r="SCM14"/>
+      <c r="SCO14"/>
+      <c r="SCQ14"/>
+      <c r="SCS14"/>
+      <c r="SCU14"/>
+      <c r="SCW14"/>
+      <c r="SCY14"/>
+      <c r="SDA14"/>
+      <c r="SDC14"/>
+      <c r="SDE14"/>
+      <c r="SDG14"/>
+      <c r="SDI14"/>
+      <c r="SDK14"/>
+      <c r="SDM14"/>
+      <c r="SDO14"/>
+      <c r="SDQ14"/>
+      <c r="SDS14"/>
+      <c r="SDU14"/>
+      <c r="SDW14"/>
+      <c r="SDY14"/>
+      <c r="SEA14"/>
+      <c r="SEC14"/>
+      <c r="SEE14"/>
+      <c r="SEG14"/>
+      <c r="SEI14"/>
+      <c r="SEK14"/>
+      <c r="SEM14"/>
+      <c r="SEO14"/>
+      <c r="SEQ14"/>
+      <c r="SES14"/>
+      <c r="SEU14"/>
+      <c r="SEW14"/>
+      <c r="SEY14"/>
+      <c r="SFA14"/>
+      <c r="SFC14"/>
+      <c r="SFE14"/>
+      <c r="SFG14"/>
+      <c r="SFI14"/>
+      <c r="SFK14"/>
+      <c r="SFM14"/>
+      <c r="SFO14"/>
+      <c r="SFQ14"/>
+      <c r="SFS14"/>
+      <c r="SFU14"/>
+      <c r="SFW14"/>
+      <c r="SFY14"/>
+      <c r="SGA14"/>
+      <c r="SGC14"/>
+      <c r="SGE14"/>
+      <c r="SGG14"/>
+      <c r="SGI14"/>
+      <c r="SGK14"/>
+      <c r="SGM14"/>
+      <c r="SGO14"/>
+      <c r="SGQ14"/>
+      <c r="SGS14"/>
+      <c r="SGU14"/>
+      <c r="SGW14"/>
+      <c r="SGY14"/>
+      <c r="SHA14"/>
+      <c r="SHC14"/>
+      <c r="SHE14"/>
+      <c r="SHG14"/>
+      <c r="SHI14"/>
+      <c r="SHK14"/>
+      <c r="SHM14"/>
+      <c r="SHO14"/>
+      <c r="SHQ14"/>
+      <c r="SHS14"/>
+      <c r="SHU14"/>
+      <c r="SHW14"/>
+      <c r="SHY14"/>
+      <c r="SIA14"/>
+      <c r="SIC14"/>
+      <c r="SIE14"/>
+      <c r="SIG14"/>
+      <c r="SII14"/>
+      <c r="SIK14"/>
+      <c r="SIM14"/>
+      <c r="SIO14"/>
+      <c r="SIQ14"/>
+      <c r="SIS14"/>
+      <c r="SIU14"/>
+      <c r="SIW14"/>
+      <c r="SIY14"/>
+      <c r="SJA14"/>
+      <c r="SJC14"/>
+      <c r="SJE14"/>
+      <c r="SJG14"/>
+      <c r="SJI14"/>
+      <c r="SJK14"/>
+      <c r="SJM14"/>
+      <c r="SJO14"/>
+      <c r="SJQ14"/>
+      <c r="SJS14"/>
+      <c r="SJU14"/>
+      <c r="SJW14"/>
+      <c r="SJY14"/>
+      <c r="SKA14"/>
+      <c r="SKC14"/>
+      <c r="SKE14"/>
+      <c r="SKG14"/>
+      <c r="SKI14"/>
+      <c r="SKK14"/>
+      <c r="SKM14"/>
+      <c r="SKO14"/>
+      <c r="SKQ14"/>
+      <c r="SKS14"/>
+      <c r="SKU14"/>
+      <c r="SKW14"/>
+      <c r="SKY14"/>
+      <c r="SLA14"/>
+      <c r="SLC14"/>
+      <c r="SLE14"/>
+      <c r="SLG14"/>
+      <c r="SLI14"/>
+      <c r="SLK14"/>
+      <c r="SLM14"/>
+      <c r="SLO14"/>
+      <c r="SLQ14"/>
+      <c r="SLS14"/>
+      <c r="SLU14"/>
+      <c r="SLW14"/>
+      <c r="SLY14"/>
+      <c r="SMA14"/>
+      <c r="SMC14"/>
+      <c r="SME14"/>
+      <c r="SMG14"/>
+      <c r="SMI14"/>
+      <c r="SMK14"/>
+      <c r="SMM14"/>
+      <c r="SMO14"/>
+      <c r="SMQ14"/>
+      <c r="SMS14"/>
+      <c r="SMU14"/>
+      <c r="SMW14"/>
+      <c r="SMY14"/>
+      <c r="SNA14"/>
+      <c r="SNC14"/>
+      <c r="SNE14"/>
+      <c r="SNG14"/>
+      <c r="SNI14"/>
+      <c r="SNK14"/>
+      <c r="SNM14"/>
+      <c r="SNO14"/>
+      <c r="SNQ14"/>
+      <c r="SNS14"/>
+      <c r="SNU14"/>
+      <c r="SNW14"/>
+      <c r="SNY14"/>
+      <c r="SOA14"/>
+      <c r="SOC14"/>
+      <c r="SOE14"/>
+      <c r="SOG14"/>
+      <c r="SOI14"/>
+      <c r="SOK14"/>
+      <c r="SOM14"/>
+      <c r="SOO14"/>
+      <c r="SOQ14"/>
+      <c r="SOS14"/>
+      <c r="SOU14"/>
+      <c r="SOW14"/>
+      <c r="SOY14"/>
+      <c r="SPA14"/>
+      <c r="SPC14"/>
+      <c r="SPE14"/>
+      <c r="SPG14"/>
+      <c r="SPI14"/>
+      <c r="SPK14"/>
+      <c r="SPM14"/>
+      <c r="SPO14"/>
+      <c r="SPQ14"/>
+      <c r="SPS14"/>
+      <c r="SPU14"/>
+      <c r="SPW14"/>
+      <c r="SPY14"/>
+      <c r="SQA14"/>
+      <c r="SQC14"/>
+      <c r="SQE14"/>
+      <c r="SQG14"/>
+      <c r="SQI14"/>
+      <c r="SQK14"/>
+      <c r="SQM14"/>
+      <c r="SQO14"/>
+      <c r="SQQ14"/>
+      <c r="SQS14"/>
+      <c r="SQU14"/>
+      <c r="SQW14"/>
+      <c r="SQY14"/>
+      <c r="SRA14"/>
+      <c r="SRC14"/>
+      <c r="SRE14"/>
+      <c r="SRG14"/>
+      <c r="SRI14"/>
+      <c r="SRK14"/>
+      <c r="SRM14"/>
+      <c r="SRO14"/>
+      <c r="SRQ14"/>
+      <c r="SRS14"/>
+      <c r="SRU14"/>
+      <c r="SRW14"/>
+      <c r="SRY14"/>
+      <c r="SSA14"/>
+      <c r="SSC14"/>
+      <c r="SSE14"/>
+      <c r="SSG14"/>
+      <c r="SSI14"/>
+      <c r="SSK14"/>
+      <c r="SSM14"/>
+      <c r="SSO14"/>
+      <c r="SSQ14"/>
+      <c r="SSS14"/>
+      <c r="SSU14"/>
+      <c r="SSW14"/>
+      <c r="SSY14"/>
+      <c r="STA14"/>
+      <c r="STC14"/>
+      <c r="STE14"/>
+      <c r="STG14"/>
+      <c r="STI14"/>
+      <c r="STK14"/>
+      <c r="STM14"/>
+      <c r="STO14"/>
+      <c r="STQ14"/>
+      <c r="STS14"/>
+      <c r="STU14"/>
+      <c r="STW14"/>
+      <c r="STY14"/>
+      <c r="SUA14"/>
+      <c r="SUC14"/>
+      <c r="SUE14"/>
+      <c r="SUG14"/>
+      <c r="SUI14"/>
+      <c r="SUK14"/>
+      <c r="SUM14"/>
+      <c r="SUO14"/>
+      <c r="SUQ14"/>
+      <c r="SUS14"/>
+      <c r="SUU14"/>
+      <c r="SUW14"/>
+      <c r="SUY14"/>
+      <c r="SVA14"/>
+      <c r="SVC14"/>
+      <c r="SVE14"/>
+      <c r="SVG14"/>
+      <c r="SVI14"/>
+      <c r="SVK14"/>
+      <c r="SVM14"/>
+      <c r="SVO14"/>
+      <c r="SVQ14"/>
+      <c r="SVS14"/>
+      <c r="SVU14"/>
+      <c r="SVW14"/>
+      <c r="SVY14"/>
+      <c r="SWA14"/>
+      <c r="SWC14"/>
+      <c r="SWE14"/>
+      <c r="SWG14"/>
+      <c r="SWI14"/>
+      <c r="SWK14"/>
+      <c r="SWM14"/>
+      <c r="SWO14"/>
+      <c r="SWQ14"/>
+      <c r="SWS14"/>
+      <c r="SWU14"/>
+      <c r="SWW14"/>
+      <c r="SWY14"/>
+      <c r="SXA14"/>
+      <c r="SXC14"/>
+      <c r="SXE14"/>
+      <c r="SXG14"/>
+      <c r="SXI14"/>
+      <c r="SXK14"/>
+      <c r="SXM14"/>
+      <c r="SXO14"/>
+      <c r="SXQ14"/>
+      <c r="SXS14"/>
+      <c r="SXU14"/>
+      <c r="SXW14"/>
+      <c r="SXY14"/>
+      <c r="SYA14"/>
+      <c r="SYC14"/>
+      <c r="SYE14"/>
+      <c r="SYG14"/>
+      <c r="SYI14"/>
+      <c r="SYK14"/>
+      <c r="SYM14"/>
+      <c r="SYO14"/>
+      <c r="SYQ14"/>
+      <c r="SYS14"/>
+      <c r="SYU14"/>
+      <c r="SYW14"/>
+      <c r="SYY14"/>
+      <c r="SZA14"/>
+      <c r="SZC14"/>
+      <c r="SZE14"/>
+      <c r="SZG14"/>
+      <c r="SZI14"/>
+      <c r="SZK14"/>
+      <c r="SZM14"/>
+      <c r="SZO14"/>
+      <c r="SZQ14"/>
+      <c r="SZS14"/>
+      <c r="SZU14"/>
+      <c r="SZW14"/>
+      <c r="SZY14"/>
+      <c r="TAA14"/>
+      <c r="TAC14"/>
+      <c r="TAE14"/>
+      <c r="TAG14"/>
+      <c r="TAI14"/>
+      <c r="TAK14"/>
+      <c r="TAM14"/>
+      <c r="TAO14"/>
+      <c r="TAQ14"/>
+      <c r="TAS14"/>
+      <c r="TAU14"/>
+      <c r="TAW14"/>
+      <c r="TAY14"/>
+      <c r="TBA14"/>
+      <c r="TBC14"/>
+      <c r="TBE14"/>
+      <c r="TBG14"/>
+      <c r="TBI14"/>
+      <c r="TBK14"/>
+      <c r="TBM14"/>
+      <c r="TBO14"/>
+      <c r="TBQ14"/>
+      <c r="TBS14"/>
+      <c r="TBU14"/>
+      <c r="TBW14"/>
+      <c r="TBY14"/>
+      <c r="TCA14"/>
+      <c r="TCC14"/>
+      <c r="TCE14"/>
+      <c r="TCG14"/>
+      <c r="TCI14"/>
+      <c r="TCK14"/>
+      <c r="TCM14"/>
+      <c r="TCO14"/>
+      <c r="TCQ14"/>
+      <c r="TCS14"/>
+      <c r="TCU14"/>
+      <c r="TCW14"/>
+      <c r="TCY14"/>
+      <c r="TDA14"/>
+      <c r="TDC14"/>
+      <c r="TDE14"/>
+      <c r="TDG14"/>
+      <c r="TDI14"/>
+      <c r="TDK14"/>
+      <c r="TDM14"/>
+      <c r="TDO14"/>
+      <c r="TDQ14"/>
+      <c r="TDS14"/>
+      <c r="TDU14"/>
+      <c r="TDW14"/>
+      <c r="TDY14"/>
+      <c r="TEA14"/>
+      <c r="TEC14"/>
+      <c r="TEE14"/>
+      <c r="TEG14"/>
+      <c r="TEI14"/>
+      <c r="TEK14"/>
+      <c r="TEM14"/>
+      <c r="TEO14"/>
+      <c r="TEQ14"/>
+      <c r="TES14"/>
+      <c r="TEU14"/>
+      <c r="TEW14"/>
+      <c r="TEY14"/>
+      <c r="TFA14"/>
+      <c r="TFC14"/>
+      <c r="TFE14"/>
+      <c r="TFG14"/>
+      <c r="TFI14"/>
+      <c r="TFK14"/>
+      <c r="TFM14"/>
+      <c r="TFO14"/>
+      <c r="TFQ14"/>
+      <c r="TFS14"/>
+      <c r="TFU14"/>
+      <c r="TFW14"/>
+      <c r="TFY14"/>
+      <c r="TGA14"/>
+      <c r="TGC14"/>
+      <c r="TGE14"/>
+      <c r="TGG14"/>
+      <c r="TGI14"/>
+      <c r="TGK14"/>
+      <c r="TGM14"/>
+      <c r="TGO14"/>
+      <c r="TGQ14"/>
+      <c r="TGS14"/>
+      <c r="TGU14"/>
+      <c r="TGW14"/>
+      <c r="TGY14"/>
+      <c r="THA14"/>
+      <c r="THC14"/>
+      <c r="THE14"/>
+      <c r="THG14"/>
+      <c r="THI14"/>
+      <c r="THK14"/>
+      <c r="THM14"/>
+      <c r="THO14"/>
+      <c r="THQ14"/>
+      <c r="THS14"/>
+      <c r="THU14"/>
+      <c r="THW14"/>
+      <c r="THY14"/>
+      <c r="TIA14"/>
+      <c r="TIC14"/>
+      <c r="TIE14"/>
+      <c r="TIG14"/>
+      <c r="TII14"/>
+      <c r="TIK14"/>
+      <c r="TIM14"/>
+      <c r="TIO14"/>
+      <c r="TIQ14"/>
+      <c r="TIS14"/>
+      <c r="TIU14"/>
+      <c r="TIW14"/>
+      <c r="TIY14"/>
+      <c r="TJA14"/>
+      <c r="TJC14"/>
+      <c r="TJE14"/>
+      <c r="TJG14"/>
+      <c r="TJI14"/>
+      <c r="TJK14"/>
+      <c r="TJM14"/>
+      <c r="TJO14"/>
+      <c r="TJQ14"/>
+      <c r="TJS14"/>
+      <c r="TJU14"/>
+      <c r="TJW14"/>
+      <c r="TJY14"/>
+      <c r="TKA14"/>
+      <c r="TKC14"/>
+      <c r="TKE14"/>
+      <c r="TKG14"/>
+      <c r="TKI14"/>
+      <c r="TKK14"/>
+      <c r="TKM14"/>
+      <c r="TKO14"/>
+      <c r="TKQ14"/>
+      <c r="TKS14"/>
+      <c r="TKU14"/>
+      <c r="TKW14"/>
+      <c r="TKY14"/>
+      <c r="TLA14"/>
+      <c r="TLC14"/>
+      <c r="TLE14"/>
+      <c r="TLG14"/>
+      <c r="TLI14"/>
+      <c r="TLK14"/>
+      <c r="TLM14"/>
+      <c r="TLO14"/>
+      <c r="TLQ14"/>
+      <c r="TLS14"/>
+      <c r="TLU14"/>
+      <c r="TLW14"/>
+      <c r="TLY14"/>
+      <c r="TMA14"/>
+      <c r="TMC14"/>
+      <c r="TME14"/>
+      <c r="TMG14"/>
+      <c r="TMI14"/>
+      <c r="TMK14"/>
+      <c r="TMM14"/>
+      <c r="TMO14"/>
+      <c r="TMQ14"/>
+      <c r="TMS14"/>
+      <c r="TMU14"/>
+      <c r="TMW14"/>
+      <c r="TMY14"/>
+      <c r="TNA14"/>
+      <c r="TNC14"/>
+      <c r="TNE14"/>
+      <c r="TNG14"/>
+      <c r="TNI14"/>
+      <c r="TNK14"/>
+      <c r="TNM14"/>
+      <c r="TNO14"/>
+      <c r="TNQ14"/>
+      <c r="TNS14"/>
+      <c r="TNU14"/>
+      <c r="TNW14"/>
+      <c r="TNY14"/>
+      <c r="TOA14"/>
+      <c r="TOC14"/>
+      <c r="TOE14"/>
+      <c r="TOG14"/>
+      <c r="TOI14"/>
+      <c r="TOK14"/>
+      <c r="TOM14"/>
+      <c r="TOO14"/>
+      <c r="TOQ14"/>
+      <c r="TOS14"/>
+      <c r="TOU14"/>
+      <c r="TOW14"/>
+      <c r="TOY14"/>
+      <c r="TPA14"/>
+      <c r="TPC14"/>
+      <c r="TPE14"/>
+      <c r="TPG14"/>
+      <c r="TPI14"/>
+      <c r="TPK14"/>
+      <c r="TPM14"/>
+      <c r="TPO14"/>
+      <c r="TPQ14"/>
+      <c r="TPS14"/>
+      <c r="TPU14"/>
+      <c r="TPW14"/>
+      <c r="TPY14"/>
+      <c r="TQA14"/>
+      <c r="TQC14"/>
+      <c r="TQE14"/>
+      <c r="TQG14"/>
+      <c r="TQI14"/>
+      <c r="TQK14"/>
+      <c r="TQM14"/>
+      <c r="TQO14"/>
+      <c r="TQQ14"/>
+      <c r="TQS14"/>
+      <c r="TQU14"/>
+      <c r="TQW14"/>
+      <c r="TQY14"/>
+      <c r="TRA14"/>
+      <c r="TRC14"/>
+      <c r="TRE14"/>
+      <c r="TRG14"/>
+      <c r="TRI14"/>
+      <c r="TRK14"/>
+      <c r="TRM14"/>
+      <c r="TRO14"/>
+      <c r="TRQ14"/>
+      <c r="TRS14"/>
+      <c r="TRU14"/>
+      <c r="TRW14"/>
+      <c r="TRY14"/>
+      <c r="TSA14"/>
+      <c r="TSC14"/>
+      <c r="TSE14"/>
+      <c r="TSG14"/>
+      <c r="TSI14"/>
+      <c r="TSK14"/>
+      <c r="TSM14"/>
+      <c r="TSO14"/>
+      <c r="TSQ14"/>
+      <c r="TSS14"/>
+      <c r="TSU14"/>
+      <c r="TSW14"/>
+      <c r="TSY14"/>
+      <c r="TTA14"/>
+      <c r="TTC14"/>
+      <c r="TTE14"/>
+      <c r="TTG14"/>
+      <c r="TTI14"/>
+      <c r="TTK14"/>
+      <c r="TTM14"/>
+      <c r="TTO14"/>
+      <c r="TTQ14"/>
+      <c r="TTS14"/>
+      <c r="TTU14"/>
+      <c r="TTW14"/>
+      <c r="TTY14"/>
+      <c r="TUA14"/>
+      <c r="TUC14"/>
+      <c r="TUE14"/>
+      <c r="TUG14"/>
+      <c r="TUI14"/>
+      <c r="TUK14"/>
+      <c r="TUM14"/>
+      <c r="TUO14"/>
+      <c r="TUQ14"/>
+      <c r="TUS14"/>
+      <c r="TUU14"/>
+      <c r="TUW14"/>
+      <c r="TUY14"/>
+      <c r="TVA14"/>
+      <c r="TVC14"/>
+      <c r="TVE14"/>
+      <c r="TVG14"/>
+      <c r="TVI14"/>
+      <c r="TVK14"/>
+      <c r="TVM14"/>
+      <c r="TVO14"/>
+      <c r="TVQ14"/>
+      <c r="TVS14"/>
+      <c r="TVU14"/>
+      <c r="TVW14"/>
+      <c r="TVY14"/>
+      <c r="TWA14"/>
+      <c r="TWC14"/>
+      <c r="TWE14"/>
+      <c r="TWG14"/>
+      <c r="TWI14"/>
+      <c r="TWK14"/>
+      <c r="TWM14"/>
+      <c r="TWO14"/>
+      <c r="TWQ14"/>
+      <c r="TWS14"/>
+      <c r="TWU14"/>
+      <c r="TWW14"/>
+      <c r="TWY14"/>
+      <c r="TXA14"/>
+      <c r="TXC14"/>
+      <c r="TXE14"/>
+      <c r="TXG14"/>
+      <c r="TXI14"/>
+      <c r="TXK14"/>
+      <c r="TXM14"/>
+      <c r="TXO14"/>
+      <c r="TXQ14"/>
+      <c r="TXS14"/>
+      <c r="TXU14"/>
+      <c r="TXW14"/>
+      <c r="TXY14"/>
+      <c r="TYA14"/>
+      <c r="TYC14"/>
+      <c r="TYE14"/>
+      <c r="TYG14"/>
+      <c r="TYI14"/>
+      <c r="TYK14"/>
+      <c r="TYM14"/>
+      <c r="TYO14"/>
+      <c r="TYQ14"/>
+      <c r="TYS14"/>
+      <c r="TYU14"/>
+      <c r="TYW14"/>
+      <c r="TYY14"/>
+      <c r="TZA14"/>
+      <c r="TZC14"/>
+      <c r="TZE14"/>
+      <c r="TZG14"/>
+      <c r="TZI14"/>
+      <c r="TZK14"/>
+      <c r="TZM14"/>
+      <c r="TZO14"/>
+      <c r="TZQ14"/>
+      <c r="TZS14"/>
+      <c r="TZU14"/>
+      <c r="TZW14"/>
+      <c r="TZY14"/>
+      <c r="UAA14"/>
+      <c r="UAC14"/>
+      <c r="UAE14"/>
+      <c r="UAG14"/>
+      <c r="UAI14"/>
+      <c r="UAK14"/>
+      <c r="UAM14"/>
+      <c r="UAO14"/>
+      <c r="UAQ14"/>
+      <c r="UAS14"/>
+      <c r="UAU14"/>
+      <c r="UAW14"/>
+      <c r="UAY14"/>
+      <c r="UBA14"/>
+      <c r="UBC14"/>
+      <c r="UBE14"/>
+      <c r="UBG14"/>
+      <c r="UBI14"/>
+      <c r="UBK14"/>
+      <c r="UBM14"/>
+      <c r="UBO14"/>
+      <c r="UBQ14"/>
+      <c r="UBS14"/>
+      <c r="UBU14"/>
+      <c r="UBW14"/>
+      <c r="UBY14"/>
+      <c r="UCA14"/>
+      <c r="UCC14"/>
+      <c r="UCE14"/>
+      <c r="UCG14"/>
+      <c r="UCI14"/>
+      <c r="UCK14"/>
+      <c r="UCM14"/>
+      <c r="UCO14"/>
+      <c r="UCQ14"/>
+      <c r="UCS14"/>
+      <c r="UCU14"/>
+      <c r="UCW14"/>
+      <c r="UCY14"/>
+      <c r="UDA14"/>
+      <c r="UDC14"/>
+      <c r="UDE14"/>
+      <c r="UDG14"/>
+      <c r="UDI14"/>
+      <c r="UDK14"/>
+      <c r="UDM14"/>
+      <c r="UDO14"/>
+      <c r="UDQ14"/>
+      <c r="UDS14"/>
+      <c r="UDU14"/>
+      <c r="UDW14"/>
+      <c r="UDY14"/>
+      <c r="UEA14"/>
+      <c r="UEC14"/>
+      <c r="UEE14"/>
+      <c r="UEG14"/>
+      <c r="UEI14"/>
+      <c r="UEK14"/>
+      <c r="UEM14"/>
+      <c r="UEO14"/>
+      <c r="UEQ14"/>
+      <c r="UES14"/>
+      <c r="UEU14"/>
+      <c r="UEW14"/>
+      <c r="UEY14"/>
+      <c r="UFA14"/>
+      <c r="UFC14"/>
+      <c r="UFE14"/>
+      <c r="UFG14"/>
+      <c r="UFI14"/>
+      <c r="UFK14"/>
+      <c r="UFM14"/>
+      <c r="UFO14"/>
+      <c r="UFQ14"/>
+      <c r="UFS14"/>
+      <c r="UFU14"/>
+      <c r="UFW14"/>
+      <c r="UFY14"/>
+      <c r="UGA14"/>
+      <c r="UGC14"/>
+      <c r="UGE14"/>
+      <c r="UGG14"/>
+      <c r="UGI14"/>
+      <c r="UGK14"/>
+      <c r="UGM14"/>
+      <c r="UGO14"/>
+      <c r="UGQ14"/>
+      <c r="UGS14"/>
+      <c r="UGU14"/>
+      <c r="UGW14"/>
+      <c r="UGY14"/>
+      <c r="UHA14"/>
+      <c r="UHC14"/>
+      <c r="UHE14"/>
+      <c r="UHG14"/>
+      <c r="UHI14"/>
+      <c r="UHK14"/>
+      <c r="UHM14"/>
+      <c r="UHO14"/>
+      <c r="UHQ14"/>
+      <c r="UHS14"/>
+      <c r="UHU14"/>
+      <c r="UHW14"/>
+      <c r="UHY14"/>
+      <c r="UIA14"/>
+      <c r="UIC14"/>
+      <c r="UIE14"/>
+      <c r="UIG14"/>
+      <c r="UII14"/>
+      <c r="UIK14"/>
+      <c r="UIM14"/>
+      <c r="UIO14"/>
+      <c r="UIQ14"/>
+      <c r="UIS14"/>
+      <c r="UIU14"/>
+      <c r="UIW14"/>
+      <c r="UIY14"/>
+      <c r="UJA14"/>
+      <c r="UJC14"/>
+      <c r="UJE14"/>
+      <c r="UJG14"/>
+      <c r="UJI14"/>
+      <c r="UJK14"/>
+      <c r="UJM14"/>
+      <c r="UJO14"/>
+      <c r="UJQ14"/>
+      <c r="UJS14"/>
+      <c r="UJU14"/>
+      <c r="UJW14"/>
+      <c r="UJY14"/>
+      <c r="UKA14"/>
+      <c r="UKC14"/>
+      <c r="UKE14"/>
+      <c r="UKG14"/>
+      <c r="UKI14"/>
+      <c r="UKK14"/>
+      <c r="UKM14"/>
+      <c r="UKO14"/>
+      <c r="UKQ14"/>
+      <c r="UKS14"/>
+      <c r="UKU14"/>
+      <c r="UKW14"/>
+      <c r="UKY14"/>
+      <c r="ULA14"/>
+      <c r="ULC14"/>
+      <c r="ULE14"/>
+      <c r="ULG14"/>
+      <c r="ULI14"/>
+      <c r="ULK14"/>
+      <c r="ULM14"/>
+      <c r="ULO14"/>
+      <c r="ULQ14"/>
+      <c r="ULS14"/>
+      <c r="ULU14"/>
+      <c r="ULW14"/>
+      <c r="ULY14"/>
+      <c r="UMA14"/>
+      <c r="UMC14"/>
+      <c r="UME14"/>
+      <c r="UMG14"/>
+      <c r="UMI14"/>
+      <c r="UMK14"/>
+      <c r="UMM14"/>
+      <c r="UMO14"/>
+      <c r="UMQ14"/>
+      <c r="UMS14"/>
+      <c r="UMU14"/>
+      <c r="UMW14"/>
+      <c r="UMY14"/>
+      <c r="UNA14"/>
+      <c r="UNC14"/>
+      <c r="UNE14"/>
+      <c r="UNG14"/>
+      <c r="UNI14"/>
+      <c r="UNK14"/>
+      <c r="UNM14"/>
+      <c r="UNO14"/>
+      <c r="UNQ14"/>
+      <c r="UNS14"/>
+      <c r="UNU14"/>
+      <c r="UNW14"/>
+      <c r="UNY14"/>
+      <c r="UOA14"/>
+      <c r="UOC14"/>
+      <c r="UOE14"/>
+      <c r="UOG14"/>
+      <c r="UOI14"/>
+      <c r="UOK14"/>
+      <c r="UOM14"/>
+      <c r="UOO14"/>
+      <c r="UOQ14"/>
+      <c r="UOS14"/>
+      <c r="UOU14"/>
+      <c r="UOW14"/>
+      <c r="UOY14"/>
+      <c r="UPA14"/>
+      <c r="UPC14"/>
+      <c r="UPE14"/>
+      <c r="UPG14"/>
+      <c r="UPI14"/>
+      <c r="UPK14"/>
+      <c r="UPM14"/>
+      <c r="UPO14"/>
+      <c r="UPQ14"/>
+      <c r="UPS14"/>
+      <c r="UPU14"/>
+      <c r="UPW14"/>
+      <c r="UPY14"/>
+      <c r="UQA14"/>
+      <c r="UQC14"/>
+      <c r="UQE14"/>
+      <c r="UQG14"/>
+      <c r="UQI14"/>
+      <c r="UQK14"/>
+      <c r="UQM14"/>
+      <c r="UQO14"/>
+      <c r="UQQ14"/>
+      <c r="UQS14"/>
+      <c r="UQU14"/>
+      <c r="UQW14"/>
+      <c r="UQY14"/>
+      <c r="URA14"/>
+      <c r="URC14"/>
+      <c r="URE14"/>
+      <c r="URG14"/>
+      <c r="URI14"/>
+      <c r="URK14"/>
+      <c r="URM14"/>
+      <c r="URO14"/>
+      <c r="URQ14"/>
+      <c r="URS14"/>
+      <c r="URU14"/>
+      <c r="URW14"/>
+      <c r="URY14"/>
+      <c r="USA14"/>
+      <c r="USC14"/>
+      <c r="USE14"/>
+      <c r="USG14"/>
+      <c r="USI14"/>
+      <c r="USK14"/>
+      <c r="USM14"/>
+      <c r="USO14"/>
+      <c r="USQ14"/>
+      <c r="USS14"/>
+      <c r="USU14"/>
+      <c r="USW14"/>
+      <c r="USY14"/>
+      <c r="UTA14"/>
+      <c r="UTC14"/>
+      <c r="UTE14"/>
+      <c r="UTG14"/>
+      <c r="UTI14"/>
+      <c r="UTK14"/>
+      <c r="UTM14"/>
+      <c r="UTO14"/>
+      <c r="UTQ14"/>
+      <c r="UTS14"/>
+      <c r="UTU14"/>
+      <c r="UTW14"/>
+      <c r="UTY14"/>
+      <c r="UUA14"/>
+      <c r="UUC14"/>
+      <c r="UUE14"/>
+      <c r="UUG14"/>
+      <c r="UUI14"/>
+      <c r="UUK14"/>
+      <c r="UUM14"/>
+      <c r="UUO14"/>
+      <c r="UUQ14"/>
+      <c r="UUS14"/>
+      <c r="UUU14"/>
+      <c r="UUW14"/>
+      <c r="UUY14"/>
+      <c r="UVA14"/>
+      <c r="UVC14"/>
+      <c r="UVE14"/>
+      <c r="UVG14"/>
+      <c r="UVI14"/>
+      <c r="UVK14"/>
+      <c r="UVM14"/>
+      <c r="UVO14"/>
+      <c r="UVQ14"/>
+      <c r="UVS14"/>
+      <c r="UVU14"/>
+      <c r="UVW14"/>
+      <c r="UVY14"/>
+      <c r="UWA14"/>
+      <c r="UWC14"/>
+      <c r="UWE14"/>
+      <c r="UWG14"/>
+      <c r="UWI14"/>
+      <c r="UWK14"/>
+      <c r="UWM14"/>
+      <c r="UWO14"/>
+      <c r="UWQ14"/>
+      <c r="UWS14"/>
+      <c r="UWU14"/>
+      <c r="UWW14"/>
+      <c r="UWY14"/>
+      <c r="UXA14"/>
+      <c r="UXC14"/>
+      <c r="UXE14"/>
+      <c r="UXG14"/>
+      <c r="UXI14"/>
+      <c r="UXK14"/>
+      <c r="UXM14"/>
+      <c r="UXO14"/>
+      <c r="UXQ14"/>
+      <c r="UXS14"/>
+      <c r="UXU14"/>
+      <c r="UXW14"/>
+      <c r="UXY14"/>
+      <c r="UYA14"/>
+      <c r="UYC14"/>
+      <c r="UYE14"/>
+      <c r="UYG14"/>
+      <c r="UYI14"/>
+      <c r="UYK14"/>
+      <c r="UYM14"/>
+      <c r="UYO14"/>
+      <c r="UYQ14"/>
+      <c r="UYS14"/>
+      <c r="UYU14"/>
+      <c r="UYW14"/>
+      <c r="UYY14"/>
+      <c r="UZA14"/>
+      <c r="UZC14"/>
+      <c r="UZE14"/>
+      <c r="UZG14"/>
+      <c r="UZI14"/>
+      <c r="UZK14"/>
+      <c r="UZM14"/>
+      <c r="UZO14"/>
+      <c r="UZQ14"/>
+      <c r="UZS14"/>
+      <c r="UZU14"/>
+      <c r="UZW14"/>
+      <c r="UZY14"/>
+      <c r="VAA14"/>
+      <c r="VAC14"/>
+      <c r="VAE14"/>
+      <c r="VAG14"/>
+      <c r="VAI14"/>
+      <c r="VAK14"/>
+      <c r="VAM14"/>
+      <c r="VAO14"/>
+      <c r="VAQ14"/>
+      <c r="VAS14"/>
+      <c r="VAU14"/>
+      <c r="VAW14"/>
+      <c r="VAY14"/>
+      <c r="VBA14"/>
+      <c r="VBC14"/>
+      <c r="VBE14"/>
+      <c r="VBG14"/>
+      <c r="VBI14"/>
+      <c r="VBK14"/>
+      <c r="VBM14"/>
+      <c r="VBO14"/>
+      <c r="VBQ14"/>
+      <c r="VBS14"/>
+      <c r="VBU14"/>
+      <c r="VBW14"/>
+      <c r="VBY14"/>
+      <c r="VCA14"/>
+      <c r="VCC14"/>
+      <c r="VCE14"/>
+      <c r="VCG14"/>
+      <c r="VCI14"/>
+      <c r="VCK14"/>
+      <c r="VCM14"/>
+      <c r="VCO14"/>
+      <c r="VCQ14"/>
+      <c r="VCS14"/>
+      <c r="VCU14"/>
+      <c r="VCW14"/>
+      <c r="VCY14"/>
+      <c r="VDA14"/>
+      <c r="VDC14"/>
+      <c r="VDE14"/>
+      <c r="VDG14"/>
+      <c r="VDI14"/>
+      <c r="VDK14"/>
+      <c r="VDM14"/>
+      <c r="VDO14"/>
+      <c r="VDQ14"/>
+      <c r="VDS14"/>
+      <c r="VDU14"/>
+      <c r="VDW14"/>
+      <c r="VDY14"/>
+      <c r="VEA14"/>
+      <c r="VEC14"/>
+      <c r="VEE14"/>
+      <c r="VEG14"/>
+      <c r="VEI14"/>
+      <c r="VEK14"/>
+      <c r="VEM14"/>
+      <c r="VEO14"/>
+      <c r="VEQ14"/>
+      <c r="VES14"/>
+      <c r="VEU14"/>
+      <c r="VEW14"/>
+      <c r="VEY14"/>
+      <c r="VFA14"/>
+      <c r="VFC14"/>
+      <c r="VFE14"/>
+      <c r="VFG14"/>
+      <c r="VFI14"/>
+      <c r="VFK14"/>
+      <c r="VFM14"/>
+      <c r="VFO14"/>
+      <c r="VFQ14"/>
+      <c r="VFS14"/>
+      <c r="VFU14"/>
+      <c r="VFW14"/>
+      <c r="VFY14"/>
+      <c r="VGA14"/>
+      <c r="VGC14"/>
+      <c r="VGE14"/>
+      <c r="VGG14"/>
+      <c r="VGI14"/>
+      <c r="VGK14"/>
+      <c r="VGM14"/>
+      <c r="VGO14"/>
+      <c r="VGQ14"/>
+      <c r="VGS14"/>
+      <c r="VGU14"/>
+      <c r="VGW14"/>
+      <c r="VGY14"/>
+      <c r="VHA14"/>
+      <c r="VHC14"/>
+      <c r="VHE14"/>
+      <c r="VHG14"/>
+      <c r="VHI14"/>
+      <c r="VHK14"/>
+      <c r="VHM14"/>
+      <c r="VHO14"/>
+      <c r="VHQ14"/>
+      <c r="VHS14"/>
+      <c r="VHU14"/>
+      <c r="VHW14"/>
+      <c r="VHY14"/>
+      <c r="VIA14"/>
+      <c r="VIC14"/>
+      <c r="VIE14"/>
+      <c r="VIG14"/>
+      <c r="VII14"/>
+      <c r="VIK14"/>
+      <c r="VIM14"/>
+      <c r="VIO14"/>
+      <c r="VIQ14"/>
+      <c r="VIS14"/>
+      <c r="VIU14"/>
+      <c r="VIW14"/>
+      <c r="VIY14"/>
+      <c r="VJA14"/>
+      <c r="VJC14"/>
+      <c r="VJE14"/>
+      <c r="VJG14"/>
+      <c r="VJI14"/>
+      <c r="VJK14"/>
+      <c r="VJM14"/>
+      <c r="VJO14"/>
+      <c r="VJQ14"/>
+      <c r="VJS14"/>
+      <c r="VJU14"/>
+      <c r="VJW14"/>
+      <c r="VJY14"/>
+      <c r="VKA14"/>
+      <c r="VKC14"/>
+      <c r="VKE14"/>
+      <c r="VKG14"/>
+      <c r="VKI14"/>
+      <c r="VKK14"/>
+      <c r="VKM14"/>
+      <c r="VKO14"/>
+      <c r="VKQ14"/>
+      <c r="VKS14"/>
+      <c r="VKU14"/>
+      <c r="VKW14"/>
+      <c r="VKY14"/>
+      <c r="VLA14"/>
+      <c r="VLC14"/>
+      <c r="VLE14"/>
+      <c r="VLG14"/>
+      <c r="VLI14"/>
+      <c r="VLK14"/>
+      <c r="VLM14"/>
+      <c r="VLO14"/>
+      <c r="VLQ14"/>
+      <c r="VLS14"/>
+      <c r="VLU14"/>
+      <c r="VLW14"/>
+      <c r="VLY14"/>
+      <c r="VMA14"/>
+      <c r="VMC14"/>
+      <c r="VME14"/>
+      <c r="VMG14"/>
+      <c r="VMI14"/>
+      <c r="VMK14"/>
+      <c r="VMM14"/>
+      <c r="VMO14"/>
+      <c r="VMQ14"/>
+      <c r="VMS14"/>
+      <c r="VMU14"/>
+      <c r="VMW14"/>
+      <c r="VMY14"/>
+      <c r="VNA14"/>
+      <c r="VNC14"/>
+      <c r="VNE14"/>
+      <c r="VNG14"/>
+      <c r="VNI14"/>
+      <c r="VNK14"/>
+      <c r="VNM14"/>
+      <c r="VNO14"/>
+      <c r="VNQ14"/>
+      <c r="VNS14"/>
+      <c r="VNU14"/>
+      <c r="VNW14"/>
+      <c r="VNY14"/>
+      <c r="VOA14"/>
+      <c r="VOC14"/>
+      <c r="VOE14"/>
+      <c r="VOG14"/>
+      <c r="VOI14"/>
+      <c r="VOK14"/>
+      <c r="VOM14"/>
+      <c r="VOO14"/>
+      <c r="VOQ14"/>
+      <c r="VOS14"/>
+      <c r="VOU14"/>
+      <c r="VOW14"/>
+      <c r="VOY14"/>
+      <c r="VPA14"/>
+      <c r="VPC14"/>
+      <c r="VPE14"/>
+      <c r="VPG14"/>
+      <c r="VPI14"/>
+      <c r="VPK14"/>
+      <c r="VPM14"/>
+      <c r="VPO14"/>
+      <c r="VPQ14"/>
+      <c r="VPS14"/>
+      <c r="VPU14"/>
+      <c r="VPW14"/>
+      <c r="VPY14"/>
+      <c r="VQA14"/>
+      <c r="VQC14"/>
+      <c r="VQE14"/>
+      <c r="VQG14"/>
+      <c r="VQI14"/>
+      <c r="VQK14"/>
+      <c r="VQM14"/>
+      <c r="VQO14"/>
+      <c r="VQQ14"/>
+      <c r="VQS14"/>
+      <c r="VQU14"/>
+      <c r="VQW14"/>
+      <c r="VQY14"/>
+      <c r="VRA14"/>
+      <c r="VRC14"/>
+      <c r="VRE14"/>
+      <c r="VRG14"/>
+      <c r="VRI14"/>
+      <c r="VRK14"/>
+      <c r="VRM14"/>
+      <c r="VRO14"/>
+      <c r="VRQ14"/>
+      <c r="VRS14"/>
+      <c r="VRU14"/>
+      <c r="VRW14"/>
+      <c r="VRY14"/>
+      <c r="VSA14"/>
+      <c r="VSC14"/>
+      <c r="VSE14"/>
+      <c r="VSG14"/>
+      <c r="VSI14"/>
+      <c r="VSK14"/>
+      <c r="VSM14"/>
+      <c r="VSO14"/>
+      <c r="VSQ14"/>
+      <c r="VSS14"/>
+      <c r="VSU14"/>
+      <c r="VSW14"/>
+      <c r="VSY14"/>
+      <c r="VTA14"/>
+      <c r="VTC14"/>
+      <c r="VTE14"/>
+      <c r="VTG14"/>
+      <c r="VTI14"/>
+      <c r="VTK14"/>
+      <c r="VTM14"/>
+      <c r="VTO14"/>
+      <c r="VTQ14"/>
+      <c r="VTS14"/>
+      <c r="VTU14"/>
+      <c r="VTW14"/>
+      <c r="VTY14"/>
+      <c r="VUA14"/>
+      <c r="VUC14"/>
+      <c r="VUE14"/>
+      <c r="VUG14"/>
+      <c r="VUI14"/>
+      <c r="VUK14"/>
+      <c r="VUM14"/>
+      <c r="VUO14"/>
+      <c r="VUQ14"/>
+      <c r="VUS14"/>
+      <c r="VUU14"/>
+      <c r="VUW14"/>
+      <c r="VUY14"/>
+      <c r="VVA14"/>
+      <c r="VVC14"/>
+      <c r="VVE14"/>
+      <c r="VVG14"/>
+      <c r="VVI14"/>
+      <c r="VVK14"/>
+      <c r="VVM14"/>
+      <c r="VVO14"/>
+      <c r="VVQ14"/>
+      <c r="VVS14"/>
+      <c r="VVU14"/>
+      <c r="VVW14"/>
+      <c r="VVY14"/>
+      <c r="VWA14"/>
+      <c r="VWC14"/>
+      <c r="VWE14"/>
+      <c r="VWG14"/>
+      <c r="VWI14"/>
+      <c r="VWK14"/>
+      <c r="VWM14"/>
+      <c r="VWO14"/>
+      <c r="VWQ14"/>
+      <c r="VWS14"/>
+      <c r="VWU14"/>
+      <c r="VWW14"/>
+      <c r="VWY14"/>
+      <c r="VXA14"/>
+      <c r="VXC14"/>
+      <c r="VXE14"/>
+      <c r="VXG14"/>
+      <c r="VXI14"/>
+      <c r="VXK14"/>
+      <c r="VXM14"/>
+      <c r="VXO14"/>
+      <c r="VXQ14"/>
+      <c r="VXS14"/>
+      <c r="VXU14"/>
+      <c r="VXW14"/>
+      <c r="VXY14"/>
+      <c r="VYA14"/>
+      <c r="VYC14"/>
+      <c r="VYE14"/>
+      <c r="VYG14"/>
+      <c r="VYI14"/>
+      <c r="VYK14"/>
+      <c r="VYM14"/>
+      <c r="VYO14"/>
+      <c r="VYQ14"/>
+      <c r="VYS14"/>
+      <c r="VYU14"/>
+      <c r="VYW14"/>
+      <c r="VYY14"/>
+      <c r="VZA14"/>
+      <c r="VZC14"/>
+      <c r="VZE14"/>
+      <c r="VZG14"/>
+      <c r="VZI14"/>
+      <c r="VZK14"/>
+      <c r="VZM14"/>
+      <c r="VZO14"/>
+      <c r="VZQ14"/>
+      <c r="VZS14"/>
+      <c r="VZU14"/>
+      <c r="VZW14"/>
+      <c r="VZY14"/>
+      <c r="WAA14"/>
+      <c r="WAC14"/>
+      <c r="WAE14"/>
+      <c r="WAG14"/>
+      <c r="WAI14"/>
+      <c r="WAK14"/>
+      <c r="WAM14"/>
+      <c r="WAO14"/>
+      <c r="WAQ14"/>
+      <c r="WAS14"/>
+      <c r="WAU14"/>
+      <c r="WAW14"/>
+      <c r="WAY14"/>
+      <c r="WBA14"/>
+      <c r="WBC14"/>
+      <c r="WBE14"/>
+      <c r="WBG14"/>
+      <c r="WBI14"/>
+      <c r="WBK14"/>
+      <c r="WBM14"/>
+      <c r="WBO14"/>
+      <c r="WBQ14"/>
+      <c r="WBS14"/>
+      <c r="WBU14"/>
+      <c r="WBW14"/>
+      <c r="WBY14"/>
+      <c r="WCA14"/>
+      <c r="WCC14"/>
+      <c r="WCE14"/>
+      <c r="WCG14"/>
+      <c r="WCI14"/>
+      <c r="WCK14"/>
+      <c r="WCM14"/>
+      <c r="WCO14"/>
+      <c r="WCQ14"/>
+      <c r="WCS14"/>
+      <c r="WCU14"/>
+      <c r="WCW14"/>
+      <c r="WCY14"/>
+      <c r="WDA14"/>
+      <c r="WDC14"/>
+      <c r="WDE14"/>
+      <c r="WDG14"/>
+      <c r="WDI14"/>
+      <c r="WDK14"/>
+      <c r="WDM14"/>
+      <c r="WDO14"/>
+      <c r="WDQ14"/>
+      <c r="WDS14"/>
+      <c r="WDU14"/>
+      <c r="WDW14"/>
+      <c r="WDY14"/>
+      <c r="WEA14"/>
+      <c r="WEC14"/>
+      <c r="WEE14"/>
+      <c r="WEG14"/>
+      <c r="WEI14"/>
+      <c r="WEK14"/>
+      <c r="WEM14"/>
+      <c r="WEO14"/>
+      <c r="WEQ14"/>
+      <c r="WES14"/>
+      <c r="WEU14"/>
+      <c r="WEW14"/>
+      <c r="WEY14"/>
+      <c r="WFA14"/>
+      <c r="WFC14"/>
+      <c r="WFE14"/>
+      <c r="WFG14"/>
+      <c r="WFI14"/>
+      <c r="WFK14"/>
+      <c r="WFM14"/>
+      <c r="WFO14"/>
+      <c r="WFQ14"/>
+      <c r="WFS14"/>
+      <c r="WFU14"/>
+      <c r="WFW14"/>
+      <c r="WFY14"/>
+      <c r="WGA14"/>
+      <c r="WGC14"/>
+      <c r="WGE14"/>
+      <c r="WGG14"/>
+      <c r="WGI14"/>
+      <c r="WGK14"/>
+      <c r="WGM14"/>
+      <c r="WGO14"/>
+      <c r="WGQ14"/>
+      <c r="WGS14"/>
+      <c r="WGU14"/>
+      <c r="WGW14"/>
+      <c r="WGY14"/>
+      <c r="WHA14"/>
+      <c r="WHC14"/>
+      <c r="WHE14"/>
+      <c r="WHG14"/>
+      <c r="WHI14"/>
+      <c r="WHK14"/>
+      <c r="WHM14"/>
+      <c r="WHO14"/>
+      <c r="WHQ14"/>
+      <c r="WHS14"/>
+      <c r="WHU14"/>
+      <c r="WHW14"/>
+      <c r="WHY14"/>
+      <c r="WIA14"/>
+      <c r="WIC14"/>
+      <c r="WIE14"/>
+      <c r="WIG14"/>
+      <c r="WII14"/>
+      <c r="WIK14"/>
+      <c r="WIM14"/>
+      <c r="WIO14"/>
+      <c r="WIQ14"/>
+      <c r="WIS14"/>
+      <c r="WIU14"/>
+      <c r="WIW14"/>
+      <c r="WIY14"/>
+      <c r="WJA14"/>
+      <c r="WJC14"/>
+      <c r="WJE14"/>
+      <c r="WJG14"/>
+      <c r="WJI14"/>
+      <c r="WJK14"/>
+      <c r="WJM14"/>
+      <c r="WJO14"/>
+      <c r="WJQ14"/>
+      <c r="WJS14"/>
+      <c r="WJU14"/>
+      <c r="WJW14"/>
+      <c r="WJY14"/>
+      <c r="WKA14"/>
+      <c r="WKC14"/>
+      <c r="WKE14"/>
+      <c r="WKG14"/>
+      <c r="WKI14"/>
+      <c r="WKK14"/>
+      <c r="WKM14"/>
+      <c r="WKO14"/>
+      <c r="WKQ14"/>
+      <c r="WKS14"/>
+      <c r="WKU14"/>
+      <c r="WKW14"/>
+      <c r="WKY14"/>
+      <c r="WLA14"/>
+      <c r="WLC14"/>
+      <c r="WLE14"/>
+      <c r="WLG14"/>
+      <c r="WLI14"/>
+      <c r="WLK14"/>
+      <c r="WLM14"/>
+      <c r="WLO14"/>
+      <c r="WLQ14"/>
+      <c r="WLS14"/>
+      <c r="WLU14"/>
+      <c r="WLW14"/>
+      <c r="WLY14"/>
+      <c r="WMA14"/>
+      <c r="WMC14"/>
+      <c r="WME14"/>
+      <c r="WMG14"/>
+      <c r="WMI14"/>
+      <c r="WMK14"/>
+      <c r="WMM14"/>
+      <c r="WMO14"/>
+      <c r="WMQ14"/>
+      <c r="WMS14"/>
+      <c r="WMU14"/>
+      <c r="WMW14"/>
+      <c r="WMY14"/>
+      <c r="WNA14"/>
+      <c r="WNC14"/>
+      <c r="WNE14"/>
+      <c r="WNG14"/>
+      <c r="WNI14"/>
+      <c r="WNK14"/>
+      <c r="WNM14"/>
+      <c r="WNO14"/>
+      <c r="WNQ14"/>
+      <c r="WNS14"/>
+      <c r="WNU14"/>
+      <c r="WNW14"/>
+      <c r="WNY14"/>
+      <c r="WOA14"/>
+      <c r="WOC14"/>
+      <c r="WOE14"/>
+      <c r="WOG14"/>
+      <c r="WOI14"/>
+      <c r="WOK14"/>
+      <c r="WOM14"/>
+      <c r="WOO14"/>
+      <c r="WOQ14"/>
+      <c r="WOS14"/>
+      <c r="WOU14"/>
+      <c r="WOW14"/>
+      <c r="WOY14"/>
+      <c r="WPA14"/>
+      <c r="WPC14"/>
+      <c r="WPE14"/>
+      <c r="WPG14"/>
+      <c r="WPI14"/>
+      <c r="WPK14"/>
+      <c r="WPM14"/>
+      <c r="WPO14"/>
+      <c r="WPQ14"/>
+      <c r="WPS14"/>
+      <c r="WPU14"/>
+      <c r="WPW14"/>
+      <c r="WPY14"/>
+      <c r="WQA14"/>
+      <c r="WQC14"/>
+      <c r="WQE14"/>
+      <c r="WQG14"/>
+      <c r="WQI14"/>
+      <c r="WQK14"/>
+      <c r="WQM14"/>
+      <c r="WQO14"/>
+      <c r="WQQ14"/>
+      <c r="WQS14"/>
+      <c r="WQU14"/>
+      <c r="WQW14"/>
+      <c r="WQY14"/>
+      <c r="WRA14"/>
+      <c r="WRC14"/>
+      <c r="WRE14"/>
+      <c r="WRG14"/>
+      <c r="WRI14"/>
+      <c r="WRK14"/>
+      <c r="WRM14"/>
+      <c r="WRO14"/>
+      <c r="WRQ14"/>
+      <c r="WRS14"/>
+      <c r="WRU14"/>
+      <c r="WRW14"/>
+      <c r="WRY14"/>
+      <c r="WSA14"/>
+      <c r="WSC14"/>
+      <c r="WSE14"/>
+      <c r="WSG14"/>
+      <c r="WSI14"/>
+      <c r="WSK14"/>
+      <c r="WSM14"/>
+      <c r="WSO14"/>
+      <c r="WSQ14"/>
+      <c r="WSS14"/>
+      <c r="WSU14"/>
+      <c r="WSW14"/>
+      <c r="WSY14"/>
+      <c r="WTA14"/>
+      <c r="WTC14"/>
+      <c r="WTE14"/>
+      <c r="WTG14"/>
+      <c r="WTI14"/>
+      <c r="WTK14"/>
+      <c r="WTM14"/>
+      <c r="WTO14"/>
+      <c r="WTQ14"/>
+      <c r="WTS14"/>
+      <c r="WTU14"/>
+      <c r="WTW14"/>
+      <c r="WTY14"/>
+      <c r="WUA14"/>
+      <c r="WUC14"/>
+      <c r="WUE14"/>
+      <c r="WUG14"/>
+      <c r="WUI14"/>
+      <c r="WUK14"/>
+      <c r="WUM14"/>
+      <c r="WUO14"/>
+      <c r="WUQ14"/>
+      <c r="WUS14"/>
+      <c r="WUU14"/>
+      <c r="WUW14"/>
+      <c r="WUY14"/>
+      <c r="WVA14"/>
+      <c r="WVC14"/>
+      <c r="WVE14"/>
+      <c r="WVG14"/>
+      <c r="WVI14"/>
+      <c r="WVK14"/>
+      <c r="WVM14"/>
+      <c r="WVO14"/>
+      <c r="WVQ14"/>
+      <c r="WVS14"/>
+      <c r="WVU14"/>
+      <c r="WVW14"/>
+      <c r="WVY14"/>
+      <c r="WWA14"/>
+      <c r="WWC14"/>
+      <c r="WWE14"/>
+      <c r="WWG14"/>
+      <c r="WWI14"/>
+      <c r="WWK14"/>
+      <c r="WWM14"/>
+      <c r="WWO14"/>
+      <c r="WWQ14"/>
+      <c r="WWS14"/>
+      <c r="WWU14"/>
+      <c r="WWW14"/>
+      <c r="WWY14"/>
+      <c r="WXA14"/>
+      <c r="WXC14"/>
+      <c r="WXE14"/>
+      <c r="WXG14"/>
+      <c r="WXI14"/>
+      <c r="WXK14"/>
+      <c r="WXM14"/>
+      <c r="WXO14"/>
+      <c r="WXQ14"/>
+      <c r="WXS14"/>
+      <c r="WXU14"/>
+      <c r="WXW14"/>
+      <c r="WXY14"/>
+      <c r="WYA14"/>
+      <c r="WYC14"/>
+      <c r="WYE14"/>
+      <c r="WYG14"/>
+      <c r="WYI14"/>
+      <c r="WYK14"/>
+      <c r="WYM14"/>
+      <c r="WYO14"/>
+      <c r="WYQ14"/>
+      <c r="WYS14"/>
+      <c r="WYU14"/>
+      <c r="WYW14"/>
+      <c r="WYY14"/>
+      <c r="WZA14"/>
+      <c r="WZC14"/>
+      <c r="WZE14"/>
+      <c r="WZG14"/>
+      <c r="WZI14"/>
+      <c r="WZK14"/>
+      <c r="WZM14"/>
+      <c r="WZO14"/>
+      <c r="WZQ14"/>
+      <c r="WZS14"/>
+      <c r="WZU14"/>
+      <c r="WZW14"/>
+      <c r="WZY14"/>
+      <c r="XAA14"/>
+      <c r="XAC14"/>
+      <c r="XAE14"/>
+      <c r="XAG14"/>
+      <c r="XAI14"/>
+      <c r="XAK14"/>
+      <c r="XAM14"/>
+      <c r="XAO14"/>
+      <c r="XAQ14"/>
+      <c r="XAS14"/>
+      <c r="XAU14"/>
+      <c r="XAW14"/>
+      <c r="XAY14"/>
+      <c r="XBA14"/>
+      <c r="XBC14"/>
+      <c r="XBE14"/>
+      <c r="XBG14"/>
+      <c r="XBI14"/>
+      <c r="XBK14"/>
+      <c r="XBM14"/>
+      <c r="XBO14"/>
+      <c r="XBQ14"/>
+      <c r="XBS14"/>
+      <c r="XBU14"/>
+      <c r="XBW14"/>
+      <c r="XBY14"/>
+      <c r="XCA14"/>
+      <c r="XCC14"/>
+      <c r="XCE14"/>
+      <c r="XCG14"/>
+      <c r="XCI14"/>
+      <c r="XCK14"/>
+      <c r="XCM14"/>
+      <c r="XCO14"/>
+      <c r="XCQ14"/>
+      <c r="XCS14"/>
+      <c r="XCU14"/>
+      <c r="XCW14"/>
+      <c r="XCY14"/>
+      <c r="XDA14"/>
+      <c r="XDC14"/>
+      <c r="XDE14"/>
+      <c r="XDG14"/>
+      <c r="XDI14"/>
+      <c r="XDK14"/>
+      <c r="XDM14"/>
+      <c r="XDO14"/>
+      <c r="XDQ14"/>
+      <c r="XDS14"/>
+      <c r="XDU14"/>
+      <c r="XDW14"/>
+      <c r="XDY14"/>
+      <c r="XEA14"/>
+      <c r="XEC14"/>
+      <c r="XEE14"/>
+      <c r="XEG14"/>
+      <c r="XEI14"/>
+      <c r="XEK14"/>
+      <c r="XEM14"/>
+      <c r="XEO14"/>
+      <c r="XEQ14"/>
+      <c r="XES14"/>
+      <c r="XEU14"/>
+      <c r="XEW14"/>
+      <c r="XEY14"/>
+      <c r="XFA14"/>
+      <c r="XFC14"/>
+    </row>
+    <row r="15" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1023 1025:2047 2049:3071 3073:4095 4097:5119 5121:6143 6145:7167 7169:8191 8193:9215 9217:10239 10241:11263 11265:12287 12289:13311 13313:14335 14337:15359 15361:16383" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H32" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J32">
+    <sortCondition ref="A4:A32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="G13" twoDigitTextYear="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>